--- a/MP LAUNCHPAD PROJECT.xlsx
+++ b/MP LAUNCHPAD PROJECT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/code/master_proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FF53F6-6067-F144-8F50-9C0F78CD9D52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C4551F-EEE6-CB44-B180-21EE3F5AF201}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="1200" windowWidth="23640" windowHeight="17540" activeTab="4" xr2:uid="{82E405D1-4FF9-4B4B-A5DF-847AC901B550}"/>
+    <workbookView xWindow="3140" yWindow="1040" windowWidth="25420" windowHeight="20220" xr2:uid="{82E405D1-4FF9-4B4B-A5DF-847AC901B550}"/>
   </bookViews>
   <sheets>
     <sheet name="MP_new" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="625">
   <si>
     <t>Scenario</t>
   </si>
@@ -2117,12 +2117,6 @@
   </si>
   <si>
     <t>Values provided by S. Bryson (email from A. Agahi (01/22/19)</t>
-  </si>
-  <si>
-    <t>Hypothetical Breeding Waterfowl Habitat</t>
-  </si>
-  <si>
-    <t>Hypothetical Meadow Habitat</t>
   </si>
 </sst>
 </file>
@@ -3604,7 +3598,7 @@
     <xf numFmtId="0" fontId="24" fillId="11" borderId="78"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="521">
+  <cellXfs count="518">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4653,7 +4647,6 @@
     <xf numFmtId="0" fontId="30" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4718,77 +4711,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4809,6 +4741,12 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4823,6 +4761,82 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -4885,33 +4899,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="86">
@@ -5418,18 +5405,6 @@
                 <c:pt idx="1">
                   <c:v>4926.6207202706355</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>8010.3044875290361</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10986.01091947699</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12266.580595219071</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13243.861425604351</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5492,18 +5467,6 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9926.6207202706355</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17010.304487529036</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19986.01091947699</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21266.580595219071</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22243.861425604351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5724,18 +5687,6 @@
                 <c:pt idx="1">
                   <c:v>2.0785334641965729</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9058537118994825</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8335266463262627</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8335266463262627</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8335266463262627</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5806,18 +5757,6 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.9382694221923642</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.90772370817979864</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90663862492688851</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.92848932854776189</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.90516774620740204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5890,18 +5829,6 @@
                 <c:pt idx="1">
                   <c:v>1.0176368154509927</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.98151778507556697</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0173323650976691</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97503475205132384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.93654363024276988</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5973,18 +5900,6 @@
                 <c:pt idx="1">
                   <c:v>0.90000167824924227</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.89494757050711493</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90024278427093529</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.90089331569719711</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.90065957988852696</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6055,18 +5970,6 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.3400570388796187</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0230894704281621</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90064842063125883</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.90034646398425622</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9000135069388242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6269,18 +6172,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>59692.434433137103</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56608.750665878702</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>53633.044233930748</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>52352.474558188667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>51375.193727803387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6894,70 +6785,70 @@
                   <c:v>302.31617057829607</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1780.1071146601939</c:v>
+                  <c:v>1779.3680790121939</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2407.4697149974727</c:v>
+                  <c:v>2405.9620822755523</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2442.2514136745476</c:v>
+                  <c:v>2439.9444399957506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2478.0845567215038</c:v>
+                  <c:v>2474.9462684475548</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2515.0010072058203</c:v>
+                  <c:v>2510.9981517529131</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2553.0335968764557</c:v>
+                  <c:v>2548.1315915574323</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2592.2161557358713</c:v>
+                  <c:v>2586.3790345560869</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2632.5835425196769</c:v>
+                  <c:v>2625.7739008447015</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2674.1716761119487</c:v>
+                  <c:v>2666.3506131219742</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2717.0175679251388</c:v>
+                  <c:v>2708.1446267675651</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2761.1593552744007</c:v>
+                  <c:v>2751.192460822524</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2806.6363357770833</c:v>
+                  <c:v>2795.5317298991317</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2853.4890028091072</c:v>
+                  <c:v>2841.2011770480376</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2901.7590820509231</c:v>
+                  <c:v>2888.2407076114105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2951.4895691567776</c:v>
+                  <c:v>2936.6914240916844</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3002.7247685820635</c:v>
+                  <c:v>2986.5956620663669</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3055.5103336046141</c:v>
+                  <c:v>3037.9970271802895</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3109.8933075769273</c:v>
+                  <c:v>3090.9404332476302</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3165.9221664474599</c:v>
+                  <c:v>3145.4721414969908</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3223.6468625903203</c:v>
+                  <c:v>3201.6398009938325</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3283.1188699839267</c:v>
+                  <c:v>3259.4924902755793</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3344.3912307804599</c:v>
+                  <c:v>3319.0807602357786</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -7088,70 +6979,70 @@
                   <c:v>19.615000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.481000000000002</c:v>
+                  <c:v>24.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.383000000000003</c:v>
+                  <c:v>29.175000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.9920251355639</c:v>
+                  <c:v>34.343025135563899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76.910152618833237</c:v>
+                  <c:v>39.974152618833237</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>93.928483139003959</c:v>
+                  <c:v>45.994483139003954</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>111.54565835014631</c:v>
+                  <c:v>52.226658350146309</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>130.79224818556034</c:v>
+                  <c:v>59.035248185560327</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>151.18082092003655</c:v>
+                  <c:v>66.247820920036531</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>172.32143117340738</c:v>
+                  <c:v>73.726431173407349</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>195.63459425914041</c:v>
+                  <c:v>81.973594259140398</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>220.47968562410324</c:v>
+                  <c:v>90.762685624103213</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>246.02110802507957</c:v>
+                  <c:v>99.798108025079557</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>274.58460712235467</c:v>
+                  <c:v>109.90260712235462</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>303.95585022140546</c:v>
+                  <c:v>120.29285022140539</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>333.20175373397382</c:v>
+                  <c:v>130.63875373397372</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>364.34167766449895</c:v>
+                  <c:v>141.65467766449885</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>396.44253842472278</c:v>
+                  <c:v>153.01053842472265</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>428.58517904710743</c:v>
+                  <c:v>164.38117904710728</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>462.33495170061127</c:v>
+                  <c:v>176.32035170061113</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>497.77221298679035</c:v>
+                  <c:v>188.85648298679018</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>534.98133733727832</c:v>
+                  <c:v>202.01942083727818</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>574.0509179052907</c:v>
+                  <c:v>215.8405055802906</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -7466,13 +7357,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7524,13 +7415,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7582,13 +7473,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8171,8 +8062,8 @@
   </sheetPr>
   <dimension ref="A1:CP191"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8401,35 +8292,15 @@
       <c r="A6" s="106">
         <v>2</v>
       </c>
-      <c r="B6" s="248">
-        <v>2071.4633826069471</v>
-      </c>
-      <c r="C6" s="248">
-        <v>5526.1245998635768</v>
-      </c>
-      <c r="D6" s="248">
-        <v>4508.7256178707767</v>
-      </c>
-      <c r="E6" s="248">
-        <v>10475.925167612189</v>
-      </c>
-      <c r="F6" s="248">
-        <v>1349.169142965507</v>
-      </c>
-      <c r="G6" s="248">
-        <v>56608.750665878702</v>
-      </c>
-      <c r="H6" s="112">
-        <f>SUMIFS($C$22:$C$188, $H$22:$H$188, "="&amp;$A6,$I$22:$I$188, "hard")</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="112">
-        <f>SUMIFS($C$22:$C$188, $H$22:$H$188, "="&amp;$A6,$I$22:$I$188, "soft")</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="249">
-        <v>9000</v>
-      </c>
+      <c r="B6" s="248"/>
+      <c r="C6" s="248"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="249"/>
       <c r="L6" s="113" t="s">
         <v>15</v>
       </c>
@@ -8445,35 +8316,15 @@
       <c r="A7" s="106">
         <v>3</v>
       </c>
-      <c r="B7" s="248">
-        <v>1992.8514372247309</v>
-      </c>
-      <c r="C7" s="248">
-        <v>5519.5187293737217</v>
-      </c>
-      <c r="D7" s="248">
-        <v>4673.2444038716876</v>
-      </c>
-      <c r="E7" s="248">
-        <v>10537.90898092637</v>
-      </c>
-      <c r="F7" s="248">
-        <v>1187.7036103868641</v>
-      </c>
-      <c r="G7" s="248">
-        <v>53633.044233930748</v>
-      </c>
-      <c r="H7" s="112">
-        <f>SUMIFS($C$22:$C$188, $H$22:$H$188, "="&amp;$A7,$I$22:$I$188, "hard")</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="112">
-        <f>SUMIFS($C$22:$C$188, $H$22:$H$188, "="&amp;$A7,$I$22:$I$188, "soft")</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="249">
-        <v>9000</v>
-      </c>
+      <c r="B7" s="248"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
+      <c r="G7" s="248"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="249"/>
       <c r="CK7" s="239"/>
       <c r="CL7" s="239"/>
       <c r="CM7" s="239"/>
@@ -8485,35 +8336,15 @@
       <c r="A8" s="106">
         <v>4</v>
       </c>
-      <c r="B8" s="248">
-        <v>1992.8514372247309</v>
-      </c>
-      <c r="C8" s="248">
-        <v>5652.5434699589032</v>
-      </c>
-      <c r="D8" s="248">
-        <v>4478.944988805908</v>
-      </c>
-      <c r="E8" s="248">
-        <v>10545.523861133081</v>
-      </c>
-      <c r="F8" s="248">
-        <v>1187.30541394127</v>
-      </c>
-      <c r="G8" s="248">
-        <v>52352.474558188667</v>
-      </c>
-      <c r="H8" s="112">
-        <f>SUMIFS($C$22:$C$188, $H$22:$H$188, "="&amp;$A8,$I$22:$I$188, "hard")</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="112">
-        <f>SUMIFS($C$22:$C$188, $H$22:$H$188, "="&amp;$A8,$I$22:$I$188, "soft")</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="249">
-        <v>9000</v>
-      </c>
+      <c r="B8" s="248"/>
+      <c r="C8" s="248"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="248"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="249"/>
       <c r="CK8" s="239"/>
       <c r="CL8" s="239"/>
       <c r="CM8" s="239"/>
@@ -8525,35 +8356,15 @@
       <c r="A9" s="106">
         <v>5</v>
       </c>
-      <c r="B9" s="248">
-        <v>1992.8514372247309</v>
-      </c>
-      <c r="C9" s="248">
-        <v>5510.5641774523347</v>
-      </c>
-      <c r="D9" s="248">
-        <v>4302.1311708622516</v>
-      </c>
-      <c r="E9" s="248">
-        <v>10542.78783622915</v>
-      </c>
-      <c r="F9" s="248">
-        <v>1186.8663366321839</v>
-      </c>
-      <c r="G9" s="248">
-        <v>51375.193727803387</v>
-      </c>
-      <c r="H9" s="112">
-        <f>SUMIFS($C$22:$C$188, $H$22:$H$188, "="&amp;$A9,$I$22:$I$188, "hard")</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="112">
-        <f>SUMIFS($C$22:$C$188, $H$22:$H$188, "="&amp;$A9,$I$22:$I$188, "soft")</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="249">
-        <v>9000</v>
-      </c>
+      <c r="B9" s="248"/>
+      <c r="C9" s="248"/>
+      <c r="D9" s="248"/>
+      <c r="E9" s="248"/>
+      <c r="F9" s="248"/>
+      <c r="G9" s="248"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="249"/>
       <c r="CK9" s="239"/>
       <c r="CL9" s="239"/>
       <c r="CM9" s="239"/>
@@ -8774,46 +8585,16 @@
       <c r="A15" s="106">
         <v>2</v>
       </c>
-      <c r="B15" s="121">
-        <f t="shared" si="0"/>
-        <v>1.9058537118994825</v>
-      </c>
-      <c r="C15" s="121">
-        <f t="shared" si="0"/>
-        <v>0.90772370817979864</v>
-      </c>
-      <c r="D15" s="121">
-        <f t="shared" si="0"/>
-        <v>0.98151778507556697</v>
-      </c>
-      <c r="E15" s="121">
-        <f t="shared" si="0"/>
-        <v>0.89494757050711493</v>
-      </c>
-      <c r="F15" s="121">
-        <f t="shared" si="0"/>
-        <v>1.0230894704281621</v>
-      </c>
-      <c r="G15" s="121">
-        <f t="shared" si="0"/>
-        <v>0.7717515871069065</v>
-      </c>
-      <c r="H15" s="145">
-        <f t="shared" si="1"/>
-        <v>3083.6837672584006</v>
-      </c>
-      <c r="I15" s="145">
-        <f>SUM(H$14:H15)</f>
-        <v>8010.3044875290361</v>
-      </c>
-      <c r="J15" s="145">
-        <f t="shared" si="2"/>
-        <v>12083.683767258401</v>
-      </c>
-      <c r="K15" s="145">
-        <f>SUM(H$14:H15)+J6</f>
-        <v>17010.304487529036</v>
-      </c>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="145"/>
       <c r="CK15" s="239"/>
       <c r="CL15" s="239"/>
       <c r="CM15" s="239"/>
@@ -8825,46 +8606,16 @@
       <c r="A16" s="106">
         <v>3</v>
       </c>
-      <c r="B16" s="121">
-        <f t="shared" si="0"/>
-        <v>1.8335266463262627</v>
-      </c>
-      <c r="C16" s="121">
-        <f t="shared" si="0"/>
-        <v>0.90663862492688851</v>
-      </c>
-      <c r="D16" s="121">
-        <f t="shared" si="0"/>
-        <v>1.0173323650976691</v>
-      </c>
-      <c r="E16" s="121">
-        <f t="shared" si="0"/>
-        <v>0.90024278427093529</v>
-      </c>
-      <c r="F16" s="121">
-        <f t="shared" si="0"/>
-        <v>0.90064842063125883</v>
-      </c>
-      <c r="G16" s="121">
-        <f t="shared" si="0"/>
-        <v>0.73118354533586116</v>
-      </c>
-      <c r="H16" s="145">
-        <f t="shared" si="1"/>
-        <v>2975.7064319479541</v>
-      </c>
-      <c r="I16" s="145">
-        <f>SUM(H$14:H16)</f>
-        <v>10986.01091947699</v>
-      </c>
-      <c r="J16" s="145">
-        <f t="shared" si="2"/>
-        <v>11975.706431947954</v>
-      </c>
-      <c r="K16" s="145">
-        <f>SUM(H$14:H16)+J7</f>
-        <v>19986.01091947699</v>
-      </c>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="145"/>
+      <c r="K16" s="145"/>
       <c r="CK16" s="239"/>
       <c r="CL16" s="239"/>
       <c r="CM16" s="239"/>
@@ -8876,46 +8627,16 @@
       <c r="A17" s="106">
         <v>4</v>
       </c>
-      <c r="B17" s="121">
-        <f t="shared" si="0"/>
-        <v>1.8335266463262627</v>
-      </c>
-      <c r="C17" s="121">
-        <f t="shared" si="0"/>
-        <v>0.92848932854776189</v>
-      </c>
-      <c r="D17" s="121">
-        <f t="shared" si="0"/>
-        <v>0.97503475205132384</v>
-      </c>
-      <c r="E17" s="121">
-        <f t="shared" si="0"/>
-        <v>0.90089331569719711</v>
-      </c>
-      <c r="F17" s="121">
-        <f t="shared" si="0"/>
-        <v>0.90034646398425622</v>
-      </c>
-      <c r="G17" s="121">
-        <f t="shared" si="0"/>
-        <v>0.71372543739265537</v>
-      </c>
-      <c r="H17" s="145">
-        <f t="shared" si="1"/>
-        <v>1280.569675742081</v>
-      </c>
-      <c r="I17" s="145">
-        <f>SUM(H$14:H17)</f>
-        <v>12266.580595219071</v>
-      </c>
-      <c r="J17" s="145">
-        <f t="shared" si="2"/>
-        <v>10280.569675742081</v>
-      </c>
-      <c r="K17" s="145">
-        <f>SUM(H$14:H17)+J8</f>
-        <v>21266.580595219071</v>
-      </c>
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="145"/>
+      <c r="K17" s="145"/>
       <c r="CK17" s="239"/>
       <c r="CL17" s="239"/>
       <c r="CM17" s="239"/>
@@ -8927,46 +8648,16 @@
       <c r="A18" s="106">
         <v>5</v>
       </c>
-      <c r="B18" s="121">
-        <f t="shared" si="0"/>
-        <v>1.8335266463262627</v>
-      </c>
-      <c r="C18" s="121">
-        <f t="shared" si="0"/>
-        <v>0.90516774620740204</v>
-      </c>
-      <c r="D18" s="121">
-        <f t="shared" si="0"/>
-        <v>0.93654363024276988</v>
-      </c>
-      <c r="E18" s="121">
-        <f t="shared" si="0"/>
-        <v>0.90065957988852696</v>
-      </c>
-      <c r="F18" s="121">
-        <f t="shared" si="0"/>
-        <v>0.9000135069388242</v>
-      </c>
-      <c r="G18" s="121">
-        <f t="shared" si="0"/>
-        <v>0.70040209033010303</v>
-      </c>
-      <c r="H18" s="145">
-        <f t="shared" si="1"/>
-        <v>977.28083038527984</v>
-      </c>
-      <c r="I18" s="145">
-        <f>SUM(H$14:H18)</f>
-        <v>13243.861425604351</v>
-      </c>
-      <c r="J18" s="145">
-        <f t="shared" si="2"/>
-        <v>9977.2808303852798</v>
-      </c>
-      <c r="K18" s="145">
-        <f>SUM(H$14:H18)+J9</f>
-        <v>22243.861425604351</v>
-      </c>
+      <c r="B18" s="121"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="145"/>
+      <c r="K18" s="145"/>
       <c r="CK18" s="239"/>
       <c r="CL18" s="239"/>
       <c r="CM18" s="239"/>
@@ -15719,7 +15410,7 @@
       <c r="L29" s="330"/>
       <c r="M29" s="331"/>
       <c r="AB29" s="238" t="str">
-        <f>'Design HV &amp; WD'!A24</f>
+        <f>'Design HV &amp; WD'!A22</f>
         <v>WF and SB</v>
       </c>
     </row>
@@ -15761,7 +15452,7 @@
       <c r="L31" s="330"/>
       <c r="M31" s="331"/>
       <c r="AB31" s="238" t="str">
-        <f>'Design HV &amp; WD'!A23</f>
+        <f>'Design HV &amp; WD'!A21</f>
         <v>WF</v>
       </c>
     </row>
@@ -15915,7 +15606,7 @@
       <c r="L39" s="330"/>
       <c r="M39" s="331"/>
       <c r="AB39" s="238" t="str">
-        <f>'Design HV &amp; WD'!A25</f>
+        <f>'Design HV &amp; WD'!A23</f>
         <v>WF and SB_SW</v>
       </c>
     </row>
@@ -15977,7 +15668,7 @@
       <c r="L42" s="330"/>
       <c r="M42" s="331"/>
       <c r="AB42" s="238" t="str">
-        <f>'Design HV &amp; WD'!A26</f>
+        <f>'Design HV &amp; WD'!A24</f>
         <v>WF and SB_Br</v>
       </c>
     </row>
@@ -16169,7 +15860,7 @@
       <c r="I51" s="230"/>
       <c r="J51" s="230"/>
       <c r="AB51" s="238" t="str">
-        <f>'Design HV &amp; WD'!A37</f>
+        <f>'Design HV &amp; WD'!A35</f>
         <v>SNPL_SW_DWM</v>
       </c>
     </row>
@@ -16437,7 +16128,7 @@
       <c r="L64" s="330"/>
       <c r="M64" s="331"/>
       <c r="AB64" s="238" t="str">
-        <f>'Design HV &amp; WD'!A29</f>
+        <f>'Design HV &amp; WD'!A27</f>
         <v>SB and SNPL</v>
       </c>
     </row>
@@ -17651,7 +17342,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8E3277B5-0F4B-E440-8ABA-1FD3791E8F6D}">
           <x14:formula1>
-            <xm:f>'Design HV &amp; WD'!$A$4:$A$56</xm:f>
+            <xm:f>'Design HV &amp; WD'!$A$4:$A$54</xm:f>
           </x14:formula1>
           <xm:sqref>C10:J31</xm:sqref>
         </x14:dataValidation>
@@ -17689,16 +17380,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="454" t="s">
+      <c r="A1" s="476" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="455"/>
+      <c r="B1" s="477"/>
     </row>
     <row r="2" spans="1:40" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="456" t="s">
+      <c r="A2" s="478" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="457"/>
+      <c r="B2" s="479"/>
     </row>
     <row r="3" spans="1:40" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="X3" s="239" t="s">
@@ -17706,33 +17397,33 @@
       </c>
     </row>
     <row r="4" spans="1:40" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="464" t="s">
+      <c r="A4" s="483" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="465"/>
+      <c r="B4" s="484"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="468" t="s">
+      <c r="D4" s="487" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="458" t="s">
+      <c r="E4" s="480" t="s">
         <v>176</v>
       </c>
-      <c r="F4" s="459"/>
-      <c r="G4" s="459"/>
-      <c r="H4" s="459"/>
-      <c r="I4" s="459"/>
-      <c r="J4" s="459"/>
-      <c r="K4" s="459"/>
-      <c r="L4" s="459"/>
-      <c r="M4" s="459"/>
-      <c r="N4" s="459"/>
-      <c r="O4" s="459"/>
-      <c r="P4" s="459"/>
-      <c r="Q4" s="459"/>
-      <c r="R4" s="459"/>
-      <c r="S4" s="459"/>
-      <c r="T4" s="459"/>
-      <c r="U4" s="460"/>
+      <c r="F4" s="481"/>
+      <c r="G4" s="481"/>
+      <c r="H4" s="481"/>
+      <c r="I4" s="481"/>
+      <c r="J4" s="481"/>
+      <c r="K4" s="481"/>
+      <c r="L4" s="481"/>
+      <c r="M4" s="481"/>
+      <c r="N4" s="481"/>
+      <c r="O4" s="481"/>
+      <c r="P4" s="481"/>
+      <c r="Q4" s="481"/>
+      <c r="R4" s="481"/>
+      <c r="S4" s="481"/>
+      <c r="T4" s="481"/>
+      <c r="U4" s="482"/>
       <c r="Y4" s="239">
         <f t="shared" ref="Y4:AN4" si="0">E5</f>
         <v>2020</v>
@@ -17799,12 +17490,12 @@
       </c>
     </row>
     <row r="5" spans="1:40" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="466"/>
-      <c r="B5" s="467"/>
+      <c r="A5" s="485"/>
+      <c r="B5" s="486"/>
       <c r="C5" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="469"/>
+      <c r="D5" s="488"/>
       <c r="E5" s="69">
         <f>'Step Cost Analysis'!E5</f>
         <v>2020</v>
@@ -17942,10 +17633,10 @@
       </c>
     </row>
     <row r="6" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="470" t="s">
+      <c r="A6" s="455" t="s">
         <v>179</v>
       </c>
-      <c r="B6" s="471"/>
+      <c r="B6" s="456"/>
       <c r="C6" s="160">
         <v>10</v>
       </c>
@@ -18463,12 +18154,12 @@
       </c>
     </row>
     <row r="12" spans="1:40" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="461" t="s">
+      <c r="A12" s="470" t="s">
         <v>190</v>
       </c>
-      <c r="B12" s="462"/>
-      <c r="C12" s="462"/>
-      <c r="D12" s="463"/>
+      <c r="B12" s="471"/>
+      <c r="C12" s="471"/>
+      <c r="D12" s="472"/>
       <c r="E12" s="279">
         <f t="shared" ref="E12:T12" si="8">SUM(E6:E11)</f>
         <v>1500000</v>
@@ -18603,12 +18294,12 @@
       </c>
     </row>
     <row r="13" spans="1:40" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="461" t="s">
+      <c r="A13" s="470" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="462"/>
-      <c r="C13" s="462"/>
-      <c r="D13" s="463"/>
+      <c r="B13" s="471"/>
+      <c r="C13" s="471"/>
+      <c r="D13" s="472"/>
       <c r="E13" s="279"/>
       <c r="F13" s="279"/>
       <c r="G13" s="279"/>
@@ -18701,10 +18392,10 @@
       </c>
     </row>
     <row r="14" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="470" t="s">
+      <c r="A14" s="455" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="471"/>
+      <c r="B14" s="456"/>
       <c r="C14" s="162">
         <v>10</v>
       </c>
@@ -19219,12 +18910,12 @@
       </c>
     </row>
     <row r="20" spans="1:40" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="461" t="s">
+      <c r="A20" s="470" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="462"/>
-      <c r="C20" s="462"/>
-      <c r="D20" s="463"/>
+      <c r="B20" s="471"/>
+      <c r="C20" s="471"/>
+      <c r="D20" s="472"/>
       <c r="E20" s="279">
         <f t="shared" ref="E20:T20" si="15">SUM(E14:E19)</f>
         <v>0</v>
@@ -19295,12 +18986,12 @@
       </c>
     </row>
     <row r="21" spans="1:40" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="461" t="s">
+      <c r="A21" s="470" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="462"/>
-      <c r="C21" s="462"/>
-      <c r="D21" s="463"/>
+      <c r="B21" s="471"/>
+      <c r="C21" s="471"/>
+      <c r="D21" s="472"/>
       <c r="E21" s="279"/>
       <c r="F21" s="279"/>
       <c r="G21" s="279"/>
@@ -19326,10 +19017,10 @@
       </c>
     </row>
     <row r="22" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="470" t="s">
+      <c r="A22" s="455" t="s">
         <v>197</v>
       </c>
-      <c r="B22" s="471"/>
+      <c r="B22" s="456"/>
       <c r="C22" s="160">
         <v>10</v>
       </c>
@@ -19576,12 +19267,12 @@
       </c>
     </row>
     <row r="28" spans="1:40" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="461" t="s">
+      <c r="A28" s="470" t="s">
         <v>198</v>
       </c>
-      <c r="B28" s="462"/>
-      <c r="C28" s="462"/>
-      <c r="D28" s="463"/>
+      <c r="B28" s="471"/>
+      <c r="C28" s="471"/>
+      <c r="D28" s="472"/>
       <c r="E28" s="279">
         <f t="shared" ref="E28:T28" si="16">SUM(E22:E27)</f>
         <v>0</v>
@@ -19652,12 +19343,12 @@
       </c>
     </row>
     <row r="29" spans="1:40" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="461" t="s">
+      <c r="A29" s="470" t="s">
         <v>199</v>
       </c>
-      <c r="B29" s="462"/>
-      <c r="C29" s="462"/>
-      <c r="D29" s="463"/>
+      <c r="B29" s="471"/>
+      <c r="C29" s="471"/>
+      <c r="D29" s="472"/>
       <c r="E29" s="279"/>
       <c r="F29" s="279"/>
       <c r="G29" s="279"/>
@@ -19683,10 +19374,10 @@
       </c>
     </row>
     <row r="30" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="470" t="s">
+      <c r="A30" s="455" t="s">
         <v>200</v>
       </c>
-      <c r="B30" s="471"/>
+      <c r="B30" s="456"/>
       <c r="C30" s="160">
         <v>10</v>
       </c>
@@ -19933,12 +19624,12 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="461" t="s">
+      <c r="A36" s="470" t="s">
         <v>201</v>
       </c>
-      <c r="B36" s="462"/>
-      <c r="C36" s="462"/>
-      <c r="D36" s="463"/>
+      <c r="B36" s="471"/>
+      <c r="C36" s="471"/>
+      <c r="D36" s="472"/>
       <c r="E36" s="279">
         <f t="shared" ref="E36:T36" si="17">SUM(E30:E35)</f>
         <v>0</v>
@@ -20009,12 +19700,12 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="461" t="s">
+      <c r="A37" s="470" t="s">
         <v>202</v>
       </c>
-      <c r="B37" s="462"/>
-      <c r="C37" s="462"/>
-      <c r="D37" s="463"/>
+      <c r="B37" s="471"/>
+      <c r="C37" s="471"/>
+      <c r="D37" s="472"/>
       <c r="E37" s="279"/>
       <c r="F37" s="279"/>
       <c r="G37" s="279"/>
@@ -20040,10 +19731,10 @@
       </c>
     </row>
     <row r="38" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="470" t="s">
+      <c r="A38" s="455" t="s">
         <v>203</v>
       </c>
-      <c r="B38" s="471"/>
+      <c r="B38" s="456"/>
       <c r="C38" s="160">
         <v>10</v>
       </c>
@@ -20290,12 +19981,12 @@
       </c>
     </row>
     <row r="44" spans="1:22" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="461" t="s">
+      <c r="A44" s="470" t="s">
         <v>204</v>
       </c>
-      <c r="B44" s="462"/>
-      <c r="C44" s="462"/>
-      <c r="D44" s="463"/>
+      <c r="B44" s="471"/>
+      <c r="C44" s="471"/>
+      <c r="D44" s="472"/>
       <c r="E44" s="279">
         <f t="shared" ref="E44:T44" si="18">SUM(E38:E43)</f>
         <v>0</v>
@@ -20366,12 +20057,12 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="461" t="s">
+      <c r="A45" s="470" t="s">
         <v>205</v>
       </c>
-      <c r="B45" s="462"/>
-      <c r="C45" s="462"/>
-      <c r="D45" s="463"/>
+      <c r="B45" s="471"/>
+      <c r="C45" s="471"/>
+      <c r="D45" s="472"/>
       <c r="E45" s="279"/>
       <c r="F45" s="279"/>
       <c r="G45" s="279"/>
@@ -20397,11 +20088,11 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="479" t="s">
+      <c r="A46" s="457" t="s">
         <v>206</v>
       </c>
-      <c r="B46" s="480"/>
-      <c r="C46" s="481"/>
+      <c r="B46" s="458"/>
+      <c r="C46" s="459"/>
       <c r="D46" s="170"/>
       <c r="E46" s="287">
         <f t="shared" ref="E46:U46" si="19">SUM(E6:E11,E14:E19,E22:E27,E30:E35,E38:E43)</f>
@@ -20474,12 +20165,12 @@
       <c r="V46" s="240"/>
     </row>
     <row r="47" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="485" t="s">
+      <c r="A47" s="465" t="s">
         <v>207</v>
       </c>
-      <c r="B47" s="486"/>
-      <c r="C47" s="486"/>
-      <c r="D47" s="487"/>
+      <c r="B47" s="466"/>
+      <c r="C47" s="466"/>
+      <c r="D47" s="467"/>
       <c r="E47" s="288">
         <f>E46</f>
         <v>1500000</v>
@@ -20550,7 +20241,7 @@
     <row r="48" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A48" s="171"/>
       <c r="B48" s="171"/>
-      <c r="C48" s="488" t="s">
+      <c r="C48" s="468" t="s">
         <v>208</v>
       </c>
       <c r="D48" s="172">
@@ -20625,7 +20316,7 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A49" s="171"/>
-      <c r="C49" s="489"/>
+      <c r="C49" s="469"/>
       <c r="D49" s="242">
         <v>37</v>
       </c>
@@ -20696,7 +20387,7 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A50" s="171"/>
-      <c r="C50" s="489"/>
+      <c r="C50" s="469"/>
       <c r="D50" s="242">
         <v>30</v>
       </c>
@@ -20767,7 +20458,7 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A51" s="171"/>
-      <c r="C51" s="489"/>
+      <c r="C51" s="469"/>
       <c r="D51" s="242">
         <v>41</v>
       </c>
@@ -20837,38 +20528,38 @@
       </c>
     </row>
     <row r="52" spans="1:24" ht="22.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="482" t="s">
+      <c r="A52" s="460" t="s">
         <v>209</v>
       </c>
-      <c r="B52" s="483"/>
-      <c r="C52" s="483"/>
-      <c r="D52" s="483"/>
-      <c r="E52" s="483"/>
-      <c r="F52" s="483"/>
-      <c r="G52" s="483"/>
-      <c r="H52" s="483"/>
-      <c r="I52" s="483"/>
-      <c r="J52" s="483"/>
-      <c r="K52" s="483"/>
-      <c r="L52" s="483"/>
-      <c r="M52" s="483"/>
-      <c r="N52" s="483"/>
-      <c r="O52" s="483"/>
-      <c r="P52" s="483"/>
-      <c r="Q52" s="483"/>
-      <c r="R52" s="483"/>
-      <c r="S52" s="483"/>
-      <c r="T52" s="483"/>
-      <c r="U52" s="483"/>
-      <c r="V52" s="483"/>
-      <c r="W52" s="484"/>
+      <c r="B52" s="461"/>
+      <c r="C52" s="461"/>
+      <c r="D52" s="461"/>
+      <c r="E52" s="461"/>
+      <c r="F52" s="461"/>
+      <c r="G52" s="461"/>
+      <c r="H52" s="461"/>
+      <c r="I52" s="461"/>
+      <c r="J52" s="461"/>
+      <c r="K52" s="461"/>
+      <c r="L52" s="461"/>
+      <c r="M52" s="461"/>
+      <c r="N52" s="461"/>
+      <c r="O52" s="461"/>
+      <c r="P52" s="461"/>
+      <c r="Q52" s="461"/>
+      <c r="R52" s="461"/>
+      <c r="S52" s="461"/>
+      <c r="T52" s="461"/>
+      <c r="U52" s="461"/>
+      <c r="V52" s="461"/>
+      <c r="W52" s="462"/>
       <c r="X52" s="240"/>
     </row>
     <row r="53" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="474" t="s">
+      <c r="A53" s="463" t="s">
         <v>210</v>
       </c>
-      <c r="B53" s="475"/>
+      <c r="B53" s="464"/>
       <c r="C53" s="76">
         <v>10</v>
       </c>
@@ -21045,10 +20736,10 @@
       <c r="X57" s="240"/>
     </row>
     <row r="58" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="472" t="s">
+      <c r="A58" s="453" t="s">
         <v>212</v>
       </c>
-      <c r="B58" s="473"/>
+      <c r="B58" s="454"/>
       <c r="C58" s="76">
         <v>10</v>
       </c>
@@ -21230,10 +20921,10 @@
       <c r="X62" s="240"/>
     </row>
     <row r="63" spans="1:24" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="472" t="s">
+      <c r="A63" s="453" t="s">
         <v>213</v>
       </c>
-      <c r="B63" s="473"/>
+      <c r="B63" s="454"/>
       <c r="C63" s="76">
         <v>10</v>
       </c>
@@ -21423,10 +21114,10 @@
       <c r="X67" s="240"/>
     </row>
     <row r="68" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="472" t="s">
+      <c r="A68" s="453" t="s">
         <v>214</v>
       </c>
-      <c r="B68" s="473"/>
+      <c r="B68" s="454"/>
       <c r="C68" s="76">
         <v>10</v>
       </c>
@@ -21604,10 +21295,10 @@
       <c r="X72" s="240"/>
     </row>
     <row r="73" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="472" t="s">
+      <c r="A73" s="453" t="s">
         <v>215</v>
       </c>
-      <c r="B73" s="473"/>
+      <c r="B73" s="454"/>
       <c r="C73" s="76">
         <v>10</v>
       </c>
@@ -21833,10 +21524,10 @@
       <c r="X77" s="240"/>
     </row>
     <row r="78" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="472" t="s">
+      <c r="A78" s="453" t="s">
         <v>217</v>
       </c>
-      <c r="B78" s="473"/>
+      <c r="B78" s="454"/>
       <c r="C78" s="76">
         <v>10</v>
       </c>
@@ -22008,10 +21699,10 @@
       <c r="X82" s="240"/>
     </row>
     <row r="83" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="472" t="s">
+      <c r="A83" s="453" t="s">
         <v>219</v>
       </c>
-      <c r="B83" s="473"/>
+      <c r="B83" s="454"/>
       <c r="C83" s="76">
         <v>10</v>
       </c>
@@ -22183,10 +21874,10 @@
       <c r="X87" s="240"/>
     </row>
     <row r="88" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="472" t="s">
+      <c r="A88" s="453" t="s">
         <v>50</v>
       </c>
-      <c r="B88" s="473"/>
+      <c r="B88" s="454"/>
       <c r="C88" s="76">
         <v>10</v>
       </c>
@@ -22358,10 +22049,10 @@
       <c r="X92" s="240"/>
     </row>
     <row r="93" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="472" t="s">
+      <c r="A93" s="453" t="s">
         <v>222</v>
       </c>
-      <c r="B93" s="473"/>
+      <c r="B93" s="454"/>
       <c r="C93" s="76">
         <v>10</v>
       </c>
@@ -22563,10 +22254,10 @@
       <c r="X97" s="240"/>
     </row>
     <row r="98" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="472" t="s">
+      <c r="A98" s="453" t="s">
         <v>224</v>
       </c>
-      <c r="B98" s="473"/>
+      <c r="B98" s="454"/>
       <c r="C98" s="76">
         <v>10</v>
       </c>
@@ -22758,10 +22449,10 @@
       <c r="X102" s="240"/>
     </row>
     <row r="103" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="472" t="s">
+      <c r="A103" s="453" t="s">
         <v>226</v>
       </c>
-      <c r="B103" s="473"/>
+      <c r="B103" s="454"/>
       <c r="C103" s="76">
         <v>10</v>
       </c>
@@ -22963,10 +22654,10 @@
       <c r="X107" s="240"/>
     </row>
     <row r="108" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="472" t="s">
+      <c r="A108" s="453" t="s">
         <v>227</v>
       </c>
-      <c r="B108" s="473"/>
+      <c r="B108" s="454"/>
       <c r="C108" s="76">
         <v>10</v>
       </c>
@@ -23168,10 +22859,10 @@
       <c r="X112" s="240"/>
     </row>
     <row r="113" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="472" t="s">
+      <c r="A113" s="453" t="s">
         <v>228</v>
       </c>
-      <c r="B113" s="473"/>
+      <c r="B113" s="454"/>
       <c r="C113" s="76">
         <v>10</v>
       </c>
@@ -23333,10 +23024,10 @@
       <c r="X117" s="240"/>
     </row>
     <row r="118" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="472" t="s">
+      <c r="A118" s="453" t="s">
         <v>229</v>
       </c>
-      <c r="B118" s="473"/>
+      <c r="B118" s="454"/>
       <c r="C118" s="76">
         <v>10</v>
       </c>
@@ -23538,10 +23229,10 @@
       <c r="X122" s="240"/>
     </row>
     <row r="123" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="472" t="s">
+      <c r="A123" s="453" t="s">
         <v>230</v>
       </c>
-      <c r="B123" s="473"/>
+      <c r="B123" s="454"/>
       <c r="C123" s="76">
         <v>10</v>
       </c>
@@ -23743,10 +23434,10 @@
       <c r="X127" s="240"/>
     </row>
     <row r="128" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="472" t="s">
+      <c r="A128" s="453" t="s">
         <v>231</v>
       </c>
-      <c r="B128" s="473"/>
+      <c r="B128" s="454"/>
       <c r="C128" s="76">
         <v>10</v>
       </c>
@@ -23948,10 +23639,10 @@
       <c r="X132" s="240"/>
     </row>
     <row r="133" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="472" t="s">
+      <c r="A133" s="453" t="s">
         <v>232</v>
       </c>
-      <c r="B133" s="473"/>
+      <c r="B133" s="454"/>
       <c r="C133" s="76">
         <v>10</v>
       </c>
@@ -24153,10 +23844,10 @@
       <c r="X137" s="240"/>
     </row>
     <row r="138" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="472" t="s">
+      <c r="A138" s="453" t="s">
         <v>233</v>
       </c>
-      <c r="B138" s="473"/>
+      <c r="B138" s="454"/>
       <c r="C138" s="80">
         <v>10</v>
       </c>
@@ -24366,10 +24057,10 @@
       <c r="X142" s="240"/>
     </row>
     <row r="143" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="472" t="s">
+      <c r="A143" s="453" t="s">
         <v>237</v>
       </c>
-      <c r="B143" s="473"/>
+      <c r="B143" s="454"/>
       <c r="C143" s="80">
         <v>10</v>
       </c>
@@ -24462,10 +24153,10 @@
       <c r="X144" s="240"/>
     </row>
     <row r="145" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="474" t="s">
+      <c r="A145" s="463" t="s">
         <v>239</v>
       </c>
-      <c r="B145" s="475"/>
+      <c r="B145" s="464"/>
       <c r="C145" s="76">
         <v>10</v>
       </c>
@@ -24538,10 +24229,10 @@
       <c r="X146" s="240"/>
     </row>
     <row r="147" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="474" t="s">
+      <c r="A147" s="463" t="s">
         <v>240</v>
       </c>
-      <c r="B147" s="475"/>
+      <c r="B147" s="464"/>
       <c r="C147" s="76">
         <v>10</v>
       </c>
@@ -24639,10 +24330,10 @@
       <c r="X148" s="240"/>
     </row>
     <row r="149" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="474" t="s">
+      <c r="A149" s="463" t="s">
         <v>241</v>
       </c>
-      <c r="B149" s="475"/>
+      <c r="B149" s="464"/>
       <c r="C149" s="76">
         <v>10</v>
       </c>
@@ -24764,12 +24455,12 @@
       <c r="X151" s="240"/>
     </row>
     <row r="152" spans="1:24" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="476" t="s">
+      <c r="A152" s="473" t="s">
         <v>242</v>
       </c>
-      <c r="B152" s="477"/>
-      <c r="C152" s="477"/>
-      <c r="D152" s="478"/>
+      <c r="B152" s="474"/>
+      <c r="C152" s="474"/>
+      <c r="D152" s="475"/>
       <c r="E152" s="311">
         <f t="shared" ref="E152:T152" si="25">SUM(E53:E151)</f>
         <v>5075324</v>
@@ -25381,6 +25072,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E4:U4"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A152:D152"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A133:B133"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A30:B30"/>
@@ -25397,37 +25119,6 @@
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A152:D152"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E4:U4"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="79" fitToHeight="0" orientation="landscape"/>
@@ -25506,69 +25197,69 @@
       <c r="BZ1" s="186"/>
     </row>
     <row r="2" spans="1:78" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="454" t="s">
+      <c r="A2" s="476" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="490"/>
-      <c r="C2" s="491"/>
-      <c r="D2" s="493" t="s">
+      <c r="B2" s="496"/>
+      <c r="C2" s="497"/>
+      <c r="D2" s="499" t="s">
         <v>351</v>
       </c>
-      <c r="E2" s="494"/>
-      <c r="F2" s="494"/>
-      <c r="G2" s="494"/>
-      <c r="H2" s="494"/>
-      <c r="I2" s="494"/>
-      <c r="J2" s="494"/>
-      <c r="K2" s="494"/>
-      <c r="L2" s="494"/>
-      <c r="M2" s="494"/>
-      <c r="N2" s="494"/>
-      <c r="O2" s="494"/>
-      <c r="P2" s="494"/>
-      <c r="Q2" s="494"/>
-      <c r="R2" s="494"/>
-      <c r="S2" s="494"/>
-      <c r="T2" s="494"/>
+      <c r="E2" s="500"/>
+      <c r="F2" s="500"/>
+      <c r="G2" s="500"/>
+      <c r="H2" s="500"/>
+      <c r="I2" s="500"/>
+      <c r="J2" s="500"/>
+      <c r="K2" s="500"/>
+      <c r="L2" s="500"/>
+      <c r="M2" s="500"/>
+      <c r="N2" s="500"/>
+      <c r="O2" s="500"/>
+      <c r="P2" s="500"/>
+      <c r="Q2" s="500"/>
+      <c r="R2" s="500"/>
+      <c r="S2" s="500"/>
+      <c r="T2" s="500"/>
       <c r="AA2" s="131"/>
       <c r="BY2" s="186"/>
       <c r="BZ2" s="186"/>
     </row>
     <row r="3" spans="1:78" s="20" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="456" t="s">
+      <c r="A3" s="478" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="490"/>
-      <c r="C3" s="491"/>
+      <c r="B3" s="496"/>
+      <c r="C3" s="497"/>
       <c r="D3" s="52"/>
       <c r="E3" s="53"/>
-      <c r="F3" s="495" t="s">
+      <c r="F3" s="501" t="s">
         <v>352</v>
       </c>
-      <c r="G3" s="496"/>
-      <c r="H3" s="497" t="s">
+      <c r="G3" s="502"/>
+      <c r="H3" s="503" t="s">
         <v>353</v>
       </c>
-      <c r="I3" s="497"/>
-      <c r="J3" s="498"/>
-      <c r="K3" s="499" t="s">
+      <c r="I3" s="503"/>
+      <c r="J3" s="504"/>
+      <c r="K3" s="505" t="s">
         <v>354</v>
       </c>
-      <c r="L3" s="500"/>
-      <c r="M3" s="501"/>
-      <c r="N3" s="498" t="s">
+      <c r="L3" s="506"/>
+      <c r="M3" s="507"/>
+      <c r="N3" s="504" t="s">
         <v>355</v>
       </c>
-      <c r="O3" s="502"/>
-      <c r="P3" s="503"/>
-      <c r="Q3" s="504" t="s">
+      <c r="O3" s="508"/>
+      <c r="P3" s="509"/>
+      <c r="Q3" s="510" t="s">
         <v>356</v>
       </c>
-      <c r="R3" s="505"/>
-      <c r="S3" s="506" t="s">
+      <c r="R3" s="511"/>
+      <c r="S3" s="512" t="s">
         <v>357</v>
       </c>
-      <c r="T3" s="507"/>
+      <c r="T3" s="513"/>
       <c r="AA3" s="132"/>
     </row>
     <row r="4" spans="1:78" s="20" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -25644,11 +25335,11 @@
       </c>
       <c r="B5" s="323">
         <f>Y52-Q52</f>
-        <v>-2301.4455162460272</v>
+        <v>-2481.676299649062</v>
       </c>
       <c r="C5" s="323">
         <f>MAX(R9:R51)*1000000/U52</f>
-        <v>10087.67494659146</v>
+        <v>24855.993018735069</v>
       </c>
       <c r="D5" s="189">
         <v>2020</v>
@@ -25733,7 +25424,7 @@
       <c r="AC6" s="133"/>
     </row>
     <row r="7" spans="1:78" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="512" t="str">
+      <c r="C7" s="490" t="str">
         <f>"Projected Annual Cost
 "&amp;D5&amp;" Dollar Year" &amp;"
 ($Million)"</f>
@@ -25741,81 +25432,81 @@
 2020 Dollar Year
 ($Million)</v>
       </c>
-      <c r="D7" s="515"/>
-      <c r="E7" s="513"/>
-      <c r="F7" s="515" t="s">
+      <c r="D7" s="491"/>
+      <c r="E7" s="492"/>
+      <c r="F7" s="491" t="s">
         <v>380</v>
       </c>
-      <c r="G7" s="515"/>
-      <c r="H7" s="513"/>
-      <c r="I7" s="516" t="str">
+      <c r="G7" s="491"/>
+      <c r="H7" s="492"/>
+      <c r="I7" s="493" t="str">
         <f>"Projected Annual Cost with Financing
 ($Million; NPV=$"&amp;ROUND(Q52,3)&amp;")"</f>
         <v>Projected Annual Cost with Financing
-($Million; NPV=$2620.741)</v>
-      </c>
-      <c r="J7" s="517"/>
-      <c r="K7" s="517"/>
-      <c r="L7" s="517"/>
-      <c r="M7" s="517"/>
-      <c r="N7" s="517"/>
-      <c r="O7" s="517"/>
-      <c r="P7" s="517"/>
-      <c r="Q7" s="517"/>
-      <c r="R7" s="518"/>
-      <c r="S7" s="512" t="str">
+($Million; NPV=$2606.746)</v>
+      </c>
+      <c r="J7" s="494"/>
+      <c r="K7" s="494"/>
+      <c r="L7" s="494"/>
+      <c r="M7" s="494"/>
+      <c r="N7" s="494"/>
+      <c r="O7" s="494"/>
+      <c r="P7" s="494"/>
+      <c r="Q7" s="494"/>
+      <c r="R7" s="495"/>
+      <c r="S7" s="490" t="str">
         <f>"Avoided MWD Purchase 
  ($Million; NPV=$"&amp;ROUND(Y52,3)&amp;")"</f>
         <v>Avoided MWD Purchase 
- ($Million; NPV=$319.295)</v>
-      </c>
-      <c r="T7" s="515"/>
-      <c r="U7" s="515"/>
-      <c r="V7" s="515"/>
-      <c r="W7" s="515"/>
-      <c r="X7" s="513"/>
-      <c r="Y7" s="512" t="s">
+ ($Million; NPV=$125.07)</v>
+      </c>
+      <c r="T7" s="491"/>
+      <c r="U7" s="491"/>
+      <c r="V7" s="491"/>
+      <c r="W7" s="491"/>
+      <c r="X7" s="492"/>
+      <c r="Y7" s="490" t="s">
         <v>381</v>
       </c>
-      <c r="Z7" s="513"/>
+      <c r="Z7" s="492"/>
       <c r="AA7" s="134"/>
-      <c r="AH7" s="508" t="s">
+      <c r="AH7" s="514" t="s">
         <v>382</v>
       </c>
-      <c r="AI7" s="509"/>
+      <c r="AI7" s="515"/>
       <c r="AJ7" s="13"/>
-      <c r="AK7" s="510" t="s">
+      <c r="AK7" s="516" t="s">
         <v>383</v>
       </c>
-      <c r="AL7" s="453"/>
-      <c r="AM7" s="453"/>
-      <c r="AN7" s="509"/>
-      <c r="AP7" s="511" t="s">
+      <c r="AL7" s="452"/>
+      <c r="AM7" s="452"/>
+      <c r="AN7" s="515"/>
+      <c r="AP7" s="517" t="s">
         <v>384</v>
       </c>
-      <c r="AQ7" s="460"/>
-      <c r="AS7" s="492" t="s">
+      <c r="AQ7" s="482"/>
+      <c r="AS7" s="498" t="s">
         <v>385</v>
       </c>
-      <c r="AT7" s="459"/>
-      <c r="AU7" s="459"/>
-      <c r="AV7" s="459"/>
-      <c r="AW7" s="459"/>
-      <c r="AX7" s="459"/>
-      <c r="AY7" s="459"/>
-      <c r="AZ7" s="459"/>
-      <c r="BA7" s="459"/>
-      <c r="BB7" s="460"/>
-      <c r="BD7" s="511" t="s">
+      <c r="AT7" s="481"/>
+      <c r="AU7" s="481"/>
+      <c r="AV7" s="481"/>
+      <c r="AW7" s="481"/>
+      <c r="AX7" s="481"/>
+      <c r="AY7" s="481"/>
+      <c r="AZ7" s="481"/>
+      <c r="BA7" s="481"/>
+      <c r="BB7" s="482"/>
+      <c r="BD7" s="517" t="s">
         <v>386</v>
       </c>
-      <c r="BE7" s="460"/>
+      <c r="BE7" s="482"/>
       <c r="BF7" s="186"/>
-      <c r="BG7" s="492" t="s">
+      <c r="BG7" s="498" t="s">
         <v>387</v>
       </c>
-      <c r="BH7" s="459"/>
-      <c r="BI7" s="459"/>
+      <c r="BH7" s="481"/>
+      <c r="BI7" s="481"/>
       <c r="BY7" s="186"/>
       <c r="BZ7" s="186"/>
     </row>
@@ -26664,7 +26355,7 @@
       </c>
       <c r="E12" s="213">
         <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F12" s="213">
         <f t="shared" si="2"/>
@@ -26676,7 +26367,7 @@
       </c>
       <c r="H12" s="215">
         <f t="shared" si="4"/>
-        <v>0.7390356480000001</v>
+        <v>0</v>
       </c>
       <c r="I12" s="213">
         <f t="shared" si="5"/>
@@ -26688,7 +26379,7 @@
       </c>
       <c r="K12" s="215">
         <f t="shared" si="7"/>
-        <v>0.7390356480000001</v>
+        <v>0</v>
       </c>
       <c r="L12" s="213">
         <f t="shared" si="8"/>
@@ -26712,11 +26403,11 @@
       </c>
       <c r="Q12" s="221">
         <f t="shared" si="12"/>
-        <v>1477.7909440818978</v>
+        <v>1477.0519084338978</v>
       </c>
       <c r="R12" s="222">
         <f t="shared" si="22"/>
-        <v>1780.1071146601939</v>
+        <v>1779.3680790121939</v>
       </c>
       <c r="S12" s="151">
         <f>IF(A12,
@@ -26734,11 +26425,11 @@
         T11,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B12, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <f>IF(A12, (MP_new!$G$4-S12)+T12, 0)</f>
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="V12" s="1">
         <f t="shared" si="13"/>
@@ -26746,19 +26437,19 @@
       </c>
       <c r="W12" s="223">
         <f t="shared" si="14"/>
-        <v>12.866</v>
+        <v>4.5949999999999998</v>
       </c>
       <c r="X12" s="220">
         <f t="shared" si="23"/>
-        <v>32.481000000000002</v>
+        <v>24.21</v>
       </c>
       <c r="Y12" s="220">
         <f t="shared" si="24"/>
-        <v>-1464.9249440818978</v>
+        <v>-1472.4569084338978</v>
       </c>
       <c r="Z12" s="220">
         <f t="shared" si="29"/>
-        <v>-1747.6261146601939</v>
+        <v>-1755.1580790121939</v>
       </c>
       <c r="AA12" s="220">
         <f>IF(SUM(AA$9:AA11)&gt;0,0,IF(AND(Z12&gt;0, MIN(Z13:Z$51)&gt;=0),B12,0))</f>
@@ -26766,7 +26457,7 @@
       </c>
       <c r="AB12" s="220">
         <f>ABS(Z12)*1000000/SUM(U$9:U12)</f>
-        <v>44810.926016928046</v>
+        <v>58505.269300406464</v>
       </c>
       <c r="AH12" s="19">
         <f t="shared" si="25"/>
@@ -26892,7 +26583,7 @@
       </c>
       <c r="E13" s="213">
         <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F13" s="213">
         <f t="shared" si="2"/>
@@ -26904,7 +26595,7 @@
       </c>
       <c r="H13" s="215">
         <f t="shared" si="4"/>
-        <v>0.76859707392000021</v>
+        <v>0</v>
       </c>
       <c r="I13" s="213">
         <f t="shared" si="5"/>
@@ -26916,7 +26607,7 @@
       </c>
       <c r="K13" s="215">
         <f t="shared" si="7"/>
-        <v>0.76859707392000021</v>
+        <v>0</v>
       </c>
       <c r="L13" s="213">
         <f t="shared" si="8"/>
@@ -26940,11 +26631,11 @@
       </c>
       <c r="Q13" s="214">
         <f t="shared" si="12"/>
-        <v>627.36260033727865</v>
+        <v>626.59400326335867</v>
       </c>
       <c r="R13" s="222">
         <f t="shared" si="22"/>
-        <v>2407.4697149974727</v>
+        <v>2405.9620822755523</v>
       </c>
       <c r="S13" s="151">
         <f>IF(A13,
@@ -26962,11 +26653,11 @@
         T12,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B13, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <f>IF(A13, (MP_new!$G$4-S13)+T13, 0)</f>
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="V13" s="1">
         <f t="shared" si="13"/>
@@ -26974,19 +26665,19 @@
       </c>
       <c r="W13" s="216">
         <f t="shared" si="14"/>
-        <v>13.901999999999999</v>
+        <v>4.9649999999999999</v>
       </c>
       <c r="X13" s="213">
         <f t="shared" si="23"/>
-        <v>46.383000000000003</v>
+        <v>29.175000000000001</v>
       </c>
       <c r="Y13" s="213">
         <f t="shared" si="24"/>
-        <v>-613.46060033727861</v>
+        <v>-621.62900326335864</v>
       </c>
       <c r="Z13" s="213">
         <f t="shared" si="29"/>
-        <v>-2361.0867149974729</v>
+        <v>-2376.7870822755522</v>
       </c>
       <c r="AA13" s="220">
         <f>IF(SUM(AA$9:AA12)&gt;0,0,IF(AND(Z13&gt;0, MIN(Z14:Z$51)&gt;=0),B13,0))</f>
@@ -26994,7 +26685,7 @@
       </c>
       <c r="AB13" s="213">
         <f>ABS(Z13)*1000000/SUM(U$9:U13)</f>
-        <v>44548.80594334854</v>
+        <v>67908.202350730062</v>
       </c>
       <c r="AH13" s="17">
         <f t="shared" si="25"/>
@@ -27115,7 +26806,7 @@
       </c>
       <c r="E14" s="213">
         <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F14" s="213">
         <f t="shared" si="2"/>
@@ -27127,7 +26818,7 @@
       </c>
       <c r="H14" s="215">
         <f t="shared" si="4"/>
-        <v>0.79934095687680029</v>
+        <v>0</v>
       </c>
       <c r="I14" s="213">
         <f t="shared" si="5"/>
@@ -27139,7 +26830,7 @@
       </c>
       <c r="K14" s="215">
         <f t="shared" si="7"/>
-        <v>0.79934095687680029</v>
+        <v>0</v>
       </c>
       <c r="L14" s="213">
         <f t="shared" si="8"/>
@@ -27163,11 +26854,11 @@
       </c>
       <c r="Q14" s="221">
         <f t="shared" si="12"/>
-        <v>34.781698677075148</v>
+        <v>33.982357720198351</v>
       </c>
       <c r="R14" s="222">
         <f t="shared" si="22"/>
-        <v>2442.2514136745476</v>
+        <v>2439.9444399957506</v>
       </c>
       <c r="S14" s="151">
         <f>IF(A14,
@@ -27185,11 +26876,11 @@
         T13,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B14, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <f>IF(A14, (MP_new!$G$4-S14)+T14, 0)</f>
-        <v>13926.620720270636</v>
+        <v>4926.6207202706355</v>
       </c>
       <c r="V14" s="1">
         <f t="shared" si="13"/>
@@ -27197,19 +26888,19 @@
       </c>
       <c r="W14" s="223">
         <f t="shared" si="14"/>
-        <v>14.609025135563897</v>
+        <v>5.1680251355638971</v>
       </c>
       <c r="X14" s="220">
         <f t="shared" si="23"/>
-        <v>60.9920251355639</v>
+        <v>34.343025135563899</v>
       </c>
       <c r="Y14" s="220">
         <f t="shared" si="24"/>
-        <v>-20.172673541511251</v>
+        <v>-28.814332584634453</v>
       </c>
       <c r="Z14" s="220">
         <f t="shared" si="29"/>
-        <v>-2381.2593885389838</v>
+        <v>-2405.6014148601867</v>
       </c>
       <c r="AA14" s="220">
         <f>IF(SUM(AA$9:AA13)&gt;0,0,IF(AND(Z14&gt;0, MIN(Z15:Z$51)&gt;=0),B14,0))</f>
@@ -27217,7 +26908,7 @@
       </c>
       <c r="AB14" s="220">
         <f>ABS(Z14)*1000000/SUM(U$9:U14)</f>
-        <v>35580.152754040835</v>
+        <v>60250.563946146067</v>
       </c>
       <c r="AH14" s="19">
         <f t="shared" si="25"/>
@@ -27343,7 +27034,7 @@
       </c>
       <c r="E15" s="213">
         <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F15" s="213">
         <f t="shared" si="2"/>
@@ -27355,7 +27046,7 @@
       </c>
       <c r="H15" s="215">
         <f t="shared" si="4"/>
-        <v>0.83131459515187223</v>
+        <v>0</v>
       </c>
       <c r="I15" s="213">
         <f t="shared" si="5"/>
@@ -27367,7 +27058,7 @@
       </c>
       <c r="K15" s="215">
         <f t="shared" si="7"/>
-        <v>0.83131459515187223</v>
+        <v>0</v>
       </c>
       <c r="L15" s="213">
         <f t="shared" si="8"/>
@@ -27391,11 +27082,11 @@
       </c>
       <c r="Q15" s="214">
         <f t="shared" si="12"/>
-        <v>35.833143046956181</v>
+        <v>35.001828451804307</v>
       </c>
       <c r="R15" s="222">
         <f t="shared" si="22"/>
-        <v>2478.0845567215038</v>
+        <v>2474.9462684475548</v>
       </c>
       <c r="S15" s="151">
         <f>IF(A15,
@@ -27413,11 +27104,11 @@
         T14,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B15, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <f>IF(A15, (MP_new!$G$4-S15)+T15, 0)</f>
-        <v>13926.620720270636</v>
+        <v>4926.6207202706355</v>
       </c>
       <c r="V15" s="1">
         <f t="shared" si="13"/>
@@ -27425,19 +27116,19 @@
       </c>
       <c r="W15" s="216">
         <f t="shared" si="14"/>
-        <v>15.918127483269336</v>
+        <v>5.6311274832693368</v>
       </c>
       <c r="X15" s="213">
         <f t="shared" si="23"/>
-        <v>76.910152618833237</v>
+        <v>39.974152618833237</v>
       </c>
       <c r="Y15" s="213">
         <f t="shared" si="24"/>
-        <v>-19.915015563686843</v>
+        <v>-29.370700968534969</v>
       </c>
       <c r="Z15" s="213">
         <f t="shared" si="29"/>
-        <v>-2401.1744041026705</v>
+        <v>-2434.9721158287216</v>
       </c>
       <c r="AA15" s="220">
         <f>IF(SUM(AA$9:AA14)&gt;0,0,IF(AND(Z15&gt;0, MIN(Z16:Z$51)&gt;=0),B15,0))</f>
@@ -27445,7 +27136,7 @@
       </c>
       <c r="AB15" s="213">
         <f>ABS(Z15)*1000000/SUM(U$9:U15)</f>
-        <v>29697.936178210886</v>
+        <v>54287.539487120222</v>
       </c>
       <c r="AH15" s="17">
         <f t="shared" si="25"/>
@@ -27566,7 +27257,7 @@
       </c>
       <c r="E16" s="213">
         <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F16" s="213">
         <f t="shared" si="2"/>
@@ -27578,7 +27269,7 @@
       </c>
       <c r="H16" s="215">
         <f t="shared" si="4"/>
-        <v>0.8645671789579471</v>
+        <v>0</v>
       </c>
       <c r="I16" s="213">
         <f t="shared" si="5"/>
@@ -27590,7 +27281,7 @@
       </c>
       <c r="K16" s="215">
         <f t="shared" si="7"/>
-        <v>0.8645671789579471</v>
+        <v>0</v>
       </c>
       <c r="L16" s="213">
         <f t="shared" si="8"/>
@@ -27614,11 +27305,11 @@
       </c>
       <c r="Q16" s="221">
         <f t="shared" si="12"/>
-        <v>36.916450484316385</v>
+        <v>36.051883305358437</v>
       </c>
       <c r="R16" s="222">
         <f t="shared" si="22"/>
-        <v>2515.0010072058203</v>
+        <v>2510.9981517529131</v>
       </c>
       <c r="S16" s="151">
         <f>IF(A16,
@@ -27636,11 +27327,11 @@
         T15,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B16, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <f>IF(A16, (MP_new!$G$4-S16)+T16, 0)</f>
-        <v>13926.620720270636</v>
+        <v>4926.6207202706355</v>
       </c>
       <c r="V16" s="1">
         <f t="shared" si="13"/>
@@ -27648,19 +27339,19 @@
       </c>
       <c r="W16" s="223">
         <f t="shared" si="14"/>
-        <v>17.018330520170718</v>
+        <v>6.0203305201707167</v>
       </c>
       <c r="X16" s="220">
         <f t="shared" si="23"/>
-        <v>93.928483139003959</v>
+        <v>45.994483139003954</v>
       </c>
       <c r="Y16" s="220">
         <f t="shared" si="24"/>
-        <v>-19.898119964145668</v>
+        <v>-30.031552785187721</v>
       </c>
       <c r="Z16" s="220">
         <f t="shared" si="29"/>
-        <v>-2421.0725240668162</v>
+        <v>-2465.0036686139092</v>
       </c>
       <c r="AA16" s="220">
         <f>IF(SUM(AA$9:AA15)&gt;0,0,IF(AND(Z16&gt;0, MIN(Z17:Z$51)&gt;=0),B16,0))</f>
@@ -27668,7 +27359,7 @@
       </c>
       <c r="AB16" s="220">
         <f>ABS(Z16)*1000000/SUM(U$9:U16)</f>
-        <v>25544.165911098389</v>
+        <v>49518.089476640387</v>
       </c>
       <c r="AH16" s="19">
         <f t="shared" si="25"/>
@@ -27794,7 +27485,7 @@
       </c>
       <c r="E17" s="213">
         <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F17" s="213">
         <f t="shared" si="2"/>
@@ -27806,7 +27497,7 @@
       </c>
       <c r="H17" s="215">
         <f t="shared" si="4"/>
-        <v>0.89914986611626513</v>
+        <v>0</v>
       </c>
       <c r="I17" s="213">
         <f t="shared" si="5"/>
@@ -27818,7 +27509,7 @@
       </c>
       <c r="K17" s="215">
         <f t="shared" si="7"/>
-        <v>0.89914986611626513</v>
+        <v>0</v>
       </c>
       <c r="L17" s="213">
         <f t="shared" si="8"/>
@@ -27842,11 +27533,11 @@
       </c>
       <c r="Q17" s="214">
         <f t="shared" si="12"/>
-        <v>38.032589670635453</v>
+        <v>37.133439804519185</v>
       </c>
       <c r="R17" s="222">
         <f t="shared" si="22"/>
-        <v>2553.0335968764557</v>
+        <v>2548.1315915574323</v>
       </c>
       <c r="S17" s="151">
         <f>IF(A17,
@@ -27864,11 +27555,11 @@
         T16,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B17, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <f>IF(A17, (MP_new!$G$4-S17)+T17, 0)</f>
-        <v>13926.620720270636</v>
+        <v>4926.6207202706355</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" si="13"/>
@@ -27876,19 +27567,19 @@
       </c>
       <c r="W17" s="216">
         <f t="shared" si="14"/>
-        <v>17.617175211142353</v>
+        <v>6.2321752111423541</v>
       </c>
       <c r="X17" s="213">
         <f t="shared" si="23"/>
-        <v>111.54565835014631</v>
+        <v>52.226658350146309</v>
       </c>
       <c r="Y17" s="213">
         <f t="shared" si="24"/>
-        <v>-20.4154144594931</v>
+        <v>-30.90126459337683</v>
       </c>
       <c r="Z17" s="213">
         <f t="shared" si="29"/>
-        <v>-2441.4879385263093</v>
+        <v>-2495.9049332072859</v>
       </c>
       <c r="AA17" s="220">
         <f>IF(SUM(AA$9:AA16)&gt;0,0,IF(AND(Z17&gt;0, MIN(Z18:Z$51)&gt;=0),B17,0))</f>
@@ -27896,7 +27587,7 @@
       </c>
       <c r="AB17" s="213">
         <f>ABS(Z17)*1000000/SUM(U$9:U17)</f>
-        <v>22459.451118450128</v>
+        <v>45623.567843553836</v>
       </c>
       <c r="AH17" s="17">
         <f t="shared" si="25"/>
@@ -28017,7 +27708,7 @@
       </c>
       <c r="E18" s="213">
         <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F18" s="213">
         <f t="shared" si="2"/>
@@ -28029,7 +27720,7 @@
       </c>
       <c r="H18" s="215">
         <f t="shared" si="4"/>
-        <v>0.9351158607609158</v>
+        <v>0</v>
       </c>
       <c r="I18" s="213">
         <f t="shared" si="5"/>
@@ -28041,7 +27732,7 @@
       </c>
       <c r="K18" s="215">
         <f t="shared" si="7"/>
-        <v>0.9351158607609158</v>
+        <v>0</v>
       </c>
       <c r="L18" s="213">
         <f t="shared" si="8"/>
@@ -28065,11 +27756,11 @@
       </c>
       <c r="Q18" s="221">
         <f t="shared" si="12"/>
-        <v>39.182558859415678</v>
+        <v>38.247442998654762</v>
       </c>
       <c r="R18" s="222">
         <f t="shared" si="22"/>
-        <v>2592.2161557358713</v>
+        <v>2586.3790345560869</v>
       </c>
       <c r="S18" s="151">
         <f>IF(A18,
@@ -28087,11 +27778,11 @@
         T17,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B18, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <f>IF(A18, (MP_new!$G$4-S18)+T18, 0)</f>
-        <v>13926.620720270636</v>
+        <v>4926.6207202706355</v>
       </c>
       <c r="V18" s="1">
         <f t="shared" si="13"/>
@@ -28099,19 +27790,19 @@
       </c>
       <c r="W18" s="223">
         <f t="shared" si="14"/>
-        <v>19.246589835414017</v>
+        <v>6.8085898354140184</v>
       </c>
       <c r="X18" s="220">
         <f t="shared" si="23"/>
-        <v>130.79224818556034</v>
+        <v>59.035248185560327</v>
       </c>
       <c r="Y18" s="220">
         <f t="shared" si="24"/>
-        <v>-19.935969024001661</v>
+        <v>-31.438853163240744</v>
       </c>
       <c r="Z18" s="220">
         <f t="shared" si="29"/>
-        <v>-2461.423907550311</v>
+        <v>-2527.3437863705267</v>
       </c>
       <c r="AA18" s="220">
         <f>IF(SUM(AA$9:AA17)&gt;0,0,IF(AND(Z18&gt;0, MIN(Z19:Z$51)&gt;=0),B18,0))</f>
@@ -28119,7 +27810,7 @@
       </c>
       <c r="AB18" s="220">
         <f>ABS(Z18)*1000000/SUM(U$9:U18)</f>
-        <v>20071.447555887757</v>
+        <v>42381.557117432625</v>
       </c>
       <c r="AH18" s="19">
         <f t="shared" si="25"/>
@@ -28245,7 +27936,7 @@
       </c>
       <c r="E19" s="213">
         <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F19" s="213">
         <f t="shared" si="2"/>
@@ -28257,7 +27948,7 @@
       </c>
       <c r="H19" s="215">
         <f t="shared" si="4"/>
-        <v>0.97252049519135242</v>
+        <v>0</v>
       </c>
       <c r="I19" s="213">
         <f t="shared" si="5"/>
@@ -28269,7 +27960,7 @@
       </c>
       <c r="K19" s="215">
         <f t="shared" si="7"/>
-        <v>0.97252049519135242</v>
+        <v>0</v>
       </c>
       <c r="L19" s="213">
         <f t="shared" si="8"/>
@@ -28293,11 +27984,11 @@
       </c>
       <c r="Q19" s="214">
         <f t="shared" si="12"/>
-        <v>40.367386783805756</v>
+        <v>39.394866288614402</v>
       </c>
       <c r="R19" s="222">
         <f t="shared" si="22"/>
-        <v>2632.5835425196769</v>
+        <v>2625.7739008447015</v>
       </c>
       <c r="S19" s="151">
         <f>IF(A19,
@@ -28315,11 +28006,11 @@
         T18,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B19, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <f>IF(A19, (MP_new!$G$4-S19)+T19, 0)</f>
-        <v>13926.620720270636</v>
+        <v>4926.6207202706355</v>
       </c>
       <c r="V19" s="1">
         <f t="shared" si="13"/>
@@ -28327,19 +28018,19 @@
       </c>
       <c r="W19" s="216">
         <f t="shared" si="14"/>
-        <v>20.38857273447621</v>
+        <v>7.2125727344762103</v>
       </c>
       <c r="X19" s="213">
         <f t="shared" si="23"/>
-        <v>151.18082092003655</v>
+        <v>66.247820920036531</v>
       </c>
       <c r="Y19" s="213">
         <f t="shared" si="24"/>
-        <v>-19.978814049329547</v>
+        <v>-32.182293554138191</v>
       </c>
       <c r="Z19" s="213">
         <f t="shared" si="29"/>
-        <v>-2481.4027215996402</v>
+        <v>-2559.5260799246648</v>
       </c>
       <c r="AA19" s="220">
         <f>IF(SUM(AA$9:AA18)&gt;0,0,IF(AND(Z19&gt;0, MIN(Z20:Z$51)&gt;=0),B19,0))</f>
@@ -28347,7 +28038,7 @@
       </c>
       <c r="AB19" s="213">
         <f>ABS(Z19)*1000000/SUM(U$9:U19)</f>
-        <v>18170.824040003696</v>
+        <v>39645.864458367432</v>
       </c>
       <c r="AH19" s="17">
         <f t="shared" si="25"/>
@@ -28471,7 +28162,7 @@
       </c>
       <c r="E20" s="213">
         <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F20" s="213">
         <f t="shared" si="2"/>
@@ -28483,7 +28174,7 @@
       </c>
       <c r="H20" s="215">
         <f t="shared" si="4"/>
-        <v>1.0114213149990066</v>
+        <v>0</v>
       </c>
       <c r="I20" s="213">
         <f t="shared" si="5"/>
@@ -28495,7 +28186,7 @@
       </c>
       <c r="K20" s="215">
         <f t="shared" si="7"/>
-        <v>1.0114213149990066</v>
+        <v>0</v>
       </c>
       <c r="L20" s="213">
         <f t="shared" si="8"/>
@@ -28519,11 +28210,11 @@
       </c>
       <c r="Q20" s="221">
         <f t="shared" si="12"/>
-        <v>41.588133592271845</v>
+        <v>40.57671227727284</v>
       </c>
       <c r="R20" s="222">
         <f t="shared" si="22"/>
-        <v>2674.1716761119487</v>
+        <v>2666.3506131219742</v>
       </c>
       <c r="S20" s="151">
         <f>IF(A20,
@@ -28541,11 +28232,11 @@
         T19,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B20, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <f>IF(A20, (MP_new!$G$4-S20)+T20, 0)</f>
-        <v>13926.620720270636</v>
+        <v>4926.6207202706355</v>
       </c>
       <c r="V20" s="1">
         <f t="shared" si="13"/>
@@ -28553,19 +28244,19 @@
       </c>
       <c r="W20" s="223">
         <f t="shared" si="14"/>
-        <v>21.140610253370824</v>
+        <v>7.4786102533708245</v>
       </c>
       <c r="X20" s="220">
         <f t="shared" si="23"/>
-        <v>172.32143117340738</v>
+        <v>73.726431173407349</v>
       </c>
       <c r="Y20" s="220">
         <f t="shared" si="24"/>
-        <v>-20.447523338901021</v>
+        <v>-33.098102023902015</v>
       </c>
       <c r="Z20" s="220">
         <f t="shared" si="29"/>
-        <v>-2501.8502449385414</v>
+        <v>-2592.6241819485667</v>
       </c>
       <c r="AA20" s="220">
         <f>IF(SUM(AA$9:AA19)&gt;0,0,IF(AND(Z20&gt;0, MIN(Z21:Z$51)&gt;=0),B20,0))</f>
@@ -28573,7 +28264,7 @@
       </c>
       <c r="AB20" s="220">
         <f>ABS(Z20)*1000000/SUM(U$9:U20)</f>
-        <v>16625.098072798839</v>
+        <v>37311.275767712803</v>
       </c>
       <c r="AH20" s="19">
         <f t="shared" si="25"/>
@@ -28697,7 +28388,7 @@
       </c>
       <c r="E21" s="213">
         <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F21" s="213">
         <f t="shared" si="2"/>
@@ -28709,7 +28400,7 @@
       </c>
       <c r="H21" s="215">
         <f t="shared" si="4"/>
-        <v>1.051878167598967</v>
+        <v>0</v>
       </c>
       <c r="I21" s="213">
         <f t="shared" si="5"/>
@@ -28721,7 +28412,7 @@
       </c>
       <c r="K21" s="215">
         <f t="shared" si="7"/>
-        <v>1.051878167598967</v>
+        <v>0</v>
       </c>
       <c r="L21" s="213">
         <f t="shared" si="8"/>
@@ -28745,11 +28436,11 @@
       </c>
       <c r="Q21" s="214">
         <f t="shared" si="12"/>
-        <v>42.845891813189979</v>
+        <v>41.794013645591015</v>
       </c>
       <c r="R21" s="222">
         <f t="shared" si="22"/>
-        <v>2717.0175679251388</v>
+        <v>2708.1446267675651</v>
       </c>
       <c r="S21" s="151">
         <f>IF(A21,
@@ -28767,11 +28458,11 @@
         T20,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B21, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <f>IF(A21, (MP_new!$G$4-S21)+T21, 0)</f>
-        <v>13926.620720270636</v>
+        <v>4926.6207202706355</v>
       </c>
       <c r="V21" s="1">
         <f t="shared" si="13"/>
@@ -28779,19 +28470,19 @@
       </c>
       <c r="W21" s="216">
         <f t="shared" si="14"/>
-        <v>23.313163085733045</v>
+        <v>8.2471630857330442</v>
       </c>
       <c r="X21" s="213">
         <f t="shared" si="23"/>
-        <v>195.63459425914041</v>
+        <v>81.973594259140398</v>
       </c>
       <c r="Y21" s="213">
         <f t="shared" si="24"/>
-        <v>-19.532728727456934</v>
+        <v>-33.546850559857972</v>
       </c>
       <c r="Z21" s="213">
         <f t="shared" si="29"/>
-        <v>-2521.3829736659982</v>
+        <v>-2626.1710325084246</v>
       </c>
       <c r="AA21" s="220">
         <f>IF(SUM(AA$9:AA20)&gt;0,0,IF(AND(Z21&gt;0, MIN(Z22:Z$51)&gt;=0),B21,0))</f>
@@ -28799,7 +28490,7 @@
       </c>
       <c r="AB21" s="213">
         <f>ABS(Z21)*1000000/SUM(U$9:U21)</f>
-        <v>15335.669921028946</v>
+        <v>35291.847403341759</v>
       </c>
       <c r="AH21" s="17">
         <f t="shared" si="25"/>
@@ -28920,7 +28611,7 @@
       </c>
       <c r="E22" s="213">
         <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F22" s="213">
         <f t="shared" si="2"/>
@@ -28932,7 +28623,7 @@
       </c>
       <c r="H22" s="215">
         <f t="shared" si="4"/>
-        <v>1.0939532943029258</v>
+        <v>0</v>
       </c>
       <c r="I22" s="213">
         <f t="shared" si="5"/>
@@ -28944,7 +28635,7 @@
       </c>
       <c r="K22" s="215">
         <f t="shared" si="7"/>
-        <v>1.0939532943029258</v>
+        <v>0</v>
       </c>
       <c r="L22" s="213">
         <f t="shared" si="8"/>
@@ -28968,11 +28659,11 @@
       </c>
       <c r="Q22" s="221">
         <f t="shared" si="12"/>
-        <v>44.141787349261676</v>
+        <v>43.047834054958749</v>
       </c>
       <c r="R22" s="222">
         <f t="shared" si="22"/>
-        <v>2761.1593552744007</v>
+        <v>2751.192460822524</v>
       </c>
       <c r="S22" s="151">
         <f>IF(A22,
@@ -28990,11 +28681,11 @@
         T21,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B22, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <f>IF(A22, (MP_new!$G$4-S22)+T22, 0)</f>
-        <v>13926.620720270636</v>
+        <v>4926.6207202706355</v>
       </c>
       <c r="V22" s="1">
         <f t="shared" si="13"/>
@@ -29002,19 +28693,19 @@
       </c>
       <c r="W22" s="223">
         <f t="shared" si="14"/>
-        <v>24.845091364962812</v>
+        <v>8.7890913649628146</v>
       </c>
       <c r="X22" s="220">
         <f t="shared" si="23"/>
-        <v>220.47968562410324</v>
+        <v>90.762685624103213</v>
       </c>
       <c r="Y22" s="220">
         <f t="shared" si="24"/>
-        <v>-19.296695984298864</v>
+        <v>-34.258742689995934</v>
       </c>
       <c r="Z22" s="220">
         <f t="shared" si="29"/>
-        <v>-2540.6796696502975</v>
+        <v>-2660.4297751984209</v>
       </c>
       <c r="AA22" s="220">
         <f>IF(SUM(AA$9:AA21)&gt;0,0,IF(AND(Z22&gt;0, MIN(Z23:Z$51)&gt;=0),B22,0))</f>
@@ -29022,7 +28713,7 @@
       </c>
       <c r="AB22" s="220">
         <f>ABS(Z22)*1000000/SUM(U$9:U22)</f>
-        <v>14246.302348023682</v>
+        <v>33532.186051756013</v>
       </c>
       <c r="AH22" s="19">
         <f t="shared" si="25"/>
@@ -29148,7 +28839,7 @@
       </c>
       <c r="E23" s="213">
         <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F23" s="213">
         <f t="shared" si="2"/>
@@ -29160,7 +28851,7 @@
       </c>
       <c r="H23" s="215">
         <f t="shared" si="4"/>
-        <v>1.1377114260750427</v>
+        <v>0</v>
       </c>
       <c r="I23" s="213">
         <f t="shared" si="5"/>
@@ -29172,7 +28863,7 @@
       </c>
       <c r="K23" s="215">
         <f t="shared" si="7"/>
-        <v>1.1377114260750427</v>
+        <v>0</v>
       </c>
       <c r="L23" s="213">
         <f t="shared" si="8"/>
@@ -29196,11 +28887,11 @@
       </c>
       <c r="Q23" s="214">
         <f t="shared" si="12"/>
-        <v>45.476980502682558</v>
+        <v>44.339269076607515</v>
       </c>
       <c r="R23" s="222">
         <f t="shared" si="22"/>
-        <v>2806.6363357770833</v>
+        <v>2795.5317298991317</v>
       </c>
       <c r="S23" s="151">
         <f>IF(A23,
@@ -29218,11 +28909,11 @@
         T22,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B23, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <f>IF(A23, (MP_new!$G$4-S23)+T23, 0)</f>
-        <v>13926.620720270636</v>
+        <v>4926.6207202706355</v>
       </c>
       <c r="V23" s="1">
         <f t="shared" si="13"/>
@@ -29230,19 +28921,19 @@
       </c>
       <c r="W23" s="216">
         <f t="shared" si="14"/>
-        <v>25.541422400976344</v>
+        <v>9.0354224009763442</v>
       </c>
       <c r="X23" s="213">
         <f t="shared" si="23"/>
-        <v>246.02110802507957</v>
+        <v>99.798108025079557</v>
       </c>
       <c r="Y23" s="213">
         <f t="shared" si="24"/>
-        <v>-19.935558101706214</v>
+        <v>-35.303846675631171</v>
       </c>
       <c r="Z23" s="213">
         <f t="shared" si="29"/>
-        <v>-2560.6152277520036</v>
+        <v>-2695.733621874052</v>
       </c>
       <c r="AA23" s="220">
         <f>IF(SUM(AA$9:AA22)&gt;0,0,IF(AND(Z23&gt;0, MIN(Z24:Z$51)&gt;=0),B23,0))</f>
@@ -29250,7 +28941,7 @@
       </c>
       <c r="AB23" s="213">
         <f>ABS(Z23)*1000000/SUM(U$9:U23)</f>
-        <v>13318.072192750673</v>
+        <v>31990.684182442634</v>
       </c>
       <c r="AH23" s="17">
         <f t="shared" si="25"/>
@@ -29371,7 +29062,7 @@
       </c>
       <c r="E24" s="213">
         <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F24" s="213">
         <f t="shared" si="2"/>
@@ -29383,7 +29074,7 @@
       </c>
       <c r="H24" s="215">
         <f t="shared" si="4"/>
-        <v>1.1832198831180443</v>
+        <v>0</v>
       </c>
       <c r="I24" s="213">
         <f t="shared" si="5"/>
@@ -29395,7 +29086,7 @@
       </c>
       <c r="K24" s="215">
         <f t="shared" si="7"/>
-        <v>1.1832198831180443</v>
+        <v>0</v>
       </c>
       <c r="L24" s="213">
         <f t="shared" si="8"/>
@@ -29419,11 +29110,11 @@
       </c>
       <c r="Q24" s="221">
         <f t="shared" si="12"/>
-        <v>46.852667032023781</v>
+        <v>45.669447148905739</v>
       </c>
       <c r="R24" s="222">
         <f t="shared" si="22"/>
-        <v>2853.4890028091072</v>
+        <v>2841.2011770480376</v>
       </c>
       <c r="S24" s="151">
         <f>IF(A24,
@@ -29441,11 +29132,11 @@
         T23,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B24, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <f>IF(A24, (MP_new!$G$4-S24)+T24, 0)</f>
-        <v>13926.620720270636</v>
+        <v>4926.6207202706355</v>
       </c>
       <c r="V24" s="1">
         <f t="shared" si="13"/>
@@ -29453,19 +29144,19 @@
       </c>
       <c r="W24" s="223">
         <f t="shared" si="14"/>
-        <v>28.563499097275074</v>
+        <v>10.104499097275072</v>
       </c>
       <c r="X24" s="220">
         <f t="shared" si="23"/>
-        <v>274.58460712235467</v>
+        <v>109.90260712235462</v>
       </c>
       <c r="Y24" s="220">
         <f t="shared" si="24"/>
-        <v>-18.289167934748708</v>
+        <v>-35.564948051630665</v>
       </c>
       <c r="Z24" s="220">
         <f t="shared" si="29"/>
-        <v>-2578.9043956867527</v>
+        <v>-2731.2985699256828</v>
       </c>
       <c r="AA24" s="220">
         <f>IF(SUM(AA$9:AA23)&gt;0,0,IF(AND(Z24&gt;0, MIN(Z25:Z$51)&gt;=0),B24,0))</f>
@@ -29473,7 +29164,7 @@
       </c>
       <c r="AB24" s="220">
         <f>ABS(Z24)*1000000/SUM(U$9:U24)</f>
-        <v>12507.245871083825</v>
+        <v>30622.401302090253</v>
       </c>
       <c r="AH24" s="19">
         <f t="shared" si="25"/>
@@ -29599,7 +29290,7 @@
       </c>
       <c r="E25" s="213">
         <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F25" s="213">
         <f t="shared" si="2"/>
@@ -29611,7 +29302,7 @@
       </c>
       <c r="H25" s="215">
         <f t="shared" si="4"/>
-        <v>1.2305486784427664</v>
+        <v>0</v>
       </c>
       <c r="I25" s="213">
         <f t="shared" si="5"/>
@@ -29623,7 +29314,7 @@
       </c>
       <c r="K25" s="215">
         <f t="shared" si="7"/>
-        <v>1.2305486784427664</v>
+        <v>0</v>
       </c>
       <c r="L25" s="213">
         <f t="shared" si="8"/>
@@ -29647,11 +29338,11 @@
       </c>
       <c r="Q25" s="214">
         <f t="shared" si="12"/>
-        <v>48.270079241815672</v>
+        <v>47.039530563372907</v>
       </c>
       <c r="R25" s="222">
         <f t="shared" si="22"/>
-        <v>2901.7590820509231</v>
+        <v>2888.2407076114105</v>
       </c>
       <c r="S25" s="151">
         <f>IF(A25,
@@ -29669,11 +29360,11 @@
         T24,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B25, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <f>IF(A25, (MP_new!$G$4-S25)+T25, 0)</f>
-        <v>13926.620720270636</v>
+        <v>4926.6207202706355</v>
       </c>
       <c r="V25" s="1">
         <f t="shared" si="13"/>
@@ -29681,19 +29372,19 @@
       </c>
       <c r="W25" s="216">
         <f t="shared" si="14"/>
-        <v>29.371243099050773</v>
+        <v>10.390243099050769</v>
       </c>
       <c r="X25" s="213">
         <f t="shared" si="23"/>
-        <v>303.95585022140546</v>
+        <v>120.29285022140539</v>
       </c>
       <c r="Y25" s="213">
         <f t="shared" si="24"/>
-        <v>-18.8988361427649</v>
+        <v>-36.649287464322136</v>
       </c>
       <c r="Z25" s="213">
         <f t="shared" si="29"/>
-        <v>-2597.8032318295177</v>
+        <v>-2767.9478573900051</v>
       </c>
       <c r="AA25" s="220">
         <f>IF(SUM(AA$9:AA24)&gt;0,0,IF(AND(Z25&gt;0, MIN(Z26:Z$51)&gt;=0),B25,0))</f>
@@ -29701,7 +29392,7 @@
       </c>
       <c r="AB25" s="213">
         <f>ABS(Z25)*1000000/SUM(U$9:U25)</f>
-        <v>11801.788746254007</v>
+        <v>29408.883044796545</v>
       </c>
       <c r="AH25" s="17">
         <f t="shared" si="25"/>
@@ -29822,7 +29513,7 @@
       </c>
       <c r="E26" s="213">
         <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F26" s="213">
         <f t="shared" si="2"/>
@@ -29834,7 +29525,7 @@
       </c>
       <c r="H26" s="215">
         <f t="shared" si="4"/>
-        <v>1.2797706255804771</v>
+        <v>0</v>
       </c>
       <c r="I26" s="213">
         <f t="shared" si="5"/>
@@ -29846,7 +29537,7 @@
       </c>
       <c r="K26" s="215">
         <f t="shared" si="7"/>
-        <v>1.2797706255804771</v>
+        <v>0</v>
       </c>
       <c r="L26" s="213">
         <f t="shared" si="8"/>
@@ -29870,11 +29561,11 @@
       </c>
       <c r="Q26" s="221">
         <f t="shared" si="12"/>
-        <v>49.730487105854564</v>
+        <v>48.450716480274089</v>
       </c>
       <c r="R26" s="222">
         <f t="shared" si="22"/>
-        <v>2951.4895691567776</v>
+        <v>2936.6914240916844</v>
       </c>
       <c r="S26" s="151">
         <f>IF(A26,
@@ -29892,11 +29583,11 @@
         T25,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B26, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <f>IF(A26, (MP_new!$G$4-S26)+T26, 0)</f>
-        <v>13926.620720270636</v>
+        <v>4926.6207202706355</v>
       </c>
       <c r="V26" s="1">
         <f t="shared" si="13"/>
@@ -29904,19 +29595,19 @@
       </c>
       <c r="W26" s="223">
         <f t="shared" si="14"/>
-        <v>29.245903512568336</v>
+        <v>10.345903512568334</v>
       </c>
       <c r="X26" s="220">
         <f t="shared" si="23"/>
-        <v>333.20175373397382</v>
+        <v>130.63875373397372</v>
       </c>
       <c r="Y26" s="220">
         <f t="shared" si="24"/>
-        <v>-20.484583593286228</v>
+        <v>-38.104812967705755</v>
       </c>
       <c r="Z26" s="220">
         <f t="shared" si="29"/>
-        <v>-2618.2878154228038</v>
+        <v>-2806.0526703577107</v>
       </c>
       <c r="AA26" s="220">
         <f>IF(SUM(AA$9:AA25)&gt;0,0,IF(AND(Z26&gt;0, MIN(Z27:Z$51)&gt;=0),B26,0))</f>
@@ -29924,7 +29615,7 @@
       </c>
       <c r="AB26" s="220">
         <f>ABS(Z26)*1000000/SUM(U$9:U26)</f>
-        <v>11187.061686372957</v>
+        <v>28330.782719493422</v>
       </c>
       <c r="AH26" s="19">
         <f t="shared" si="25"/>
@@ -30050,7 +29741,7 @@
       </c>
       <c r="E27" s="213">
         <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F27" s="213">
         <f t="shared" si="2"/>
@@ -30062,7 +29753,7 @@
       </c>
       <c r="H27" s="215">
         <f t="shared" si="4"/>
-        <v>1.3309614506036962</v>
+        <v>0</v>
       </c>
       <c r="I27" s="213">
         <f t="shared" si="5"/>
@@ -30074,7 +29765,7 @@
       </c>
       <c r="K27" s="215">
         <f t="shared" si="7"/>
-        <v>1.3309614506036962</v>
+        <v>0</v>
       </c>
       <c r="L27" s="213">
         <f t="shared" si="8"/>
@@ -30098,11 +29789,11 @@
       </c>
       <c r="Q27" s="214">
         <f t="shared" si="12"/>
-        <v>51.235199425286012</v>
+        <v>49.904237974682317</v>
       </c>
       <c r="R27" s="222">
         <f t="shared" si="22"/>
-        <v>3002.7247685820635</v>
+        <v>2986.5956620663669</v>
       </c>
       <c r="S27" s="151">
         <f>IF(A27,
@@ -30120,11 +29811,11 @@
         T26,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B27, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="U27" s="1">
         <f>IF(A27, (MP_new!$G$4-S27)+T27, 0)</f>
-        <v>13926.620720270636</v>
+        <v>4926.6207202706355</v>
       </c>
       <c r="V27" s="1">
         <f t="shared" si="13"/>
@@ -30132,19 +29823,19 @@
       </c>
       <c r="W27" s="216">
         <f t="shared" si="14"/>
-        <v>31.139923930525143</v>
+        <v>11.01592393052514</v>
       </c>
       <c r="X27" s="213">
         <f t="shared" si="23"/>
-        <v>364.34167766449895</v>
+        <v>141.65467766449885</v>
       </c>
       <c r="Y27" s="213">
         <f t="shared" si="24"/>
-        <v>-20.09527549476087</v>
+        <v>-38.888314044157177</v>
       </c>
       <c r="Z27" s="213">
         <f t="shared" si="29"/>
-        <v>-2638.3830909175645</v>
+        <v>-2844.9409844018683</v>
       </c>
       <c r="AA27" s="220">
         <f>IF(SUM(AA$9:AA26)&gt;0,0,IF(AND(Z27&gt;0, MIN(Z28:Z$51)&gt;=0),B27,0))</f>
@@ -30152,7 +29843,7 @@
       </c>
       <c r="AB27" s="213">
         <f>ABS(Z27)*1000000/SUM(U$9:U27)</f>
-        <v>10639.8131585622</v>
+        <v>27362.387008638547</v>
       </c>
       <c r="AH27" s="17">
         <f t="shared" si="25"/>
@@ -30273,7 +29964,7 @@
       </c>
       <c r="E28" s="213">
         <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F28" s="213">
         <f t="shared" si="2"/>
@@ -30285,7 +29976,7 @@
       </c>
       <c r="H28" s="215">
         <f t="shared" si="4"/>
-        <v>1.384199908627844</v>
+        <v>0</v>
       </c>
       <c r="I28" s="213">
         <f t="shared" si="5"/>
@@ -30297,7 +29988,7 @@
       </c>
       <c r="K28" s="215">
         <f t="shared" si="7"/>
-        <v>1.384199908627844</v>
+        <v>0</v>
       </c>
       <c r="L28" s="213">
         <f t="shared" si="8"/>
@@ -30321,11 +30012,11 @@
       </c>
       <c r="Q28" s="221">
         <f t="shared" si="12"/>
-        <v>52.785565022550628</v>
+        <v>51.401365113922786</v>
       </c>
       <c r="R28" s="222">
         <f t="shared" si="22"/>
-        <v>3055.5103336046141</v>
+        <v>3037.9970271802895</v>
       </c>
       <c r="S28" s="151">
         <f>IF(A28,
@@ -30343,11 +30034,11 @@
         T27,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B28, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="U28" s="1">
         <f>IF(A28, (MP_new!$G$4-S28)+T28, 0)</f>
-        <v>13926.620720270636</v>
+        <v>4926.6207202706355</v>
       </c>
       <c r="V28" s="1">
         <f t="shared" si="13"/>
@@ -30355,19 +30046,19 @@
       </c>
       <c r="W28" s="223">
         <f t="shared" si="14"/>
-        <v>32.10086076022381</v>
+        <v>11.355860760223814</v>
       </c>
       <c r="X28" s="220">
         <f t="shared" si="23"/>
-        <v>396.44253842472278</v>
+        <v>153.01053842472265</v>
       </c>
       <c r="Y28" s="220">
         <f t="shared" si="24"/>
-        <v>-20.684704262326818</v>
+        <v>-40.045504353698973</v>
       </c>
       <c r="Z28" s="220">
         <f t="shared" si="29"/>
-        <v>-2659.0677951798912</v>
+        <v>-2884.9864887555668</v>
       </c>
       <c r="AA28" s="220">
         <f>IF(SUM(AA$9:AA27)&gt;0,0,IF(AND(Z28&gt;0, MIN(Z29:Z$51)&gt;=0),B28,0))</f>
@@ -30375,7 +30066,7 @@
       </c>
       <c r="AB28" s="220">
         <f>ABS(Z28)*1000000/SUM(U$9:U28)</f>
-        <v>10153.01562656374</v>
+        <v>26492.23826536852</v>
       </c>
       <c r="AH28" s="19">
         <f t="shared" si="25"/>
@@ -30501,7 +30192,7 @@
       </c>
       <c r="E29" s="213">
         <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F29" s="213">
         <f t="shared" si="2"/>
@@ -30513,7 +30204,7 @@
       </c>
       <c r="H29" s="215">
         <f t="shared" si="4"/>
-        <v>1.4395679049729577</v>
+        <v>0</v>
       </c>
       <c r="I29" s="213">
         <f t="shared" si="5"/>
@@ -30525,7 +30216,7 @@
       </c>
       <c r="K29" s="215">
         <f t="shared" si="7"/>
-        <v>1.4395679049729577</v>
+        <v>0</v>
       </c>
       <c r="L29" s="213">
         <f t="shared" si="8"/>
@@ -30549,11 +30240,11 @@
       </c>
       <c r="Q29" s="214">
         <f t="shared" si="12"/>
-        <v>54.38297397231343</v>
+        <v>52.943406067340469</v>
       </c>
       <c r="R29" s="222">
         <f t="shared" si="22"/>
-        <v>3109.8933075769273</v>
+        <v>3090.9404332476302</v>
       </c>
       <c r="S29" s="151">
         <f>IF(A29,
@@ -30571,11 +30262,11 @@
         T28,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B29, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="U29" s="1">
         <f>IF(A29, (MP_new!$G$4-S29)+T29, 0)</f>
-        <v>13926.620720270636</v>
+        <v>4926.6207202706355</v>
       </c>
       <c r="V29" s="1">
         <f t="shared" si="13"/>
@@ -30583,19 +30274,19 @@
       </c>
       <c r="W29" s="216">
         <f t="shared" si="14"/>
-        <v>32.142640622384626</v>
+        <v>11.370640622384627</v>
       </c>
       <c r="X29" s="213">
         <f t="shared" si="23"/>
-        <v>428.58517904710743</v>
+        <v>164.38117904710728</v>
       </c>
       <c r="Y29" s="213">
         <f t="shared" si="24"/>
-        <v>-22.240333349928804</v>
+        <v>-41.572765444955841</v>
       </c>
       <c r="Z29" s="213">
         <f t="shared" si="29"/>
-        <v>-2681.3081285298199</v>
+        <v>-2926.5592542005229</v>
       </c>
       <c r="AA29" s="220">
         <f>IF(SUM(AA$9:AA28)&gt;0,0,IF(AND(Z29&gt;0, MIN(Z30:Z$51)&gt;=0),B29,0))</f>
@@ -30603,7 +30294,7 @@
       </c>
       <c r="AB29" s="213">
         <f>ABS(Z29)*1000000/SUM(U$9:U29)</f>
-        <v>9721.0154016766355</v>
+        <v>25710.830695683544</v>
       </c>
       <c r="AH29" s="17">
         <f t="shared" si="25"/>
@@ -30724,7 +30415,7 @@
       </c>
       <c r="E30" s="213">
         <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F30" s="213">
         <f t="shared" si="2"/>
@@ -30736,7 +30427,7 @@
       </c>
       <c r="H30" s="215">
         <f t="shared" si="4"/>
-        <v>1.4971506211718766</v>
+        <v>0</v>
       </c>
       <c r="I30" s="213">
         <f t="shared" si="5"/>
@@ -30748,7 +30439,7 @@
       </c>
       <c r="K30" s="215">
         <f t="shared" si="7"/>
-        <v>1.4971506211718766</v>
+        <v>0</v>
       </c>
       <c r="L30" s="213">
         <f t="shared" si="8"/>
@@ -30772,11 +30463,11 @@
       </c>
       <c r="Q30" s="221">
         <f t="shared" si="12"/>
-        <v>56.028858870532552</v>
+        <v>54.531708249360676</v>
       </c>
       <c r="R30" s="222">
         <f t="shared" si="22"/>
-        <v>3165.9221664474599</v>
+        <v>3145.4721414969908</v>
       </c>
       <c r="S30" s="151">
         <f>IF(A30,
@@ -30794,11 +30485,11 @@
         T29,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B30, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="U30" s="1">
         <f>IF(A30, (MP_new!$G$4-S30)+T30, 0)</f>
-        <v>13926.620720270636</v>
+        <v>4926.6207202706355</v>
       </c>
       <c r="V30" s="1">
         <f t="shared" si="13"/>
@@ -30806,19 +30497,19 @@
       </c>
       <c r="W30" s="223">
         <f t="shared" si="14"/>
-        <v>33.749772653503861</v>
+        <v>11.93917265350386</v>
       </c>
       <c r="X30" s="220">
         <f t="shared" si="23"/>
-        <v>462.33495170061127</v>
+        <v>176.32035170061113</v>
       </c>
       <c r="Y30" s="220">
         <f t="shared" si="24"/>
-        <v>-22.279086217028691</v>
+        <v>-42.592535595856816</v>
       </c>
       <c r="Z30" s="220">
         <f t="shared" si="29"/>
-        <v>-2703.5872147468485</v>
+        <v>-2969.1517897963795</v>
       </c>
       <c r="AA30" s="220">
         <f>IF(SUM(AA$9:AA29)&gt;0,0,IF(AND(Z30&gt;0, MIN(Z31:Z$51)&gt;=0),B30,0))</f>
@@ -30826,7 +30517,7 @@
       </c>
       <c r="AB30" s="220">
         <f>ABS(Z30)*1000000/SUM(U$9:U30)</f>
-        <v>9330.6761020850536</v>
+        <v>25002.846117198911</v>
       </c>
       <c r="AH30" s="19">
         <f t="shared" si="25"/>
@@ -30957,7 +30648,7 @@
       </c>
       <c r="E31" s="213">
         <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F31" s="213">
         <f t="shared" si="2"/>
@@ -30969,7 +30660,7 @@
       </c>
       <c r="H31" s="215">
         <f t="shared" si="4"/>
-        <v>1.5570366460187515</v>
+        <v>0</v>
       </c>
       <c r="I31" s="213">
         <f t="shared" si="5"/>
@@ -30981,7 +30672,7 @@
       </c>
       <c r="K31" s="215">
         <f t="shared" si="7"/>
-        <v>1.5570366460187515</v>
+        <v>0</v>
       </c>
       <c r="L31" s="213">
         <f t="shared" si="8"/>
@@ -31005,11 +30696,11 @@
       </c>
       <c r="Q31" s="214">
         <f t="shared" si="12"/>
-        <v>57.724696142860253</v>
+        <v>56.167659496841502</v>
       </c>
       <c r="R31" s="222">
         <f t="shared" si="22"/>
-        <v>3223.6468625903203</v>
+        <v>3201.6398009938325</v>
       </c>
       <c r="S31" s="151">
         <f>IF(A31,
@@ -31027,11 +30718,11 @@
         T30,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B31, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="U31" s="1">
         <f>IF(A31, (MP_new!$G$4-S31)+T31, 0)</f>
-        <v>13926.620720270636</v>
+        <v>4926.6207202706355</v>
       </c>
       <c r="V31" s="1">
         <f t="shared" si="13"/>
@@ -31039,19 +30730,19 @@
       </c>
       <c r="W31" s="216">
         <f t="shared" si="14"/>
-        <v>35.437261286179051</v>
+        <v>12.536131286179053</v>
       </c>
       <c r="X31" s="213">
         <f t="shared" si="23"/>
-        <v>497.77221298679035</v>
+        <v>188.85648298679018</v>
       </c>
       <c r="Y31" s="213">
         <f t="shared" si="24"/>
-        <v>-22.287434856681202</v>
+        <v>-43.631528210662452</v>
       </c>
       <c r="Z31" s="213">
         <f t="shared" si="29"/>
-        <v>-2725.8746496035301</v>
+        <v>-3012.7833180070425</v>
       </c>
       <c r="AA31" s="220">
         <f>IF(SUM(AA$9:AA30)&gt;0,0,IF(AND(Z31&gt;0, MIN(Z32:Z$51)&gt;=0),B31,0))</f>
@@ -31059,7 +30750,7 @@
       </c>
       <c r="AB31" s="213">
         <f>ABS(Z31)*1000000/SUM(U$9:U31)</f>
-        <v>8976.1659418074378</v>
+        <v>24359.66578514202</v>
       </c>
       <c r="AH31" s="17">
         <f t="shared" si="25"/>
@@ -31185,7 +30876,7 @@
       </c>
       <c r="E32" s="213">
         <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F32" s="213">
         <f t="shared" si="2"/>
@@ -31197,7 +30888,7 @@
       </c>
       <c r="H32" s="215">
         <f t="shared" si="4"/>
-        <v>1.6193181118595015</v>
+        <v>0</v>
       </c>
       <c r="I32" s="213">
         <f t="shared" si="5"/>
@@ -31209,7 +30900,7 @@
       </c>
       <c r="K32" s="215">
         <f t="shared" si="7"/>
-        <v>1.6193181118595015</v>
+        <v>0</v>
       </c>
       <c r="L32" s="213">
         <f t="shared" si="8"/>
@@ -31233,11 +30924,11 @@
       </c>
       <c r="Q32" s="221">
         <f t="shared" si="12"/>
-        <v>59.472007393606248</v>
+        <v>57.852689281746748</v>
       </c>
       <c r="R32" s="222">
         <f t="shared" si="22"/>
-        <v>3283.1188699839267</v>
+        <v>3259.4924902755793</v>
       </c>
       <c r="S32" s="151">
         <f>IF(A32,
@@ -31255,11 +30946,11 @@
         T31,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B32, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="U32" s="1">
         <f>IF(A32, (MP_new!$G$4-S32)+T32, 0)</f>
-        <v>13926.620720270636</v>
+        <v>4926.6207202706355</v>
       </c>
       <c r="V32" s="1">
         <f t="shared" si="13"/>
@@ -31267,19 +30958,19 @@
       </c>
       <c r="W32" s="223">
         <f t="shared" si="14"/>
-        <v>37.209124350488004</v>
+        <v>13.162937850488005</v>
       </c>
       <c r="X32" s="220">
         <f t="shared" si="23"/>
-        <v>534.98133733727832</v>
+        <v>202.01942083727818</v>
       </c>
       <c r="Y32" s="220">
         <f t="shared" si="24"/>
-        <v>-22.262883043118244</v>
+        <v>-44.689751431258742</v>
       </c>
       <c r="Z32" s="220">
         <f t="shared" si="29"/>
-        <v>-2748.1375326466487</v>
+        <v>-3057.4730694383011</v>
       </c>
       <c r="AA32" s="220">
         <f>IF(SUM(AA$9:AA31)&gt;0,0,IF(AND(Z32&gt;0, MIN(Z33:Z$51)&gt;=0),B32,0))</f>
@@ -31287,7 +30978,7 @@
       </c>
       <c r="AB32" s="220">
         <f>ABS(Z32)*1000000/SUM(U$9:U32)</f>
-        <v>8652.6681417248001</v>
+        <v>23773.991682860953</v>
       </c>
       <c r="AH32" s="19">
         <f t="shared" si="25"/>
@@ -31418,7 +31109,7 @@
       </c>
       <c r="E33" s="213">
         <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F33" s="213">
         <f t="shared" si="2"/>
@@ -31430,7 +31121,7 @@
       </c>
       <c r="H33" s="215">
         <f t="shared" si="4"/>
-        <v>1.6840908363338816</v>
+        <v>0</v>
       </c>
       <c r="I33" s="213">
         <f t="shared" si="5"/>
@@ -31442,7 +31133,7 @@
       </c>
       <c r="K33" s="215">
         <f t="shared" si="7"/>
-        <v>1.6840908363338816</v>
+        <v>0</v>
       </c>
       <c r="L33" s="213">
         <f t="shared" si="8"/>
@@ -31466,11 +31157,11 @@
       </c>
       <c r="Q33" s="214">
         <f t="shared" si="12"/>
-        <v>61.272360796533022</v>
+        <v>59.588269960199142</v>
       </c>
       <c r="R33" s="222">
         <f t="shared" si="22"/>
-        <v>3344.3912307804599</v>
+        <v>3319.0807602357786</v>
       </c>
       <c r="S33" s="151">
         <f>IF(A33,
@@ -31488,11 +31179,11 @@
         T32,
         INDEX(MP_new!$A$5:$J$9, INDEX('Cost Analysis Input'!$B$3:$D$7, MATCH(B33, 'Cost Analysis Input'!$B$3:$B$7, 1), 3), 10)),
     0), 0)</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="U33" s="1">
         <f>IF(A33, (MP_new!$G$4-S33)+T33, 0)</f>
-        <v>13926.620720270636</v>
+        <v>4926.6207202706355</v>
       </c>
       <c r="V33" s="1">
         <f t="shared" si="13"/>
@@ -31500,19 +31191,19 @@
       </c>
       <c r="W33" s="216">
         <f t="shared" si="14"/>
-        <v>39.069580568012412</v>
+        <v>13.821084743012406</v>
       </c>
       <c r="X33" s="213">
         <f t="shared" si="23"/>
-        <v>574.0509179052907</v>
+        <v>215.8405055802906</v>
       </c>
       <c r="Y33" s="213">
         <f t="shared" si="24"/>
-        <v>-22.202780228520609</v>
+        <v>-45.767185217186736</v>
       </c>
       <c r="Z33" s="213">
         <f t="shared" si="29"/>
-        <v>-2770.3403128751693</v>
+        <v>-3103.2402546554881</v>
       </c>
       <c r="AA33" s="220">
         <f>IF(SUM(AA$9:AA32)&gt;0,0,IF(AND(Z33&gt;0, MIN(Z34:Z$51)&gt;=0),B33,0))</f>
@@ -31520,7 +31211,7 @@
       </c>
       <c r="AB33" s="213">
         <f>ABS(Z33)*1000000/SUM(U$9:U33)</f>
-        <v>8356.1672780733661</v>
+        <v>23239.602672305886</v>
       </c>
       <c r="AH33" s="17">
         <f t="shared" si="25"/>
@@ -35726,21 +35417,21 @@
       </c>
       <c r="Q52" s="226">
         <f>NPV($G$5,Q9:Q51)*(1+$G$5)^($F$5-($E$5-1))</f>
-        <v>2620.7409010547271</v>
+        <v>2606.7462635298129</v>
       </c>
       <c r="T52" s="65" t="s">
         <v>432</v>
       </c>
       <c r="U52" s="184">
         <f>SUM(U9:U51)</f>
-        <v>331532.41440541274</v>
+        <v>133532.4144054128</v>
       </c>
       <c r="X52" s="65" t="s">
         <v>433</v>
       </c>
       <c r="Y52" s="227">
         <f>NPV($G$5,W9:W51)*(1+$G$5)^($F$5-($E$5-1))</f>
-        <v>319.29538480869996</v>
+        <v>125.06996388075083</v>
       </c>
       <c r="Z52" s="22" t="s">
         <v>434</v>
@@ -35754,29 +35445,29 @@
       </c>
       <c r="AD52" s="228">
         <f>MAX(R9:R51)*1000000/U52</f>
-        <v>10087.67494659146</v>
+        <v>24855.993018735069</v>
       </c>
       <c r="BY52" s="186"/>
       <c r="BZ52" s="186"/>
     </row>
     <row r="53" spans="1:78" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="514"/>
-      <c r="D53" s="514"/>
-      <c r="E53" s="514"/>
-      <c r="F53" s="514"/>
-      <c r="G53" s="514"/>
-      <c r="H53" s="514"/>
-      <c r="I53" s="514"/>
-      <c r="J53" s="514"/>
-      <c r="K53" s="514"/>
-      <c r="L53" s="514"/>
-      <c r="M53" s="514"/>
+      <c r="C53" s="489"/>
+      <c r="D53" s="489"/>
+      <c r="E53" s="489"/>
+      <c r="F53" s="489"/>
+      <c r="G53" s="489"/>
+      <c r="H53" s="489"/>
+      <c r="I53" s="489"/>
+      <c r="J53" s="489"/>
+      <c r="K53" s="489"/>
+      <c r="L53" s="489"/>
+      <c r="M53" s="489"/>
       <c r="AC53" s="136" t="s">
         <v>436</v>
       </c>
       <c r="AD53" s="229">
         <f>Y52-Q52</f>
-        <v>-2301.4455162460272</v>
+        <v>-2481.676299649062</v>
       </c>
       <c r="BY53" s="186"/>
       <c r="BZ53" s="186"/>
@@ -35909,11 +35600,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C53:M53"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="S7:X7"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="BG7:BI7"/>
@@ -35930,6 +35616,11 @@
     <mergeCell ref="AS7:BB7"/>
     <mergeCell ref="BD7:BE7"/>
     <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="C53:M53"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="S7:X7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="5">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N5 S5 X6" xr:uid="{00000000-0002-0000-0800-000000000000}">
@@ -36022,10 +35713,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="434" t="s">
+      <c r="A3" s="433" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="435"/>
+      <c r="B3" s="434"/>
       <c r="J3" s="230" t="s">
         <v>520</v>
       </c>
@@ -36148,10 +35839,10 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="434" t="s">
+      <c r="A7" s="433" t="s">
         <v>247</v>
       </c>
-      <c r="B7" s="435"/>
+      <c r="B7" s="434"/>
       <c r="C7" s="115" t="s">
         <v>248</v>
       </c>
@@ -36479,10 +36170,10 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="436" t="s">
+      <c r="A23" s="435" t="s">
         <v>255</v>
       </c>
-      <c r="B23" s="435"/>
+      <c r="B23" s="434"/>
       <c r="C23" t="s">
         <v>256</v>
       </c>
@@ -38182,7 +37873,7 @@
       <c r="L29" s="330"/>
       <c r="M29" s="331"/>
       <c r="AB29" s="238" t="str">
-        <f>'Design HV &amp; WD'!A24</f>
+        <f>'Design HV &amp; WD'!A22</f>
         <v>WF and SB</v>
       </c>
     </row>
@@ -38224,7 +37915,7 @@
       <c r="L31" s="330"/>
       <c r="M31" s="331"/>
       <c r="AB31" s="238" t="str">
-        <f>'Design HV &amp; WD'!A23</f>
+        <f>'Design HV &amp; WD'!A21</f>
         <v>WF</v>
       </c>
     </row>
@@ -38378,7 +38069,7 @@
       <c r="L39" s="330"/>
       <c r="M39" s="331"/>
       <c r="AB39" s="238" t="str">
-        <f>'Design HV &amp; WD'!A25</f>
+        <f>'Design HV &amp; WD'!A23</f>
         <v>WF and SB_SW</v>
       </c>
     </row>
@@ -38440,7 +38131,7 @@
       <c r="L42" s="330"/>
       <c r="M42" s="331"/>
       <c r="AB42" s="238" t="str">
-        <f>'Design HV &amp; WD'!A26</f>
+        <f>'Design HV &amp; WD'!A24</f>
         <v>WF and SB_Br</v>
       </c>
     </row>
@@ -38624,7 +38315,7 @@
       <c r="I51" s="230"/>
       <c r="J51" s="230"/>
       <c r="AB51" s="238" t="str">
-        <f>'Design HV &amp; WD'!A37</f>
+        <f>'Design HV &amp; WD'!A35</f>
         <v>SNPL_SW_DWM</v>
       </c>
     </row>
@@ -38872,7 +38563,7 @@
       <c r="L64" s="330"/>
       <c r="M64" s="331"/>
       <c r="AB64" s="238" t="str">
-        <f>'Design HV &amp; WD'!A29</f>
+        <f>'Design HV &amp; WD'!A27</f>
         <v>SB and SNPL</v>
       </c>
     </row>
@@ -40208,14 +39899,14 @@
         <v>11</v>
       </c>
       <c r="I2" s="360"/>
-      <c r="J2" s="437" t="s">
+      <c r="J2" s="436" t="s">
         <v>503</v>
       </c>
-      <c r="K2" s="438"/>
-      <c r="L2" s="438"/>
-      <c r="M2" s="438"/>
-      <c r="N2" s="438"/>
-      <c r="O2" s="438"/>
+      <c r="K2" s="437"/>
+      <c r="L2" s="437"/>
+      <c r="M2" s="437"/>
+      <c r="N2" s="437"/>
+      <c r="O2" s="437"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="412" t="s">
@@ -40243,12 +39934,12 @@
         <v>11</v>
       </c>
       <c r="I3" s="360"/>
-      <c r="J3" s="438"/>
-      <c r="K3" s="438"/>
-      <c r="L3" s="438"/>
-      <c r="M3" s="438"/>
-      <c r="N3" s="438"/>
-      <c r="O3" s="438"/>
+      <c r="J3" s="437"/>
+      <c r="K3" s="437"/>
+      <c r="L3" s="437"/>
+      <c r="M3" s="437"/>
+      <c r="N3" s="437"/>
+      <c r="O3" s="437"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="239" t="s">
@@ -40276,12 +39967,12 @@
         <v>11</v>
       </c>
       <c r="I4" s="360"/>
-      <c r="J4" s="438"/>
-      <c r="K4" s="438"/>
-      <c r="L4" s="438"/>
-      <c r="M4" s="438"/>
-      <c r="N4" s="438"/>
-      <c r="O4" s="438"/>
+      <c r="J4" s="437"/>
+      <c r="K4" s="437"/>
+      <c r="L4" s="437"/>
+      <c r="M4" s="437"/>
+      <c r="N4" s="437"/>
+      <c r="O4" s="437"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="238" t="s">
@@ -40414,7 +40105,7 @@
         <v>2.21</v>
       </c>
       <c r="I8" s="360"/>
-      <c r="J8" s="432"/>
+      <c r="J8" s="431"/>
       <c r="K8" s="350" t="s">
         <v>624</v>
       </c>
@@ -41128,19 +40819,19 @@
       <c r="B34" s="92" t="s">
         <v>524</v>
       </c>
-      <c r="C34" s="433">
-        <v>0</v>
-      </c>
-      <c r="D34" s="433">
+      <c r="C34" s="432">
+        <v>0</v>
+      </c>
+      <c r="D34" s="432">
         <v>0.35</v>
       </c>
-      <c r="E34" s="433">
+      <c r="E34" s="432">
         <v>0.19</v>
       </c>
-      <c r="F34" s="433">
+      <c r="F34" s="432">
         <v>0.6</v>
       </c>
-      <c r="G34" s="433">
+      <c r="G34" s="432">
         <v>0</v>
       </c>
       <c r="H34" s="385">
@@ -47221,10 +46912,10 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB77"/>
+  <dimension ref="A1:AB75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -47243,18 +46934,18 @@
     </row>
     <row r="2" spans="1:28" s="239" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="342"/>
-      <c r="D2" s="439" t="s">
+      <c r="D2" s="438" t="s">
         <v>277</v>
       </c>
-      <c r="E2" s="440"/>
-      <c r="F2" s="440"/>
-      <c r="G2" s="440"/>
-      <c r="H2" s="440"/>
+      <c r="E2" s="439"/>
+      <c r="F2" s="439"/>
+      <c r="G2" s="439"/>
+      <c r="H2" s="439"/>
       <c r="I2" s="241"/>
-      <c r="S2" s="443" t="s">
+      <c r="S2" s="442" t="s">
         <v>278</v>
       </c>
-      <c r="T2" s="443"/>
+      <c r="T2" s="442"/>
     </row>
     <row r="3" spans="1:28" s="239" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="140" t="s">
@@ -47302,35 +46993,35 @@
       <c r="D4" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!C:C, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A4)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A4),
-    U30
+    U28
 )</f>
         <v>1.937442862739977E-2</v>
       </c>
       <c r="E4" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!D:D, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A4)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A4),
-    V30
+    V28
 )</f>
         <v>0.30487816836200998</v>
       </c>
       <c r="F4" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!E:E, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A4)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A4),
-    W30
+    W28
 )</f>
         <v>0.14252769710602939</v>
       </c>
       <c r="G4" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!F:F, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A4)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A4),
-    X30
+    X28
 )</f>
         <v>0.47598136267059649</v>
       </c>
       <c r="H4" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!G:G, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A4)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A4),
-    Y30
+    Y28
 )</f>
         <v>4.0500878607931338E-3</v>
       </c>
@@ -47361,35 +47052,35 @@
       <c r="D5" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!C:C, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A5)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A5),
-    U31
+    U29
 )</f>
         <v>0.16542552130383043</v>
       </c>
       <c r="E5" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!D:D, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A5)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A5),
-    V31
+    V29
 )</f>
         <v>5.3093606885133787E-2</v>
       </c>
       <c r="F5" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!E:E, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A5)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A5),
-    W31
+    W29
 )</f>
         <v>2.2461547893678227E-2</v>
       </c>
       <c r="G5" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!F:F, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A5)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A5),
-    X31
+    X29
 )</f>
         <v>0.23671738981062199</v>
       </c>
       <c r="H5" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!G:G, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A5)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A5),
-    Y31
+    Y29
 )</f>
         <v>0.35566491420848156</v>
       </c>
@@ -47420,35 +47111,35 @@
       <c r="D6" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!C:C, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A6)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A6),
-    U32
+    U30
 )</f>
         <v>0.25146167392815388</v>
       </c>
       <c r="E6" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!D:D, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A6)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A6),
-    V32
+    V30
 )</f>
         <v>6.254862193737129E-2</v>
       </c>
       <c r="F6" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!E:E, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A6)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A6),
-    W32
+    W30
 )</f>
         <v>5.071914715859864E-2</v>
       </c>
       <c r="G6" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!F:F, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A6)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A6),
-    X32
+    X30
 )</f>
         <v>0.24455164171432964</v>
       </c>
       <c r="H6" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!G:G, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A6)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A6),
-    Y32
+    Y30
 )</f>
         <v>0.5616017925564003</v>
       </c>
@@ -47476,35 +47167,35 @@
       <c r="D7" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!C:C, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A7)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A7),
-    U33
+    U31
 )</f>
         <v>0.20115510858364186</v>
       </c>
       <c r="E7" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!D:D, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A7)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A7),
-    V33
+    V31
 )</f>
         <v>5.9680928208846989E-2</v>
       </c>
       <c r="F7" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!E:E, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A7)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A7),
-    W33
+    W31
 )</f>
         <v>0</v>
       </c>
       <c r="G7" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!F:F, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A7)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A7),
-    X33
+    X31
 )</f>
         <v>6.1309682836532958E-2</v>
       </c>
       <c r="H7" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!G:G, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A7)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A7),
-    Y33
+    Y31
 )</f>
         <v>2.0247318804625775E-3</v>
       </c>
@@ -47535,35 +47226,35 @@
       <c r="D8" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!C:C, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A8)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A8),
-    U34
+    U32
 )</f>
         <v>4.5179240183546139E-2</v>
       </c>
       <c r="E8" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!D:D, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A8)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A8),
-    V34
+    V32
 )</f>
         <v>0.19325317084060489</v>
       </c>
       <c r="F8" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!E:E, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A8)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A8),
-    W34
+    W32
 )</f>
         <v>0.22785147574254203</v>
       </c>
       <c r="G8" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!F:F, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A8)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A8),
-    X34
+    X32
 )</f>
         <v>0.42002487250638787</v>
       </c>
       <c r="H8" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!G:G, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A8)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A8),
-    Y34
+    Y32
 )</f>
         <v>2.0726929558102451E-2</v>
       </c>
@@ -47594,35 +47285,35 @@
       <c r="D9" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!C:C, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A9)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A9),
-    U42
+    U40
 )</f>
         <v>0</v>
       </c>
       <c r="E9" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!D:D, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A9)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A9),
-    V42
+    V40
 )</f>
         <v>0</v>
       </c>
       <c r="F9" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!E:E, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A9)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A9),
-    W42
+    W40
 )</f>
         <v>9.7573944890787745E-2</v>
       </c>
       <c r="G9" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!F:F, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A9)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A9),
-    X42
+    X40
 )</f>
         <v>0.28224832976536918</v>
       </c>
       <c r="H9" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!G:G, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A9)/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A9),
-    Y42
+    Y40
 )</f>
         <v>0</v>
       </c>
@@ -47651,7 +47342,7 @@
       <c r="D10" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!C:C, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A10, 'As-Built HV &amp; WD'!#REF!, "Base")/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A10, 'As-Built HV &amp; WD'!#REF!, "Base"),
-    U43
+    U41
 )</f>
         <v>0</v>
       </c>
@@ -47661,7 +47352,7 @@
       <c r="F10" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!E:E, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A10, 'As-Built HV &amp; WD'!#REF!, "Base")/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A10, 'As-Built HV &amp; WD'!#REF!, "Base"),
-    W43
+    W41
 )</f>
         <v>0</v>
       </c>
@@ -47700,35 +47391,35 @@
       <c r="D11" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!C:C, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A11, 'As-Built HV &amp; WD'!#REF!, "Base")/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A11, 'As-Built HV &amp; WD'!#REF!, "Base"),
-    U44
+    U42
 )</f>
         <v>0</v>
       </c>
       <c r="E11" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!D:D, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A11, 'As-Built HV &amp; WD'!#REF!, "Base")/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A11, 'As-Built HV &amp; WD'!#REF!, "Base"),
-    V44
+    V42
 )</f>
         <v>0</v>
       </c>
       <c r="F11" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!E:E, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A11, 'As-Built HV &amp; WD'!#REF!, "Base")/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A11, 'As-Built HV &amp; WD'!#REF!, "Base"),
-    W44
+    W42
 )</f>
         <v>0</v>
       </c>
       <c r="G11" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!F:F, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A11, 'As-Built HV &amp; WD'!#REF!, "Base")/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A11, 'As-Built HV &amp; WD'!#REF!, "Base"),
-    X44
+    X42
 )</f>
         <v>0</v>
       </c>
       <c r="H11" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!G:G, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A11, 'As-Built HV &amp; WD'!#REF!, "Base")/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A11, 'As-Built HV &amp; WD'!#REF!, "Base"),
-    Y44
+    Y42
 )</f>
         <v>0</v>
       </c>
@@ -47761,7 +47452,7 @@
       <c r="D12" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!C:C, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A12, 'As-Built HV &amp; WD'!#REF!, "Base")/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A12, 'As-Built HV &amp; WD'!#REF!, "Base"),
-    U45
+    U43
 )</f>
         <v>0</v>
       </c>
@@ -47799,14 +47490,14 @@
       <c r="D13" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!C:C, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A13, 'As-Built HV &amp; WD'!#REF!, "Base")/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A13, 'As-Built HV &amp; WD'!#REF!, "Base"),
-    U46
+    U44
 )</f>
         <v>0</v>
       </c>
       <c r="E13" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!D:D, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A13, 'As-Built HV &amp; WD'!#REF!, "Base")/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A13, 'As-Built HV &amp; WD'!#REF!, "Base"),
-    V46
+    V44
 )</f>
         <v>0</v>
       </c>
@@ -48050,35 +47741,35 @@
       <c r="D20" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!C:C, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A20, 'As-Built HV &amp; WD'!#REF!, "Base")/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A20, 'As-Built HV &amp; WD'!#REF!, "Base"),
-    U47
+    U45
 )</f>
         <v>0</v>
       </c>
       <c r="E20" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!D:D, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A20, 'As-Built HV &amp; WD'!#REF!, "Base")/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A20, 'As-Built HV &amp; WD'!#REF!, "Base"),
-    V47
+    V45
 )</f>
         <v>0</v>
       </c>
       <c r="F20" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!E:E, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A20, 'As-Built HV &amp; WD'!#REF!, "Base")/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A20, 'As-Built HV &amp; WD'!#REF!, "Base"),
-    W47
+    W45
 )</f>
         <v>0</v>
       </c>
       <c r="G20" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!F:F, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A20, 'As-Built HV &amp; WD'!#REF!, "Base")/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A20, 'As-Built HV &amp; WD'!#REF!, "Base"),
-    X47
+    X45
 )</f>
         <v>0</v>
       </c>
       <c r="H20" s="143">
         <f>IFERROR(
     SUMIFS('As-Built HV &amp; WD'!G:G, 'As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A20, 'As-Built HV &amp; WD'!#REF!, "Base")/COUNTIFS('As-Built HV &amp; WD'!$B:$B, 'Design HV &amp; WD'!$A20, 'As-Built HV &amp; WD'!#REF!, "Base"),
-    Y47
+    Y45
 )</f>
         <v>0</v>
       </c>
@@ -48087,72 +47778,72 @@
       </c>
       <c r="J20" s="237"/>
     </row>
-    <row r="21" spans="1:26" s="431" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="330" t="s">
-        <v>270</v>
-      </c>
-      <c r="B21" s="520" t="s">
-        <v>625</v>
+    <row r="21" spans="1:26" s="239" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="238" t="s">
+        <v>456</v>
+      </c>
+      <c r="B21" s="238" t="s">
+        <v>471</v>
       </c>
       <c r="C21" s="159" t="s">
         <v>306</v>
       </c>
-      <c r="D21" s="519">
-        <v>0.7</v>
-      </c>
-      <c r="E21" s="519">
-        <v>0</v>
-      </c>
-      <c r="F21" s="519">
-        <v>0</v>
-      </c>
-      <c r="G21" s="519">
-        <v>0</v>
-      </c>
-      <c r="H21" s="519">
-        <v>0</v>
-      </c>
-      <c r="I21" s="394">
-        <v>2.8</v>
+      <c r="D21" s="347">
+        <v>0</v>
+      </c>
+      <c r="E21" s="347">
+        <v>0.67</v>
+      </c>
+      <c r="F21" s="347">
+        <v>0.08</v>
+      </c>
+      <c r="G21" s="347">
+        <v>0.45</v>
+      </c>
+      <c r="H21" s="347">
+        <v>0</v>
+      </c>
+      <c r="I21" s="354">
+        <v>2.7888299999999999</v>
       </c>
       <c r="J21" s="237"/>
     </row>
-    <row r="22" spans="1:26" s="431" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="330" t="s">
-        <v>588</v>
-      </c>
-      <c r="B22" s="520" t="s">
-        <v>626</v>
+    <row r="22" spans="1:26" s="239" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="238" t="s">
+        <v>457</v>
+      </c>
+      <c r="B22" s="238" t="s">
+        <v>472</v>
       </c>
       <c r="C22" s="159" t="s">
         <v>306</v>
       </c>
-      <c r="D22" s="519">
-        <v>0</v>
-      </c>
-      <c r="E22" s="519">
-        <v>0</v>
-      </c>
-      <c r="F22" s="519">
-        <v>0</v>
-      </c>
-      <c r="G22" s="519">
-        <v>0</v>
-      </c>
-      <c r="H22" s="519">
-        <v>0.7</v>
-      </c>
-      <c r="I22" s="394">
-        <v>2.8</v>
+      <c r="D22" s="347">
+        <v>0</v>
+      </c>
+      <c r="E22" s="347">
+        <v>0.67</v>
+      </c>
+      <c r="F22" s="347">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="347">
+        <v>0.68</v>
+      </c>
+      <c r="H22" s="347">
+        <v>0</v>
+      </c>
+      <c r="I22" s="354">
+        <v>2.7544</v>
       </c>
       <c r="J22" s="237"/>
     </row>
     <row r="23" spans="1:26" s="239" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="238" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B23" s="238" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C23" s="159" t="s">
         <v>306</v>
@@ -48161,28 +47852,28 @@
         <v>0</v>
       </c>
       <c r="E23" s="347">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F23" s="347">
-        <v>0.08</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G23" s="347">
-        <v>0.45</v>
+        <v>0.87</v>
       </c>
       <c r="H23" s="347">
         <v>0</v>
       </c>
       <c r="I23" s="354">
-        <v>2.7888299999999999</v>
+        <v>2.9477940425531912</v>
       </c>
       <c r="J23" s="237"/>
     </row>
     <row r="24" spans="1:26" s="239" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="238" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B24" s="238" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C24" s="159" t="s">
         <v>306</v>
@@ -48191,28 +47882,30 @@
         <v>0</v>
       </c>
       <c r="E24" s="347">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F24" s="347">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="G24" s="347">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="H24" s="347">
         <v>0</v>
       </c>
       <c r="I24" s="354">
-        <v>2.7544</v>
+        <v>2.4789599999999998</v>
       </c>
       <c r="J24" s="237"/>
+      <c r="K24"/>
+      <c r="L24"/>
     </row>
     <row r="25" spans="1:26" s="239" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="238" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B25" s="238" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C25" s="159" t="s">
         <v>306</v>
@@ -48221,28 +47914,30 @@
         <v>0</v>
       </c>
       <c r="E25" s="347">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="F25" s="347">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="G25" s="347">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="H25" s="347">
         <v>0</v>
       </c>
       <c r="I25" s="354">
-        <v>2.9477940425531912</v>
+        <v>2.6530146382978725</v>
       </c>
       <c r="J25" s="237"/>
+      <c r="K25"/>
+      <c r="L25"/>
     </row>
     <row r="26" spans="1:26" s="239" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="238" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B26" s="238" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C26" s="159" t="s">
         <v>306</v>
@@ -48251,30 +47946,36 @@
         <v>0</v>
       </c>
       <c r="E26" s="347">
-        <v>0.6</v>
+        <v>0.31</v>
       </c>
       <c r="F26" s="347">
-        <v>0.09</v>
+        <v>0.23</v>
       </c>
       <c r="G26" s="347">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
       <c r="H26" s="347">
         <v>0</v>
       </c>
       <c r="I26" s="354">
-        <v>2.4789599999999998</v>
+        <v>2.5784000000000002</v>
       </c>
       <c r="J26" s="237"/>
       <c r="K26"/>
       <c r="L26"/>
+      <c r="U26" s="440"/>
+      <c r="V26" s="441"/>
+      <c r="W26" s="441"/>
+      <c r="X26" s="441"/>
+      <c r="Y26" s="441"/>
+      <c r="Z26" s="389"/>
     </row>
     <row r="27" spans="1:26" s="239" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="238" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B27" s="238" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C27" s="159" t="s">
         <v>306</v>
@@ -48283,30 +47984,35 @@
         <v>0</v>
       </c>
       <c r="E27" s="347">
+        <v>0.11</v>
+      </c>
+      <c r="F27" s="347">
+        <v>0.31</v>
+      </c>
+      <c r="G27" s="347">
         <v>0.72</v>
       </c>
-      <c r="F27" s="347">
-        <v>0.13</v>
-      </c>
-      <c r="G27" s="347">
-        <v>0.82</v>
-      </c>
       <c r="H27" s="347">
         <v>0</v>
       </c>
       <c r="I27" s="354">
-        <v>2.6530146382978725</v>
+        <v>2.4024000000000001</v>
       </c>
       <c r="J27" s="237"/>
       <c r="K27"/>
-      <c r="L27"/>
+      <c r="U27" s="390"/>
+      <c r="V27" s="391"/>
+      <c r="W27" s="391"/>
+      <c r="X27" s="391"/>
+      <c r="Y27" s="391"/>
+      <c r="Z27" s="392"/>
     </row>
     <row r="28" spans="1:26" s="239" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="238" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B28" s="238" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C28" s="159" t="s">
         <v>306</v>
@@ -48315,36 +48021,38 @@
         <v>0</v>
       </c>
       <c r="E28" s="347">
-        <v>0.31</v>
+        <v>0.13</v>
       </c>
       <c r="F28" s="347">
-        <v>0.23</v>
+        <v>0.44</v>
       </c>
       <c r="G28" s="347">
-        <v>0.72</v>
+        <v>0.92</v>
       </c>
       <c r="H28" s="347">
         <v>0</v>
       </c>
       <c r="I28" s="354">
-        <v>2.5784000000000002</v>
+        <v>2.5148527659574467</v>
       </c>
       <c r="J28" s="237"/>
       <c r="K28"/>
-      <c r="L28"/>
-      <c r="U28" s="441"/>
-      <c r="V28" s="442"/>
-      <c r="W28" s="442"/>
-      <c r="X28" s="442"/>
-      <c r="Y28" s="442"/>
-      <c r="Z28" s="389"/>
+      <c r="L28" t="s">
+        <v>515</v>
+      </c>
+      <c r="U28" s="393"/>
+      <c r="V28" s="393"/>
+      <c r="W28" s="393"/>
+      <c r="X28" s="393"/>
+      <c r="Y28" s="393"/>
+      <c r="Z28" s="394"/>
     </row>
     <row r="29" spans="1:26" s="239" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="238" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B29" s="238" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C29" s="159" t="s">
         <v>306</v>
@@ -48353,35 +48061,35 @@
         <v>0</v>
       </c>
       <c r="E29" s="347">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F29" s="347">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="G29" s="347">
-        <v>0.72</v>
+        <v>0.69</v>
       </c>
       <c r="H29" s="347">
         <v>0</v>
       </c>
       <c r="I29" s="354">
-        <v>2.4024000000000001</v>
-      </c>
-      <c r="J29" s="237"/>
+        <v>2.1621600000000001</v>
+      </c>
       <c r="K29"/>
-      <c r="U29" s="390"/>
-      <c r="V29" s="391"/>
-      <c r="W29" s="391"/>
-      <c r="X29" s="391"/>
-      <c r="Y29" s="391"/>
-      <c r="Z29" s="392"/>
+      <c r="L29"/>
+      <c r="U29" s="393"/>
+      <c r="V29" s="393"/>
+      <c r="W29" s="393"/>
+      <c r="X29" s="393"/>
+      <c r="Y29" s="393"/>
+      <c r="Z29" s="394"/>
     </row>
     <row r="30" spans="1:26" s="239" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="238" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B30" s="238" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C30" s="159" t="s">
         <v>306</v>
@@ -48390,25 +48098,26 @@
         <v>0</v>
       </c>
       <c r="E30" s="347">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F30" s="347">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="G30" s="347">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="H30" s="347">
         <v>0</v>
       </c>
       <c r="I30" s="354">
-        <v>2.5148527659574467</v>
-      </c>
-      <c r="J30" s="237"/>
+        <v>2.263367489361702</v>
+      </c>
       <c r="K30"/>
-      <c r="L30" t="s">
-        <v>515</v>
-      </c>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
       <c r="U30" s="393"/>
       <c r="V30" s="393"/>
       <c r="W30" s="393"/>
@@ -48418,10 +48127,10 @@
     </row>
     <row r="31" spans="1:26" s="239" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="238" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B31" s="238" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C31" s="159" t="s">
         <v>306</v>
@@ -48430,22 +48139,26 @@
         <v>0</v>
       </c>
       <c r="E31" s="347">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F31" s="347">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="G31" s="347">
-        <v>0.69</v>
+        <v>0.47</v>
       </c>
       <c r="H31" s="347">
         <v>0</v>
       </c>
       <c r="I31" s="354">
-        <v>2.1621600000000001</v>
+        <v>1.2608340425531919</v>
       </c>
       <c r="K31"/>
       <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
       <c r="U31" s="393"/>
       <c r="V31" s="393"/>
       <c r="W31" s="393"/>
@@ -48455,10 +48168,10 @@
     </row>
     <row r="32" spans="1:26" s="239" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="238" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B32" s="238" t="s">
-        <v>480</v>
+        <v>297</v>
       </c>
       <c r="C32" s="159" t="s">
         <v>306</v>
@@ -48467,19 +48180,19 @@
         <v>0</v>
       </c>
       <c r="E32" s="347">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="F32" s="347">
-        <v>0.42</v>
+        <v>0.31</v>
       </c>
       <c r="G32" s="347">
-        <v>0.87</v>
+        <v>0.54</v>
       </c>
       <c r="H32" s="347">
         <v>0</v>
       </c>
       <c r="I32" s="354">
-        <v>2.263367489361702</v>
+        <v>2.4024000000000001</v>
       </c>
       <c r="K32"/>
       <c r="L32"/>
@@ -48496,10 +48209,10 @@
     </row>
     <row r="33" spans="1:26" s="239" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="238" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B33" s="238" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C33" s="159" t="s">
         <v>306</v>
@@ -48508,19 +48221,19 @@
         <v>0</v>
       </c>
       <c r="E33" s="347">
-        <v>0.05</v>
+        <v>0.36</v>
       </c>
       <c r="F33" s="347">
-        <v>0.11</v>
+        <v>0.44</v>
       </c>
       <c r="G33" s="347">
-        <v>0.47</v>
+        <v>0.69</v>
       </c>
       <c r="H33" s="347">
         <v>0</v>
       </c>
       <c r="I33" s="354">
-        <v>1.2608340425531919</v>
+        <v>2.5148527659574467</v>
       </c>
       <c r="K33"/>
       <c r="L33"/>
@@ -48537,10 +48250,10 @@
     </row>
     <row r="34" spans="1:26" s="239" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="238" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B34" s="238" t="s">
-        <v>297</v>
+        <v>483</v>
       </c>
       <c r="C34" s="159" t="s">
         <v>306</v>
@@ -48549,19 +48262,19 @@
         <v>0</v>
       </c>
       <c r="E34" s="347">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F34" s="347">
-        <v>0.31</v>
+        <v>0.64</v>
       </c>
       <c r="G34" s="347">
-        <v>0.54</v>
+        <v>0.67</v>
       </c>
       <c r="H34" s="347">
         <v>0</v>
       </c>
       <c r="I34" s="354">
-        <v>2.4024000000000001</v>
+        <v>2.3576744680851061</v>
       </c>
       <c r="K34"/>
       <c r="L34"/>
@@ -48578,10 +48291,10 @@
     </row>
     <row r="35" spans="1:26" s="239" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="238" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B35" s="238" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C35" s="159" t="s">
         <v>306</v>
@@ -48590,20 +48303,21 @@
         <v>0</v>
       </c>
       <c r="E35" s="347">
-        <v>0.36</v>
+        <v>0.06</v>
       </c>
       <c r="F35" s="347">
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
       <c r="G35" s="347">
-        <v>0.69</v>
+        <v>0.61</v>
       </c>
       <c r="H35" s="347">
         <v>0</v>
       </c>
       <c r="I35" s="354">
-        <v>2.5148527659574467</v>
-      </c>
+        <v>0.87576851063829797</v>
+      </c>
+      <c r="J35" s="237"/>
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
@@ -48617,12 +48331,12 @@
       <c r="Y35" s="393"/>
       <c r="Z35" s="394"/>
     </row>
-    <row r="36" spans="1:26" s="239" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" s="427" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="238" t="s">
-        <v>469</v>
+        <v>622</v>
       </c>
       <c r="B36" s="238" t="s">
-        <v>483</v>
+        <v>623</v>
       </c>
       <c r="C36" s="159" t="s">
         <v>306</v>
@@ -48631,26 +48345,27 @@
         <v>0</v>
       </c>
       <c r="E36" s="347">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F36" s="347">
-        <v>0.64</v>
+        <v>0.24</v>
       </c>
       <c r="G36" s="347">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
       <c r="H36" s="347">
         <v>0</v>
       </c>
       <c r="I36" s="354">
-        <v>2.3576744680851061</v>
-      </c>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
+        <v>1.37</v>
+      </c>
+      <c r="J36" s="237"/>
+      <c r="K36" s="238"/>
+      <c r="L36" s="238"/>
+      <c r="M36" s="238"/>
+      <c r="N36" s="238"/>
+      <c r="O36" s="238"/>
+      <c r="P36" s="238"/>
       <c r="U36" s="393"/>
       <c r="V36" s="393"/>
       <c r="W36" s="393"/>
@@ -48660,10 +48375,10 @@
     </row>
     <row r="37" spans="1:26" s="239" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="238" t="s">
-        <v>470</v>
+        <v>532</v>
       </c>
       <c r="B37" s="238" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C37" s="159" t="s">
         <v>306</v>
@@ -48672,40 +48387,39 @@
         <v>0</v>
       </c>
       <c r="E37" s="347">
-        <v>0.06</v>
+        <v>0.33</v>
       </c>
       <c r="F37" s="347">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="G37" s="347">
-        <v>0.61</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H37" s="347">
         <v>0</v>
       </c>
       <c r="I37" s="354">
-        <v>0.87576851063829797</v>
-      </c>
-      <c r="J37" s="237"/>
+        <v>1.4815822695035459</v>
+      </c>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
-      <c r="U37" s="393"/>
-      <c r="V37" s="393"/>
-      <c r="W37" s="393"/>
-      <c r="X37" s="393"/>
-      <c r="Y37" s="393"/>
+      <c r="U37" s="395"/>
+      <c r="V37" s="395"/>
+      <c r="W37" s="395"/>
+      <c r="X37" s="395"/>
+      <c r="Y37" s="395"/>
       <c r="Z37" s="394"/>
     </row>
-    <row r="38" spans="1:26" s="427" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" s="239" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="238" t="s">
-        <v>622</v>
+        <v>533</v>
       </c>
       <c r="B38" s="238" t="s">
-        <v>623</v>
+        <v>486</v>
       </c>
       <c r="C38" s="159" t="s">
         <v>306</v>
@@ -48714,40 +48428,39 @@
         <v>0</v>
       </c>
       <c r="E38" s="347">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="F38" s="347">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="G38" s="347">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="H38" s="347">
         <v>0</v>
       </c>
       <c r="I38" s="354">
-        <v>1.37</v>
-      </c>
-      <c r="J38" s="237"/>
-      <c r="K38" s="238"/>
-      <c r="L38" s="238"/>
-      <c r="M38" s="238"/>
-      <c r="N38" s="238"/>
-      <c r="O38" s="238"/>
-      <c r="P38" s="238"/>
-      <c r="U38" s="393"/>
-      <c r="V38" s="393"/>
-      <c r="W38" s="393"/>
-      <c r="X38" s="393"/>
-      <c r="Y38" s="393"/>
+        <v>1.6776638297872339</v>
+      </c>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="U38" s="395"/>
+      <c r="V38" s="395"/>
+      <c r="W38" s="395"/>
+      <c r="X38" s="395"/>
+      <c r="Y38" s="395"/>
       <c r="Z38" s="394"/>
     </row>
     <row r="39" spans="1:26" s="239" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="238" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B39" s="238" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C39" s="159" t="s">
         <v>306</v>
@@ -48756,20 +48469,21 @@
         <v>0</v>
       </c>
       <c r="E39" s="347">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="F39" s="347">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="G39" s="347">
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H39" s="347">
         <v>0</v>
       </c>
       <c r="I39" s="354">
-        <v>1.4815822695035459</v>
-      </c>
+        <v>2.7321005815602835</v>
+      </c>
+      <c r="J39" s="238"/>
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
@@ -48785,10 +48499,10 @@
     </row>
     <row r="40" spans="1:26" s="239" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="238" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B40" s="238" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C40" s="159" t="s">
         <v>306</v>
@@ -48797,39 +48511,40 @@
         <v>0</v>
       </c>
       <c r="E40" s="347">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="F40" s="347">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="G40" s="347">
-        <v>0.48</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H40" s="347">
         <v>0</v>
       </c>
       <c r="I40" s="354">
-        <v>1.6776638297872339</v>
-      </c>
+        <v>1.8822245106382975</v>
+      </c>
+      <c r="J40" s="238"/>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
-      <c r="U40" s="395"/>
-      <c r="V40" s="395"/>
-      <c r="W40" s="395"/>
-      <c r="X40" s="395"/>
-      <c r="Y40" s="395"/>
+      <c r="U40" s="393"/>
+      <c r="V40" s="393"/>
+      <c r="W40" s="393"/>
+      <c r="X40" s="393"/>
+      <c r="Y40" s="393"/>
       <c r="Z40" s="394"/>
     </row>
     <row r="41" spans="1:26" s="239" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="238" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B41" s="238" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C41" s="159" t="s">
         <v>306</v>
@@ -48838,19 +48553,19 @@
         <v>0</v>
       </c>
       <c r="E41" s="347">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F41" s="347">
         <v>0.27</v>
       </c>
       <c r="G41" s="347">
-        <v>0.56000000000000005</v>
+        <v>0.65</v>
       </c>
       <c r="H41" s="347">
         <v>0</v>
       </c>
       <c r="I41" s="354">
-        <v>2.7321005815602835</v>
+        <v>2.0131185815602834</v>
       </c>
       <c r="J41" s="238"/>
       <c r="K41"/>
@@ -48859,19 +48574,19 @@
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
-      <c r="U41" s="395"/>
-      <c r="V41" s="395"/>
-      <c r="W41" s="395"/>
-      <c r="X41" s="395"/>
-      <c r="Y41" s="395"/>
+      <c r="U41" s="393"/>
+      <c r="V41" s="393"/>
+      <c r="W41" s="393"/>
+      <c r="X41" s="393"/>
+      <c r="Y41" s="393"/>
       <c r="Z41" s="394"/>
     </row>
-    <row r="42" spans="1:26" s="239" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" s="239" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="238" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B42" s="238" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C42" s="159" t="s">
         <v>306</v>
@@ -48880,19 +48595,19 @@
         <v>0</v>
       </c>
       <c r="E42" s="347">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="F42" s="347">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G42" s="347">
-        <v>0.56000000000000005</v>
+        <v>0.42</v>
       </c>
       <c r="H42" s="347">
         <v>0</v>
       </c>
       <c r="I42" s="354">
-        <v>1.8822245106382975</v>
+        <v>2.0125475177304968</v>
       </c>
       <c r="J42" s="238"/>
       <c r="K42"/>
@@ -48908,12 +48623,12 @@
       <c r="Y42" s="393"/>
       <c r="Z42" s="394"/>
     </row>
-    <row r="43" spans="1:26" s="239" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" s="239" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="238" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B43" s="238" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C43" s="159" t="s">
         <v>306</v>
@@ -48922,19 +48637,19 @@
         <v>0</v>
       </c>
       <c r="E43" s="347">
-        <v>0.56000000000000005</v>
+        <v>0.23</v>
       </c>
       <c r="F43" s="347">
-        <v>0.27</v>
+        <v>0.12</v>
       </c>
       <c r="G43" s="347">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H43" s="347">
         <v>0</v>
       </c>
       <c r="I43" s="354">
-        <v>2.0131185815602834</v>
+        <v>1.7179459078014181</v>
       </c>
       <c r="J43" s="238"/>
       <c r="K43"/>
@@ -48950,12 +48665,12 @@
       <c r="Y43" s="393"/>
       <c r="Z43" s="394"/>
     </row>
-    <row r="44" spans="1:26" s="239" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" s="239" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="238" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B44" s="238" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C44" s="159" t="s">
         <v>306</v>
@@ -48964,19 +48679,19 @@
         <v>0</v>
       </c>
       <c r="E44" s="347">
-        <v>0.47</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F44" s="347">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="G44" s="347">
-        <v>0.42</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H44" s="347">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I44" s="354">
-        <v>2.0125475177304968</v>
+        <v>2.5301946666666661</v>
       </c>
       <c r="J44" s="238"/>
       <c r="K44"/>
@@ -48992,12 +48707,12 @@
       <c r="Y44" s="393"/>
       <c r="Z44" s="394"/>
     </row>
-    <row r="45" spans="1:26" s="239" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="238" t="s">
-        <v>538</v>
-      </c>
-      <c r="B45" s="238" t="s">
-        <v>491</v>
+    <row r="45" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="344" t="s">
+        <v>540</v>
+      </c>
+      <c r="B45" s="344" t="s">
+        <v>493</v>
       </c>
       <c r="C45" s="159" t="s">
         <v>306</v>
@@ -49006,40 +48721,36 @@
         <v>0</v>
       </c>
       <c r="E45" s="347">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="F45" s="347">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="G45" s="347">
-        <v>0.55000000000000004</v>
+        <v>0.32</v>
       </c>
       <c r="H45" s="347">
         <v>0</v>
       </c>
       <c r="I45" s="354">
-        <v>1.7179459078014181</v>
-      </c>
-      <c r="J45" s="238"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="U45" s="393"/>
-      <c r="V45" s="393"/>
-      <c r="W45" s="393"/>
-      <c r="X45" s="393"/>
-      <c r="Y45" s="393"/>
+        <v>0.78631744680851068</v>
+      </c>
+      <c r="L45" s="238" t="s">
+        <v>514</v>
+      </c>
+      <c r="U45" s="394"/>
+      <c r="V45" s="394"/>
+      <c r="W45" s="394"/>
+      <c r="X45" s="394"/>
+      <c r="Y45" s="394"/>
       <c r="Z45" s="394"/>
     </row>
-    <row r="46" spans="1:26" s="239" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="238" t="s">
-        <v>539</v>
-      </c>
-      <c r="B46" s="238" t="s">
-        <v>492</v>
+    <row r="46" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="344" t="s">
+        <v>541</v>
+      </c>
+      <c r="B46" s="344" t="s">
+        <v>494</v>
       </c>
       <c r="C46" s="159" t="s">
         <v>306</v>
@@ -49048,40 +48759,27 @@
         <v>0</v>
       </c>
       <c r="E46" s="347">
-        <v>0.55000000000000004</v>
+        <v>0.01</v>
       </c>
       <c r="F46" s="347">
-        <v>0.18</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G46" s="347">
-        <v>0.55000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="H46" s="347">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="I46" s="354">
-        <v>2.5301946666666661</v>
-      </c>
-      <c r="J46" s="238"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="U46" s="393"/>
-      <c r="V46" s="393"/>
-      <c r="W46" s="393"/>
-      <c r="X46" s="393"/>
-      <c r="Y46" s="393"/>
-      <c r="Z46" s="394"/>
+        <v>0.37416102127659578</v>
+      </c>
     </row>
     <row r="47" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="344" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B47" s="344" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C47" s="159" t="s">
         <v>306</v>
@@ -49090,36 +48788,27 @@
         <v>0</v>
       </c>
       <c r="E47" s="347">
-        <v>0.02</v>
+        <v>0.51</v>
       </c>
       <c r="F47" s="347">
-        <v>0.1</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G47" s="347">
-        <v>0.32</v>
+        <v>0.63</v>
       </c>
       <c r="H47" s="347">
         <v>0</v>
       </c>
       <c r="I47" s="354">
-        <v>0.78631744680851068</v>
-      </c>
-      <c r="L47" s="238" t="s">
-        <v>514</v>
-      </c>
-      <c r="U47" s="394"/>
-      <c r="V47" s="394"/>
-      <c r="W47" s="394"/>
-      <c r="X47" s="394"/>
-      <c r="Y47" s="394"/>
-      <c r="Z47" s="394"/>
+        <v>2.3815310496453899</v>
+      </c>
     </row>
     <row r="48" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="344" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B48" s="344" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C48" s="159" t="s">
         <v>306</v>
@@ -49128,27 +48817,27 @@
         <v>0</v>
       </c>
       <c r="E48" s="347">
-        <v>0.01</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F48" s="347">
-        <v>7.0000000000000007E-2</v>
+        <v>0.41</v>
       </c>
       <c r="G48" s="347">
-        <v>0.25</v>
+        <v>0.68</v>
       </c>
       <c r="H48" s="347">
         <v>0</v>
       </c>
       <c r="I48" s="354">
-        <v>0.37416102127659578</v>
+        <v>1.3925400851063829</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="344" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B49" s="344" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C49" s="159" t="s">
         <v>306</v>
@@ -49157,27 +48846,27 @@
         <v>0</v>
       </c>
       <c r="E49" s="347">
-        <v>0.51</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F49" s="347">
-        <v>0.28000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G49" s="347">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
       <c r="H49" s="347">
         <v>0</v>
       </c>
       <c r="I49" s="354">
-        <v>2.3815310496453899</v>
+        <v>1.6525445106382981</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="344" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B50" s="344" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C50" s="159" t="s">
         <v>306</v>
@@ -49186,27 +48875,27 @@
         <v>0</v>
       </c>
       <c r="E50" s="347">
-        <v>7.0000000000000007E-2</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F50" s="347">
-        <v>0.41</v>
+        <v>0.15</v>
       </c>
       <c r="G50" s="347">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="H50" s="347">
         <v>0</v>
       </c>
       <c r="I50" s="354">
-        <v>1.3925400851063829</v>
+        <v>2.0362070921985813</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="344" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B51" s="344" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="C51" s="159" t="s">
         <v>306</v>
@@ -49215,199 +48904,199 @@
         <v>0</v>
       </c>
       <c r="E51" s="347">
-        <v>7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F51" s="347">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G51" s="347">
-        <v>0.53</v>
+        <v>0.32</v>
       </c>
       <c r="H51" s="347">
         <v>0</v>
       </c>
       <c r="I51" s="354">
-        <v>1.6525445106382981</v>
+        <v>0.78631744680851068</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="344" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B52" s="344" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C52" s="159" t="s">
         <v>306</v>
       </c>
       <c r="D52" s="347">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="E52" s="347">
-        <v>0.56000000000000005</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F52" s="347">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="G52" s="347">
-        <v>0.62</v>
+        <v>0.52</v>
       </c>
       <c r="H52" s="347">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="I52" s="354">
-        <v>2.0362070921985813</v>
+        <v>2.5969056737588652</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="344" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B53" s="344" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="C53" s="159" t="s">
         <v>306</v>
       </c>
       <c r="D53" s="347">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="E53" s="347">
-        <v>0.02</v>
+        <v>0.54</v>
       </c>
       <c r="F53" s="347">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="G53" s="347">
-        <v>0.32</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H53" s="347">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="I53" s="354">
-        <v>0.78631744680851068</v>
+        <v>2.4811510638297869</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="344" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B54" s="344" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C54" s="159" t="s">
         <v>306</v>
       </c>
       <c r="D54" s="347">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="E54" s="347">
-        <v>0.57999999999999996</v>
+        <v>0.06</v>
       </c>
       <c r="F54" s="347">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="G54" s="347">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
       <c r="H54" s="347">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="I54" s="354">
-        <v>2.5969056737588652</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.2659455319148936</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="238" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="344" t="s">
-        <v>548</v>
-      </c>
-      <c r="B55" s="344" t="s">
-        <v>500</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="B55" s="344"/>
       <c r="C55" s="159" t="s">
         <v>306</v>
       </c>
       <c r="D55" s="347">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="E55" s="347">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="F55" s="347">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G55" s="347">
-        <v>0.56000000000000005</v>
+        <v>0.16</v>
       </c>
       <c r="H55" s="347">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="I55" s="354">
-        <v>2.4811510638297869</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="344" t="s">
-        <v>549</v>
-      </c>
-      <c r="B56" s="344" t="s">
-        <v>501</v>
+      <c r="A56" s="345" t="s">
+        <v>609</v>
+      </c>
+      <c r="B56" s="356" t="s">
+        <v>611</v>
       </c>
       <c r="C56" s="159" t="s">
-        <v>306</v>
-      </c>
-      <c r="D56" s="347">
-        <v>0</v>
-      </c>
-      <c r="E56" s="347">
-        <v>0.06</v>
-      </c>
-      <c r="F56" s="347">
-        <v>0.16</v>
-      </c>
-      <c r="G56" s="347">
-        <v>0.65</v>
-      </c>
-      <c r="H56" s="347">
-        <v>0</v>
-      </c>
-      <c r="I56" s="354">
-        <v>1.2659455319148936</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="238" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="344" t="s">
-        <v>621</v>
-      </c>
-      <c r="B57" s="344"/>
+        <v>305</v>
+      </c>
+      <c r="D56" s="238" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="238" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="238" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="238" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="238" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="238" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="345" t="s">
+        <v>610</v>
+      </c>
+      <c r="B57" s="356" t="s">
+        <v>612</v>
+      </c>
       <c r="C57" s="159" t="s">
-        <v>306</v>
-      </c>
-      <c r="D57" s="347">
-        <v>0</v>
-      </c>
-      <c r="E57" s="347">
-        <v>0</v>
-      </c>
-      <c r="F57" s="347">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G57" s="347">
-        <v>0.16</v>
-      </c>
-      <c r="H57" s="347">
-        <v>0</v>
-      </c>
-      <c r="I57" s="354">
-        <v>1.1399999999999999</v>
+        <v>305</v>
+      </c>
+      <c r="D57" s="238" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="238" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="238" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="238" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="238" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="238" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="345" t="s">
-        <v>609</v>
-      </c>
-      <c r="B58" s="356" t="s">
-        <v>611</v>
+      <c r="A58" s="238" t="s">
+        <v>613</v>
+      </c>
+      <c r="B58" s="373" t="s">
+        <v>619</v>
       </c>
       <c r="C58" s="159" t="s">
         <v>305</v>
@@ -49432,11 +49121,11 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="345" t="s">
-        <v>610</v>
-      </c>
-      <c r="B59" s="356" t="s">
-        <v>612</v>
+      <c r="A59" s="238" t="s">
+        <v>614</v>
+      </c>
+      <c r="B59" s="373" t="s">
+        <v>619</v>
       </c>
       <c r="C59" s="159" t="s">
         <v>305</v>
@@ -49462,7 +49151,7 @@
     </row>
     <row r="60" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="238" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B60" s="373" t="s">
         <v>619</v>
@@ -49489,9 +49178,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="238" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B61" s="373" t="s">
         <v>619</v>
@@ -49517,10 +49206,13 @@
       <c r="I61" s="238" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L61" s="370" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="238" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B62" s="373" t="s">
         <v>619</v>
@@ -49549,7 +49241,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="238" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B63" s="373" t="s">
         <v>619</v>
@@ -49575,19 +49267,16 @@
       <c r="I63" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="L63" s="370" t="s">
-        <v>606</v>
-      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="238" t="s">
-        <v>617</v>
-      </c>
-      <c r="B64" s="373" t="s">
-        <v>619</v>
+      <c r="A64" s="345" t="s">
+        <v>524</v>
+      </c>
+      <c r="B64" s="356" t="s">
+        <v>555</v>
       </c>
       <c r="C64" s="159" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D64" s="238" t="s">
         <v>11</v>
@@ -49610,13 +49299,13 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="238" t="s">
-        <v>618</v>
-      </c>
-      <c r="B65" s="373" t="s">
-        <v>619</v>
+        <v>525</v>
+      </c>
+      <c r="B65" s="356" t="s">
+        <v>555</v>
       </c>
       <c r="C65" s="159" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D65" s="238" t="s">
         <v>11</v>
@@ -49638,8 +49327,8 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="345" t="s">
-        <v>524</v>
+      <c r="A66" s="238" t="s">
+        <v>526</v>
       </c>
       <c r="B66" s="356" t="s">
         <v>555</v>
@@ -49668,7 +49357,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="238" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B67" s="356" t="s">
         <v>555</v>
@@ -49696,8 +49385,8 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="238" t="s">
-        <v>526</v>
+      <c r="A68" s="355" t="s">
+        <v>528</v>
       </c>
       <c r="B68" s="356" t="s">
         <v>555</v>
@@ -49726,7 +49415,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="238" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B69" s="356" t="s">
         <v>555</v>
@@ -49754,8 +49443,8 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="355" t="s">
-        <v>528</v>
+      <c r="A70" s="238" t="s">
+        <v>530</v>
       </c>
       <c r="B70" s="356" t="s">
         <v>555</v>
@@ -49781,10 +49470,13 @@
       <c r="I70" s="238" t="s">
         <v>11</v>
       </c>
+      <c r="J70" s="237"/>
+      <c r="K70" s="370"/>
+      <c r="L70" s="370"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="238" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B71" s="356" t="s">
         <v>555</v>
@@ -49810,10 +49502,13 @@
       <c r="I71" s="238" t="s">
         <v>11</v>
       </c>
+      <c r="J71" s="237"/>
+      <c r="K71" s="370"/>
+      <c r="L71" s="370"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="238" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="B72" s="356" t="s">
         <v>555</v>
@@ -49841,11 +49536,10 @@
       </c>
       <c r="J72" s="237"/>
       <c r="K72" s="370"/>
-      <c r="L72" s="370"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="238" t="s">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="B73" s="356" t="s">
         <v>555</v>
@@ -49872,12 +49566,12 @@
         <v>11</v>
       </c>
       <c r="J73" s="237"/>
-      <c r="K73" s="370"/>
-      <c r="L73" s="370"/>
+      <c r="K73" s="239"/>
+      <c r="L73" s="239"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="238" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B74" s="356" t="s">
         <v>555</v>
@@ -49904,11 +49598,12 @@
         <v>11</v>
       </c>
       <c r="J74" s="237"/>
-      <c r="K74" s="370"/>
+      <c r="K74" s="239"/>
+      <c r="L74" s="239"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="238" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B75" s="356" t="s">
         <v>555</v>
@@ -49938,74 +49633,10 @@
       <c r="K75" s="239"/>
       <c r="L75" s="239"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="238" t="s">
-        <v>560</v>
-      </c>
-      <c r="B76" s="356" t="s">
-        <v>555</v>
-      </c>
-      <c r="C76" s="159" t="s">
-        <v>306</v>
-      </c>
-      <c r="D76" s="238" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="238" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="238" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="238" t="s">
-        <v>11</v>
-      </c>
-      <c r="H76" s="238" t="s">
-        <v>11</v>
-      </c>
-      <c r="I76" s="238" t="s">
-        <v>11</v>
-      </c>
-      <c r="J76" s="237"/>
-      <c r="K76" s="239"/>
-      <c r="L76" s="239"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="238" t="s">
-        <v>562</v>
-      </c>
-      <c r="B77" s="356" t="s">
-        <v>555</v>
-      </c>
-      <c r="C77" s="159" t="s">
-        <v>306</v>
-      </c>
-      <c r="D77" s="238" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="238" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="238" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="238" t="s">
-        <v>11</v>
-      </c>
-      <c r="H77" s="238" t="s">
-        <v>11</v>
-      </c>
-      <c r="I77" s="238" t="s">
-        <v>11</v>
-      </c>
-      <c r="J77" s="237"/>
-      <c r="K77" s="239"/>
-      <c r="L77" s="239"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D2:H2"/>
-    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="U26:Y26"/>
     <mergeCell ref="S2:T2"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -50628,27 +50259,27 @@
       </c>
       <c r="B3" s="377" t="str">
         <f>TEXT(MP_new!B15, "0%")</f>
-        <v>191%</v>
+        <v>0%</v>
       </c>
       <c r="C3" s="377" t="str">
         <f>TEXT(MP_new!C15, "0%")</f>
-        <v>91%</v>
+        <v>0%</v>
       </c>
       <c r="D3" s="377" t="str">
         <f>TEXT(MP_new!D15, "0%")</f>
-        <v>98%</v>
+        <v>0%</v>
       </c>
       <c r="E3" s="377" t="str">
         <f>TEXT(MP_new!E15, "0%")</f>
-        <v>89%</v>
+        <v>0%</v>
       </c>
       <c r="F3" s="377" t="str">
         <f>TEXT(MP_new!F15, "0%")</f>
-        <v>102%</v>
+        <v>0%</v>
       </c>
       <c r="G3" s="378">
         <f>MP_new!H15</f>
-        <v>3083.6837672584006</v>
+        <v>0</v>
       </c>
       <c r="H3" s="379">
         <f>'10 YEAR PROJECTION'!U20</f>
@@ -50661,27 +50292,27 @@
       </c>
       <c r="B4" s="377" t="str">
         <f>TEXT(MP_new!B16, "0%")</f>
-        <v>183%</v>
+        <v>0%</v>
       </c>
       <c r="C4" s="377" t="str">
         <f>TEXT(MP_new!C16, "0%")</f>
-        <v>91%</v>
+        <v>0%</v>
       </c>
       <c r="D4" s="377" t="str">
         <f>TEXT(MP_new!D16, "0%")</f>
-        <v>102%</v>
+        <v>0%</v>
       </c>
       <c r="E4" s="377" t="str">
         <f>TEXT(MP_new!E16, "0%")</f>
-        <v>90%</v>
+        <v>0%</v>
       </c>
       <c r="F4" s="377" t="str">
         <f>TEXT(MP_new!F16, "0%")</f>
-        <v>90%</v>
+        <v>0%</v>
       </c>
       <c r="G4" s="378">
         <f>MP_new!H16</f>
-        <v>2975.7064319479541</v>
+        <v>0</v>
       </c>
       <c r="H4" s="379">
         <f>'10 YEAR PROJECTION'!U28</f>
@@ -50694,27 +50325,27 @@
       </c>
       <c r="B5" s="377" t="str">
         <f>TEXT(MP_new!B17, "0%")</f>
-        <v>183%</v>
+        <v>0%</v>
       </c>
       <c r="C5" s="377" t="str">
         <f>TEXT(MP_new!C17, "0%")</f>
-        <v>93%</v>
+        <v>0%</v>
       </c>
       <c r="D5" s="377" t="str">
         <f>TEXT(MP_new!D17, "0%")</f>
-        <v>98%</v>
+        <v>0%</v>
       </c>
       <c r="E5" s="377" t="str">
         <f>TEXT(MP_new!E17, "0%")</f>
-        <v>90%</v>
+        <v>0%</v>
       </c>
       <c r="F5" s="377" t="str">
         <f>TEXT(MP_new!F17, "0%")</f>
-        <v>90%</v>
+        <v>0%</v>
       </c>
       <c r="G5" s="378">
         <f>MP_new!H17</f>
-        <v>1280.569675742081</v>
+        <v>0</v>
       </c>
       <c r="H5" s="379">
         <f>'10 YEAR PROJECTION'!U36</f>
@@ -50727,27 +50358,27 @@
       </c>
       <c r="B6" s="377" t="str">
         <f>TEXT(MP_new!B18, "0%")</f>
-        <v>183%</v>
+        <v>0%</v>
       </c>
       <c r="C6" s="377" t="str">
         <f>TEXT(MP_new!C18, "0%")</f>
-        <v>91%</v>
+        <v>0%</v>
       </c>
       <c r="D6" s="377" t="str">
         <f>TEXT(MP_new!D18, "0%")</f>
-        <v>94%</v>
+        <v>0%</v>
       </c>
       <c r="E6" s="377" t="str">
         <f>TEXT(MP_new!E18, "0%")</f>
-        <v>90%</v>
+        <v>0%</v>
       </c>
       <c r="F6" s="377" t="str">
         <f>TEXT(MP_new!F18, "0%")</f>
-        <v>90%</v>
+        <v>0%</v>
       </c>
       <c r="G6" s="378">
         <f>MP_new!H18</f>
-        <v>977.28083038527984</v>
+        <v>0</v>
       </c>
       <c r="H6" s="379">
         <f>'10 YEAR PROJECTION'!U44</f>
@@ -50816,25 +50447,25 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="448" t="s">
+      <c r="A3" s="447" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="446" t="s">
+      <c r="B3" s="445" t="s">
         <v>321</v>
       </c>
-      <c r="C3" s="446" t="s">
+      <c r="C3" s="445" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="446" t="s">
+      <c r="D3" s="445" t="s">
         <v>323</v>
       </c>
-      <c r="E3" s="446" t="s">
+      <c r="E3" s="445" t="s">
         <v>324</v>
       </c>
-      <c r="F3" s="446" t="s">
+      <c r="F3" s="445" t="s">
         <v>325</v>
       </c>
-      <c r="G3" s="446" t="s">
+      <c r="G3" s="445" t="s">
         <v>326</v>
       </c>
       <c r="J3" s="108" t="s">
@@ -50847,13 +50478,13 @@
       <c r="O3" s="108"/>
     </row>
     <row r="4" spans="1:16" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="449"/>
-      <c r="B4" s="447"/>
-      <c r="C4" s="447"/>
-      <c r="D4" s="447"/>
-      <c r="E4" s="447"/>
-      <c r="F4" s="447"/>
-      <c r="G4" s="447"/>
+      <c r="A4" s="448"/>
+      <c r="B4" s="446"/>
+      <c r="C4" s="446"/>
+      <c r="D4" s="446"/>
+      <c r="E4" s="446"/>
+      <c r="F4" s="446"/>
+      <c r="G4" s="446"/>
       <c r="J4" s="113" t="s">
         <v>15</v>
       </c>
@@ -51125,15 +50756,15 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="452" t="s">
+      <c r="A16" s="451" t="s">
         <v>328</v>
       </c>
-      <c r="B16" s="453"/>
-      <c r="C16" s="453"/>
-      <c r="D16" s="453"/>
-      <c r="E16" s="453"/>
-      <c r="F16" s="453"/>
-      <c r="G16" s="453"/>
+      <c r="B16" s="452"/>
+      <c r="C16" s="452"/>
+      <c r="D16" s="452"/>
+      <c r="E16" s="452"/>
+      <c r="F16" s="452"/>
+      <c r="G16" s="452"/>
       <c r="K16" s="59"/>
       <c r="L16" s="59"/>
       <c r="M16" s="59"/>
@@ -51477,10 +51108,10 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="450" t="s">
+      <c r="A28" s="449" t="s">
         <v>336</v>
       </c>
-      <c r="B28" s="451"/>
+      <c r="B28" s="450"/>
       <c r="C28" s="209">
         <f>SUM(C18:C27)</f>
         <v>1421.9080000000004</v>
@@ -51503,15 +51134,15 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="452" t="s">
+      <c r="A29" s="451" t="s">
         <v>337</v>
       </c>
-      <c r="B29" s="453"/>
-      <c r="C29" s="453"/>
-      <c r="D29" s="453"/>
-      <c r="E29" s="453"/>
-      <c r="F29" s="453"/>
-      <c r="G29" s="453"/>
+      <c r="B29" s="452"/>
+      <c r="C29" s="452"/>
+      <c r="D29" s="452"/>
+      <c r="E29" s="452"/>
+      <c r="F29" s="452"/>
+      <c r="G29" s="452"/>
     </row>
     <row r="30" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="98"/>
@@ -51883,15 +51514,15 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="444" t="s">
+      <c r="A43" s="443" t="s">
         <v>346</v>
       </c>
-      <c r="B43" s="445"/>
-      <c r="C43" s="445"/>
-      <c r="D43" s="445"/>
-      <c r="E43" s="445"/>
-      <c r="F43" s="445"/>
-      <c r="G43" s="445"/>
+      <c r="B43" s="444"/>
+      <c r="C43" s="444"/>
+      <c r="D43" s="444"/>
+      <c r="E43" s="444"/>
+      <c r="F43" s="444"/>
+      <c r="G43" s="444"/>
     </row>
     <row r="44" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="98"/>

--- a/MP LAUNCHPAD PROJECT.xlsx
+++ b/MP LAUNCHPAD PROJECT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/code/master_proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C4551F-EEE6-CB44-B180-21EE3F5AF201}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AF7A5B-4B3C-3E41-8D2E-F4E6B0339095}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="1040" windowWidth="25420" windowHeight="20220" xr2:uid="{82E405D1-4FF9-4B4B-A5DF-847AC901B550}"/>
+    <workbookView xWindow="3140" yWindow="1040" windowWidth="31280" windowHeight="20220" activeTab="6" xr2:uid="{82E405D1-4FF9-4B4B-A5DF-847AC901B550}"/>
   </bookViews>
   <sheets>
     <sheet name="MP_new" sheetId="1" r:id="rId1"/>
@@ -4711,16 +4711,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4741,12 +4802,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4761,82 +4816,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -4898,6 +4877,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5346,960 +5346,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>w/o GW</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>MP_new!$A$13:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MP_new!$I$13:$I$18</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4926.6207202706355</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D0D5-C846-912D-CB91A199CB47}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>w/ GW</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>MP_new!$A$13:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MP_new!$K$13:$K$18</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9926.6207202706355</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D0D5-C846-912D-CB91A199CB47}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="196036608"/>
-        <c:axId val="160822912"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="196036608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Step</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160822912"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="160822912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Total</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Water Savings (a-f/y)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196036608"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.1453912948381452"/>
-          <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.81701159230096243"/>
-          <c:h val="0.82202719451735196"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>MP_new!$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BWF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>MP_new!$A$13:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MP_new!$B$13:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.1005477801387333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0785334641965729</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4242-2D4D-90F8-71367A6093A9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>MP_new!$C$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MWF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>MP_new!$A$13:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MP_new!$C$13:$C$18</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.97824344759700355</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9382694221923642</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4242-2D4D-90F8-71367A6093A9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>MP_new!$D$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Plover</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>MP_new!$A$13:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MP_new!$D$13:$D$18</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.99961756413569214</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0176368154509927</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4242-2D4D-90F8-71367A6093A9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>MP_new!$E$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MSB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>MP_new!$A$13:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MP_new!$E$13:$E$18</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.90639366309330827</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.90000167824924227</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4242-2D4D-90F8-71367A6093A9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>MP_new!$F$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Meadow</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>MP_new!$A$13:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MP_new!$F$13:$F$18</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.3860992059091843</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3400570388796187</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4242-2D4D-90F8-71367A6093A9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="196038144"/>
-        <c:axId val="160824640"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="196038144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Step</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160824640"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="160824640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0.5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>%</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Base Area</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196038144"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="0.1"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>MP_new!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Base</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MP_new!$G$3:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>73351</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64619.055153407739</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>59692.434433137103</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-188D-C64B-B0F2-7C3CB2224891}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="196272640"/>
-        <c:axId val="196306624"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="196272640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Step</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196306624"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="196306624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Total</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Water Demand (a-f/y)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196272640"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -6587,7 +5633,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7242,119 +6288,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>195262</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>187324</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>530225</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>12699</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>20</xdr:row>
@@ -7588,7 +6521,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7629,7 +6562,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8062,8 +6995,8 @@
   </sheetPr>
   <dimension ref="A1:CP191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:K18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L40" sqref="L22:L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8435,7 +7368,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="121">
-        <f t="shared" ref="B12:G18" si="0">B3/B$3</f>
+        <f t="shared" ref="B12:G14" si="0">B3/B$3</f>
         <v>1</v>
       </c>
       <c r="C12" s="121">
@@ -8510,14 +7443,14 @@
         <v>0.88095670343155152</v>
       </c>
       <c r="H13" s="145">
-        <f t="shared" ref="H13:H18" si="1">$G3-$G4</f>
+        <f t="shared" ref="H13:H14" si="1">$G3-$G4</f>
         <v>8731.9448465922615</v>
       </c>
       <c r="I13" s="145">
         <v>0</v>
       </c>
       <c r="J13" s="145">
-        <f t="shared" ref="J13:J18" si="2">G3-(G4 -J4)</f>
+        <f t="shared" ref="J13:J14" si="2">G3-(G4 -J4)</f>
         <v>8731.9448465922615</v>
       </c>
       <c r="K13" s="145">
@@ -14891,7 +13824,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;P&amp;R&amp;D</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17380,16 +16312,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="476" t="s">
+      <c r="A1" s="453" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="477"/>
+      <c r="B1" s="454"/>
     </row>
     <row r="2" spans="1:40" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="478" t="s">
+      <c r="A2" s="455" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="479"/>
+      <c r="B2" s="456"/>
     </row>
     <row r="3" spans="1:40" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="X3" s="239" t="s">
@@ -17397,33 +16329,33 @@
       </c>
     </row>
     <row r="4" spans="1:40" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="483" t="s">
+      <c r="A4" s="463" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="484"/>
+      <c r="B4" s="464"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="487" t="s">
+      <c r="D4" s="467" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="480" t="s">
+      <c r="E4" s="457" t="s">
         <v>176</v>
       </c>
-      <c r="F4" s="481"/>
-      <c r="G4" s="481"/>
-      <c r="H4" s="481"/>
-      <c r="I4" s="481"/>
-      <c r="J4" s="481"/>
-      <c r="K4" s="481"/>
-      <c r="L4" s="481"/>
-      <c r="M4" s="481"/>
-      <c r="N4" s="481"/>
-      <c r="O4" s="481"/>
-      <c r="P4" s="481"/>
-      <c r="Q4" s="481"/>
-      <c r="R4" s="481"/>
-      <c r="S4" s="481"/>
-      <c r="T4" s="481"/>
-      <c r="U4" s="482"/>
+      <c r="F4" s="458"/>
+      <c r="G4" s="458"/>
+      <c r="H4" s="458"/>
+      <c r="I4" s="458"/>
+      <c r="J4" s="458"/>
+      <c r="K4" s="458"/>
+      <c r="L4" s="458"/>
+      <c r="M4" s="458"/>
+      <c r="N4" s="458"/>
+      <c r="O4" s="458"/>
+      <c r="P4" s="458"/>
+      <c r="Q4" s="458"/>
+      <c r="R4" s="458"/>
+      <c r="S4" s="458"/>
+      <c r="T4" s="458"/>
+      <c r="U4" s="459"/>
       <c r="Y4" s="239">
         <f t="shared" ref="Y4:AN4" si="0">E5</f>
         <v>2020</v>
@@ -17490,12 +16422,12 @@
       </c>
     </row>
     <row r="5" spans="1:40" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="485"/>
-      <c r="B5" s="486"/>
+      <c r="A5" s="465"/>
+      <c r="B5" s="466"/>
       <c r="C5" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="488"/>
+      <c r="D5" s="468"/>
       <c r="E5" s="69">
         <f>'Step Cost Analysis'!E5</f>
         <v>2020</v>
@@ -17633,10 +16565,10 @@
       </c>
     </row>
     <row r="6" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="455" t="s">
+      <c r="A6" s="469" t="s">
         <v>179</v>
       </c>
-      <c r="B6" s="456"/>
+      <c r="B6" s="470"/>
       <c r="C6" s="160">
         <v>10</v>
       </c>
@@ -18154,12 +17086,12 @@
       </c>
     </row>
     <row r="12" spans="1:40" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="470" t="s">
+      <c r="A12" s="460" t="s">
         <v>190</v>
       </c>
-      <c r="B12" s="471"/>
-      <c r="C12" s="471"/>
-      <c r="D12" s="472"/>
+      <c r="B12" s="461"/>
+      <c r="C12" s="461"/>
+      <c r="D12" s="462"/>
       <c r="E12" s="279">
         <f t="shared" ref="E12:T12" si="8">SUM(E6:E11)</f>
         <v>1500000</v>
@@ -18294,12 +17226,12 @@
       </c>
     </row>
     <row r="13" spans="1:40" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="470" t="s">
+      <c r="A13" s="460" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="471"/>
-      <c r="C13" s="471"/>
-      <c r="D13" s="472"/>
+      <c r="B13" s="461"/>
+      <c r="C13" s="461"/>
+      <c r="D13" s="462"/>
       <c r="E13" s="279"/>
       <c r="F13" s="279"/>
       <c r="G13" s="279"/>
@@ -18392,10 +17324,10 @@
       </c>
     </row>
     <row r="14" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="455" t="s">
+      <c r="A14" s="469" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="456"/>
+      <c r="B14" s="470"/>
       <c r="C14" s="162">
         <v>10</v>
       </c>
@@ -18910,12 +17842,12 @@
       </c>
     </row>
     <row r="20" spans="1:40" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="470" t="s">
+      <c r="A20" s="460" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="471"/>
-      <c r="C20" s="471"/>
-      <c r="D20" s="472"/>
+      <c r="B20" s="461"/>
+      <c r="C20" s="461"/>
+      <c r="D20" s="462"/>
       <c r="E20" s="279">
         <f t="shared" ref="E20:T20" si="15">SUM(E14:E19)</f>
         <v>0</v>
@@ -18986,12 +17918,12 @@
       </c>
     </row>
     <row r="21" spans="1:40" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="470" t="s">
+      <c r="A21" s="460" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="471"/>
-      <c r="C21" s="471"/>
-      <c r="D21" s="472"/>
+      <c r="B21" s="461"/>
+      <c r="C21" s="461"/>
+      <c r="D21" s="462"/>
       <c r="E21" s="279"/>
       <c r="F21" s="279"/>
       <c r="G21" s="279"/>
@@ -19017,10 +17949,10 @@
       </c>
     </row>
     <row r="22" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="455" t="s">
+      <c r="A22" s="469" t="s">
         <v>197</v>
       </c>
-      <c r="B22" s="456"/>
+      <c r="B22" s="470"/>
       <c r="C22" s="160">
         <v>10</v>
       </c>
@@ -19267,12 +18199,12 @@
       </c>
     </row>
     <row r="28" spans="1:40" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="470" t="s">
+      <c r="A28" s="460" t="s">
         <v>198</v>
       </c>
-      <c r="B28" s="471"/>
-      <c r="C28" s="471"/>
-      <c r="D28" s="472"/>
+      <c r="B28" s="461"/>
+      <c r="C28" s="461"/>
+      <c r="D28" s="462"/>
       <c r="E28" s="279">
         <f t="shared" ref="E28:T28" si="16">SUM(E22:E27)</f>
         <v>0</v>
@@ -19343,12 +18275,12 @@
       </c>
     </row>
     <row r="29" spans="1:40" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="470" t="s">
+      <c r="A29" s="460" t="s">
         <v>199</v>
       </c>
-      <c r="B29" s="471"/>
-      <c r="C29" s="471"/>
-      <c r="D29" s="472"/>
+      <c r="B29" s="461"/>
+      <c r="C29" s="461"/>
+      <c r="D29" s="462"/>
       <c r="E29" s="279"/>
       <c r="F29" s="279"/>
       <c r="G29" s="279"/>
@@ -19374,10 +18306,10 @@
       </c>
     </row>
     <row r="30" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="455" t="s">
+      <c r="A30" s="469" t="s">
         <v>200</v>
       </c>
-      <c r="B30" s="456"/>
+      <c r="B30" s="470"/>
       <c r="C30" s="160">
         <v>10</v>
       </c>
@@ -19624,12 +18556,12 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="470" t="s">
+      <c r="A36" s="460" t="s">
         <v>201</v>
       </c>
-      <c r="B36" s="471"/>
-      <c r="C36" s="471"/>
-      <c r="D36" s="472"/>
+      <c r="B36" s="461"/>
+      <c r="C36" s="461"/>
+      <c r="D36" s="462"/>
       <c r="E36" s="279">
         <f t="shared" ref="E36:T36" si="17">SUM(E30:E35)</f>
         <v>0</v>
@@ -19700,12 +18632,12 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="470" t="s">
+      <c r="A37" s="460" t="s">
         <v>202</v>
       </c>
-      <c r="B37" s="471"/>
-      <c r="C37" s="471"/>
-      <c r="D37" s="472"/>
+      <c r="B37" s="461"/>
+      <c r="C37" s="461"/>
+      <c r="D37" s="462"/>
       <c r="E37" s="279"/>
       <c r="F37" s="279"/>
       <c r="G37" s="279"/>
@@ -19731,10 +18663,10 @@
       </c>
     </row>
     <row r="38" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="455" t="s">
+      <c r="A38" s="469" t="s">
         <v>203</v>
       </c>
-      <c r="B38" s="456"/>
+      <c r="B38" s="470"/>
       <c r="C38" s="160">
         <v>10</v>
       </c>
@@ -19981,12 +18913,12 @@
       </c>
     </row>
     <row r="44" spans="1:22" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="470" t="s">
+      <c r="A44" s="460" t="s">
         <v>204</v>
       </c>
-      <c r="B44" s="471"/>
-      <c r="C44" s="471"/>
-      <c r="D44" s="472"/>
+      <c r="B44" s="461"/>
+      <c r="C44" s="461"/>
+      <c r="D44" s="462"/>
       <c r="E44" s="279">
         <f t="shared" ref="E44:T44" si="18">SUM(E38:E43)</f>
         <v>0</v>
@@ -20057,12 +18989,12 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="470" t="s">
+      <c r="A45" s="460" t="s">
         <v>205</v>
       </c>
-      <c r="B45" s="471"/>
-      <c r="C45" s="471"/>
-      <c r="D45" s="472"/>
+      <c r="B45" s="461"/>
+      <c r="C45" s="461"/>
+      <c r="D45" s="462"/>
       <c r="E45" s="279"/>
       <c r="F45" s="279"/>
       <c r="G45" s="279"/>
@@ -20088,11 +19020,11 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="457" t="s">
+      <c r="A46" s="478" t="s">
         <v>206</v>
       </c>
-      <c r="B46" s="458"/>
-      <c r="C46" s="459"/>
+      <c r="B46" s="479"/>
+      <c r="C46" s="480"/>
       <c r="D46" s="170"/>
       <c r="E46" s="287">
         <f t="shared" ref="E46:U46" si="19">SUM(E6:E11,E14:E19,E22:E27,E30:E35,E38:E43)</f>
@@ -20165,12 +19097,12 @@
       <c r="V46" s="240"/>
     </row>
     <row r="47" spans="1:22" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="465" t="s">
+      <c r="A47" s="484" t="s">
         <v>207</v>
       </c>
-      <c r="B47" s="466"/>
-      <c r="C47" s="466"/>
-      <c r="D47" s="467"/>
+      <c r="B47" s="485"/>
+      <c r="C47" s="485"/>
+      <c r="D47" s="486"/>
       <c r="E47" s="288">
         <f>E46</f>
         <v>1500000</v>
@@ -20241,7 +19173,7 @@
     <row r="48" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A48" s="171"/>
       <c r="B48" s="171"/>
-      <c r="C48" s="468" t="s">
+      <c r="C48" s="487" t="s">
         <v>208</v>
       </c>
       <c r="D48" s="172">
@@ -20316,7 +19248,7 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A49" s="171"/>
-      <c r="C49" s="469"/>
+      <c r="C49" s="488"/>
       <c r="D49" s="242">
         <v>37</v>
       </c>
@@ -20387,7 +19319,7 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A50" s="171"/>
-      <c r="C50" s="469"/>
+      <c r="C50" s="488"/>
       <c r="D50" s="242">
         <v>30</v>
       </c>
@@ -20458,7 +19390,7 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A51" s="171"/>
-      <c r="C51" s="469"/>
+      <c r="C51" s="488"/>
       <c r="D51" s="242">
         <v>41</v>
       </c>
@@ -20528,38 +19460,38 @@
       </c>
     </row>
     <row r="52" spans="1:24" ht="22.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="460" t="s">
+      <c r="A52" s="481" t="s">
         <v>209</v>
       </c>
-      <c r="B52" s="461"/>
-      <c r="C52" s="461"/>
-      <c r="D52" s="461"/>
-      <c r="E52" s="461"/>
-      <c r="F52" s="461"/>
-      <c r="G52" s="461"/>
-      <c r="H52" s="461"/>
-      <c r="I52" s="461"/>
-      <c r="J52" s="461"/>
-      <c r="K52" s="461"/>
-      <c r="L52" s="461"/>
-      <c r="M52" s="461"/>
-      <c r="N52" s="461"/>
-      <c r="O52" s="461"/>
-      <c r="P52" s="461"/>
-      <c r="Q52" s="461"/>
-      <c r="R52" s="461"/>
-      <c r="S52" s="461"/>
-      <c r="T52" s="461"/>
-      <c r="U52" s="461"/>
-      <c r="V52" s="461"/>
-      <c r="W52" s="462"/>
+      <c r="B52" s="482"/>
+      <c r="C52" s="482"/>
+      <c r="D52" s="482"/>
+      <c r="E52" s="482"/>
+      <c r="F52" s="482"/>
+      <c r="G52" s="482"/>
+      <c r="H52" s="482"/>
+      <c r="I52" s="482"/>
+      <c r="J52" s="482"/>
+      <c r="K52" s="482"/>
+      <c r="L52" s="482"/>
+      <c r="M52" s="482"/>
+      <c r="N52" s="482"/>
+      <c r="O52" s="482"/>
+      <c r="P52" s="482"/>
+      <c r="Q52" s="482"/>
+      <c r="R52" s="482"/>
+      <c r="S52" s="482"/>
+      <c r="T52" s="482"/>
+      <c r="U52" s="482"/>
+      <c r="V52" s="482"/>
+      <c r="W52" s="483"/>
       <c r="X52" s="240"/>
     </row>
     <row r="53" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="463" t="s">
+      <c r="A53" s="473" t="s">
         <v>210</v>
       </c>
-      <c r="B53" s="464"/>
+      <c r="B53" s="474"/>
       <c r="C53" s="76">
         <v>10</v>
       </c>
@@ -20736,10 +19668,10 @@
       <c r="X57" s="240"/>
     </row>
     <row r="58" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="453" t="s">
+      <c r="A58" s="471" t="s">
         <v>212</v>
       </c>
-      <c r="B58" s="454"/>
+      <c r="B58" s="472"/>
       <c r="C58" s="76">
         <v>10</v>
       </c>
@@ -20921,10 +19853,10 @@
       <c r="X62" s="240"/>
     </row>
     <row r="63" spans="1:24" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="453" t="s">
+      <c r="A63" s="471" t="s">
         <v>213</v>
       </c>
-      <c r="B63" s="454"/>
+      <c r="B63" s="472"/>
       <c r="C63" s="76">
         <v>10</v>
       </c>
@@ -21114,10 +20046,10 @@
       <c r="X67" s="240"/>
     </row>
     <row r="68" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="453" t="s">
+      <c r="A68" s="471" t="s">
         <v>214</v>
       </c>
-      <c r="B68" s="454"/>
+      <c r="B68" s="472"/>
       <c r="C68" s="76">
         <v>10</v>
       </c>
@@ -21295,10 +20227,10 @@
       <c r="X72" s="240"/>
     </row>
     <row r="73" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="453" t="s">
+      <c r="A73" s="471" t="s">
         <v>215</v>
       </c>
-      <c r="B73" s="454"/>
+      <c r="B73" s="472"/>
       <c r="C73" s="76">
         <v>10</v>
       </c>
@@ -21524,10 +20456,10 @@
       <c r="X77" s="240"/>
     </row>
     <row r="78" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="453" t="s">
+      <c r="A78" s="471" t="s">
         <v>217</v>
       </c>
-      <c r="B78" s="454"/>
+      <c r="B78" s="472"/>
       <c r="C78" s="76">
         <v>10</v>
       </c>
@@ -21699,10 +20631,10 @@
       <c r="X82" s="240"/>
     </row>
     <row r="83" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="453" t="s">
+      <c r="A83" s="471" t="s">
         <v>219</v>
       </c>
-      <c r="B83" s="454"/>
+      <c r="B83" s="472"/>
       <c r="C83" s="76">
         <v>10</v>
       </c>
@@ -21874,10 +20806,10 @@
       <c r="X87" s="240"/>
     </row>
     <row r="88" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="453" t="s">
+      <c r="A88" s="471" t="s">
         <v>50</v>
       </c>
-      <c r="B88" s="454"/>
+      <c r="B88" s="472"/>
       <c r="C88" s="76">
         <v>10</v>
       </c>
@@ -22049,10 +20981,10 @@
       <c r="X92" s="240"/>
     </row>
     <row r="93" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="453" t="s">
+      <c r="A93" s="471" t="s">
         <v>222</v>
       </c>
-      <c r="B93" s="454"/>
+      <c r="B93" s="472"/>
       <c r="C93" s="76">
         <v>10</v>
       </c>
@@ -22254,10 +21186,10 @@
       <c r="X97" s="240"/>
     </row>
     <row r="98" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="453" t="s">
+      <c r="A98" s="471" t="s">
         <v>224</v>
       </c>
-      <c r="B98" s="454"/>
+      <c r="B98" s="472"/>
       <c r="C98" s="76">
         <v>10</v>
       </c>
@@ -22449,10 +21381,10 @@
       <c r="X102" s="240"/>
     </row>
     <row r="103" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="453" t="s">
+      <c r="A103" s="471" t="s">
         <v>226</v>
       </c>
-      <c r="B103" s="454"/>
+      <c r="B103" s="472"/>
       <c r="C103" s="76">
         <v>10</v>
       </c>
@@ -22654,10 +21586,10 @@
       <c r="X107" s="240"/>
     </row>
     <row r="108" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="453" t="s">
+      <c r="A108" s="471" t="s">
         <v>227</v>
       </c>
-      <c r="B108" s="454"/>
+      <c r="B108" s="472"/>
       <c r="C108" s="76">
         <v>10</v>
       </c>
@@ -22859,10 +21791,10 @@
       <c r="X112" s="240"/>
     </row>
     <row r="113" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="453" t="s">
+      <c r="A113" s="471" t="s">
         <v>228</v>
       </c>
-      <c r="B113" s="454"/>
+      <c r="B113" s="472"/>
       <c r="C113" s="76">
         <v>10</v>
       </c>
@@ -23024,10 +21956,10 @@
       <c r="X117" s="240"/>
     </row>
     <row r="118" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="453" t="s">
+      <c r="A118" s="471" t="s">
         <v>229</v>
       </c>
-      <c r="B118" s="454"/>
+      <c r="B118" s="472"/>
       <c r="C118" s="76">
         <v>10</v>
       </c>
@@ -23229,10 +22161,10 @@
       <c r="X122" s="240"/>
     </row>
     <row r="123" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="453" t="s">
+      <c r="A123" s="471" t="s">
         <v>230</v>
       </c>
-      <c r="B123" s="454"/>
+      <c r="B123" s="472"/>
       <c r="C123" s="76">
         <v>10</v>
       </c>
@@ -23434,10 +22366,10 @@
       <c r="X127" s="240"/>
     </row>
     <row r="128" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="453" t="s">
+      <c r="A128" s="471" t="s">
         <v>231</v>
       </c>
-      <c r="B128" s="454"/>
+      <c r="B128" s="472"/>
       <c r="C128" s="76">
         <v>10</v>
       </c>
@@ -23639,10 +22571,10 @@
       <c r="X132" s="240"/>
     </row>
     <row r="133" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="453" t="s">
+      <c r="A133" s="471" t="s">
         <v>232</v>
       </c>
-      <c r="B133" s="454"/>
+      <c r="B133" s="472"/>
       <c r="C133" s="76">
         <v>10</v>
       </c>
@@ -23844,10 +22776,10 @@
       <c r="X137" s="240"/>
     </row>
     <row r="138" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="453" t="s">
+      <c r="A138" s="471" t="s">
         <v>233</v>
       </c>
-      <c r="B138" s="454"/>
+      <c r="B138" s="472"/>
       <c r="C138" s="80">
         <v>10</v>
       </c>
@@ -24057,10 +22989,10 @@
       <c r="X142" s="240"/>
     </row>
     <row r="143" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="453" t="s">
+      <c r="A143" s="471" t="s">
         <v>237</v>
       </c>
-      <c r="B143" s="454"/>
+      <c r="B143" s="472"/>
       <c r="C143" s="80">
         <v>10</v>
       </c>
@@ -24153,10 +23085,10 @@
       <c r="X144" s="240"/>
     </row>
     <row r="145" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="463" t="s">
+      <c r="A145" s="473" t="s">
         <v>239</v>
       </c>
-      <c r="B145" s="464"/>
+      <c r="B145" s="474"/>
       <c r="C145" s="76">
         <v>10</v>
       </c>
@@ -24229,10 +23161,10 @@
       <c r="X146" s="240"/>
     </row>
     <row r="147" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="463" t="s">
+      <c r="A147" s="473" t="s">
         <v>240</v>
       </c>
-      <c r="B147" s="464"/>
+      <c r="B147" s="474"/>
       <c r="C147" s="76">
         <v>10</v>
       </c>
@@ -24330,10 +23262,10 @@
       <c r="X148" s="240"/>
     </row>
     <row r="149" spans="1:24" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="463" t="s">
+      <c r="A149" s="473" t="s">
         <v>241</v>
       </c>
-      <c r="B149" s="464"/>
+      <c r="B149" s="474"/>
       <c r="C149" s="76">
         <v>10</v>
       </c>
@@ -24455,12 +23387,12 @@
       <c r="X151" s="240"/>
     </row>
     <row r="152" spans="1:24" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="473" t="s">
+      <c r="A152" s="475" t="s">
         <v>242</v>
       </c>
-      <c r="B152" s="474"/>
-      <c r="C152" s="474"/>
-      <c r="D152" s="475"/>
+      <c r="B152" s="476"/>
+      <c r="C152" s="476"/>
+      <c r="D152" s="477"/>
       <c r="E152" s="311">
         <f t="shared" ref="E152:T152" si="25">SUM(E53:E151)</f>
         <v>5075324</v>
@@ -25072,37 +24004,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E4:U4"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A152:D152"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A133:B133"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A30:B30"/>
@@ -25119,6 +24020,37 @@
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A152:D152"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E4:U4"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="79" fitToHeight="0" orientation="landscape"/>
@@ -25197,69 +24129,69 @@
       <c r="BZ1" s="186"/>
     </row>
     <row r="2" spans="1:78" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="476" t="s">
+      <c r="A2" s="453" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="496"/>
-      <c r="C2" s="497"/>
-      <c r="D2" s="499" t="s">
+      <c r="B2" s="489"/>
+      <c r="C2" s="490"/>
+      <c r="D2" s="492" t="s">
         <v>351</v>
       </c>
-      <c r="E2" s="500"/>
-      <c r="F2" s="500"/>
-      <c r="G2" s="500"/>
-      <c r="H2" s="500"/>
-      <c r="I2" s="500"/>
-      <c r="J2" s="500"/>
-      <c r="K2" s="500"/>
-      <c r="L2" s="500"/>
-      <c r="M2" s="500"/>
-      <c r="N2" s="500"/>
-      <c r="O2" s="500"/>
-      <c r="P2" s="500"/>
-      <c r="Q2" s="500"/>
-      <c r="R2" s="500"/>
-      <c r="S2" s="500"/>
-      <c r="T2" s="500"/>
+      <c r="E2" s="493"/>
+      <c r="F2" s="493"/>
+      <c r="G2" s="493"/>
+      <c r="H2" s="493"/>
+      <c r="I2" s="493"/>
+      <c r="J2" s="493"/>
+      <c r="K2" s="493"/>
+      <c r="L2" s="493"/>
+      <c r="M2" s="493"/>
+      <c r="N2" s="493"/>
+      <c r="O2" s="493"/>
+      <c r="P2" s="493"/>
+      <c r="Q2" s="493"/>
+      <c r="R2" s="493"/>
+      <c r="S2" s="493"/>
+      <c r="T2" s="493"/>
       <c r="AA2" s="131"/>
       <c r="BY2" s="186"/>
       <c r="BZ2" s="186"/>
     </row>
     <row r="3" spans="1:78" s="20" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="478" t="s">
+      <c r="A3" s="455" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="496"/>
-      <c r="C3" s="497"/>
+      <c r="B3" s="489"/>
+      <c r="C3" s="490"/>
       <c r="D3" s="52"/>
       <c r="E3" s="53"/>
-      <c r="F3" s="501" t="s">
+      <c r="F3" s="494" t="s">
         <v>352</v>
       </c>
-      <c r="G3" s="502"/>
-      <c r="H3" s="503" t="s">
+      <c r="G3" s="495"/>
+      <c r="H3" s="496" t="s">
         <v>353</v>
       </c>
-      <c r="I3" s="503"/>
-      <c r="J3" s="504"/>
-      <c r="K3" s="505" t="s">
+      <c r="I3" s="496"/>
+      <c r="J3" s="497"/>
+      <c r="K3" s="498" t="s">
         <v>354</v>
       </c>
-      <c r="L3" s="506"/>
-      <c r="M3" s="507"/>
-      <c r="N3" s="504" t="s">
+      <c r="L3" s="499"/>
+      <c r="M3" s="500"/>
+      <c r="N3" s="497" t="s">
         <v>355</v>
       </c>
-      <c r="O3" s="508"/>
-      <c r="P3" s="509"/>
-      <c r="Q3" s="510" t="s">
+      <c r="O3" s="501"/>
+      <c r="P3" s="502"/>
+      <c r="Q3" s="503" t="s">
         <v>356</v>
       </c>
-      <c r="R3" s="511"/>
-      <c r="S3" s="512" t="s">
+      <c r="R3" s="504"/>
+      <c r="S3" s="505" t="s">
         <v>357</v>
       </c>
-      <c r="T3" s="513"/>
+      <c r="T3" s="506"/>
       <c r="AA3" s="132"/>
     </row>
     <row r="4" spans="1:78" s="20" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -25424,7 +24356,7 @@
       <c r="AC6" s="133"/>
     </row>
     <row r="7" spans="1:78" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="490" t="str">
+      <c r="C7" s="511" t="str">
         <f>"Projected Annual Cost
 "&amp;D5&amp;" Dollar Year" &amp;"
 ($Million)"</f>
@@ -25432,81 +24364,81 @@
 2020 Dollar Year
 ($Million)</v>
       </c>
-      <c r="D7" s="491"/>
-      <c r="E7" s="492"/>
-      <c r="F7" s="491" t="s">
+      <c r="D7" s="514"/>
+      <c r="E7" s="512"/>
+      <c r="F7" s="514" t="s">
         <v>380</v>
       </c>
-      <c r="G7" s="491"/>
-      <c r="H7" s="492"/>
-      <c r="I7" s="493" t="str">
+      <c r="G7" s="514"/>
+      <c r="H7" s="512"/>
+      <c r="I7" s="515" t="str">
         <f>"Projected Annual Cost with Financing
 ($Million; NPV=$"&amp;ROUND(Q52,3)&amp;")"</f>
         <v>Projected Annual Cost with Financing
 ($Million; NPV=$2606.746)</v>
       </c>
-      <c r="J7" s="494"/>
-      <c r="K7" s="494"/>
-      <c r="L7" s="494"/>
-      <c r="M7" s="494"/>
-      <c r="N7" s="494"/>
-      <c r="O7" s="494"/>
-      <c r="P7" s="494"/>
-      <c r="Q7" s="494"/>
-      <c r="R7" s="495"/>
-      <c r="S7" s="490" t="str">
+      <c r="J7" s="516"/>
+      <c r="K7" s="516"/>
+      <c r="L7" s="516"/>
+      <c r="M7" s="516"/>
+      <c r="N7" s="516"/>
+      <c r="O7" s="516"/>
+      <c r="P7" s="516"/>
+      <c r="Q7" s="516"/>
+      <c r="R7" s="517"/>
+      <c r="S7" s="511" t="str">
         <f>"Avoided MWD Purchase 
  ($Million; NPV=$"&amp;ROUND(Y52,3)&amp;")"</f>
         <v>Avoided MWD Purchase 
  ($Million; NPV=$125.07)</v>
       </c>
-      <c r="T7" s="491"/>
-      <c r="U7" s="491"/>
-      <c r="V7" s="491"/>
-      <c r="W7" s="491"/>
-      <c r="X7" s="492"/>
-      <c r="Y7" s="490" t="s">
+      <c r="T7" s="514"/>
+      <c r="U7" s="514"/>
+      <c r="V7" s="514"/>
+      <c r="W7" s="514"/>
+      <c r="X7" s="512"/>
+      <c r="Y7" s="511" t="s">
         <v>381</v>
       </c>
-      <c r="Z7" s="492"/>
+      <c r="Z7" s="512"/>
       <c r="AA7" s="134"/>
-      <c r="AH7" s="514" t="s">
+      <c r="AH7" s="507" t="s">
         <v>382</v>
       </c>
-      <c r="AI7" s="515"/>
+      <c r="AI7" s="508"/>
       <c r="AJ7" s="13"/>
-      <c r="AK7" s="516" t="s">
+      <c r="AK7" s="509" t="s">
         <v>383</v>
       </c>
       <c r="AL7" s="452"/>
       <c r="AM7" s="452"/>
-      <c r="AN7" s="515"/>
-      <c r="AP7" s="517" t="s">
+      <c r="AN7" s="508"/>
+      <c r="AP7" s="510" t="s">
         <v>384</v>
       </c>
-      <c r="AQ7" s="482"/>
-      <c r="AS7" s="498" t="s">
+      <c r="AQ7" s="459"/>
+      <c r="AS7" s="491" t="s">
         <v>385</v>
       </c>
-      <c r="AT7" s="481"/>
-      <c r="AU7" s="481"/>
-      <c r="AV7" s="481"/>
-      <c r="AW7" s="481"/>
-      <c r="AX7" s="481"/>
-      <c r="AY7" s="481"/>
-      <c r="AZ7" s="481"/>
-      <c r="BA7" s="481"/>
-      <c r="BB7" s="482"/>
-      <c r="BD7" s="517" t="s">
+      <c r="AT7" s="458"/>
+      <c r="AU7" s="458"/>
+      <c r="AV7" s="458"/>
+      <c r="AW7" s="458"/>
+      <c r="AX7" s="458"/>
+      <c r="AY7" s="458"/>
+      <c r="AZ7" s="458"/>
+      <c r="BA7" s="458"/>
+      <c r="BB7" s="459"/>
+      <c r="BD7" s="510" t="s">
         <v>386</v>
       </c>
-      <c r="BE7" s="482"/>
+      <c r="BE7" s="459"/>
       <c r="BF7" s="186"/>
-      <c r="BG7" s="498" t="s">
+      <c r="BG7" s="491" t="s">
         <v>387</v>
       </c>
-      <c r="BH7" s="481"/>
-      <c r="BI7" s="481"/>
+      <c r="BH7" s="458"/>
+      <c r="BI7" s="458"/>
       <c r="BY7" s="186"/>
       <c r="BZ7" s="186"/>
     </row>
@@ -35451,17 +34383,17 @@
       <c r="BZ52" s="186"/>
     </row>
     <row r="53" spans="1:78" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="489"/>
-      <c r="D53" s="489"/>
-      <c r="E53" s="489"/>
-      <c r="F53" s="489"/>
-      <c r="G53" s="489"/>
-      <c r="H53" s="489"/>
-      <c r="I53" s="489"/>
-      <c r="J53" s="489"/>
-      <c r="K53" s="489"/>
-      <c r="L53" s="489"/>
-      <c r="M53" s="489"/>
+      <c r="C53" s="513"/>
+      <c r="D53" s="513"/>
+      <c r="E53" s="513"/>
+      <c r="F53" s="513"/>
+      <c r="G53" s="513"/>
+      <c r="H53" s="513"/>
+      <c r="I53" s="513"/>
+      <c r="J53" s="513"/>
+      <c r="K53" s="513"/>
+      <c r="L53" s="513"/>
+      <c r="M53" s="513"/>
       <c r="AC53" s="136" t="s">
         <v>436</v>
       </c>
@@ -35600,6 +34532,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C53:M53"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="S7:X7"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="BG7:BI7"/>
@@ -35616,11 +34553,6 @@
     <mergeCell ref="AS7:BB7"/>
     <mergeCell ref="BD7:BE7"/>
     <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="C53:M53"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="S7:X7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="5">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N5 S5 X6" xr:uid="{00000000-0002-0000-0800-000000000000}">
@@ -50190,7 +49122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3141C089-AF0B-F64C-88A5-21CA43370521}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
